--- a/daftar_berita/okezone.xlsx
+++ b/daftar_berita/okezone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hasil Perempatfinal Korea Open 2025: Alwi Farhan Tantang Jonatan Christie di 4 Besar!</t>
+          <t>Lancarkan Serangan Besar-besaran, Rusia Bombardir Ukraina Selama Lebih dari 12 Jam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Netting | Jum'at, 26 September 2025 15:01 WIB Hasil Perempatfinal Korea Open 2025: Alwi Farhan Tantang Jonatan Christie di 4 Besar!</t>
+          <t>International | Minggu, 28 September 2025 16:42 WIB Lancarkan Serangan Besar-besaran, Rusia Bombardir Ukraina Selama Lebih dari 12 Jam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/26/40/3172646/hasil-perempatfinal-korea-open-2025-alwi-farhan-tantang-jonatan-christie-di-4-besar</t>
+          <t>https://news.okezone.com/read/2025/09/28/18/3173054/lancarkan-serangan-besar-besaran-rusia-bombardir-ukraina-selama-lebih-dari-12-jam</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -494,12 +494,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tertinggal di Revolusi Industri, Ekonomi RI Diprediksi Tumbuh 10 Persen Berkat AI</t>
+          <t>Segini Gaji dan Bayaran Tom Holland sebagai Spider-Man yang Alami Gegar Otak Ringan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hot Issue | Jum'at, 26 September 2025 14:55 WIB Tertinggal di Revolusi Industri, Ekonomi RI Diprediksi Tumbuh 10 Persen Berkat AI</t>
+          <t>Life | Minggu, 28 September 2025 16:41 WIB Segini Gaji dan Bayaran Tom Holland sebagai Spider-Man yang Alami Gegar Otak Ringan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,27 +509,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/26/320/3172645/tertinggal-di-revolusi-industri-ekonomi-ri-diprediksi-tumbuh-10-persen-berkat-ai</t>
+          <t>https://women.okezone.com/read/2025/09/28/612/3173053/segini-gaji-dan-bayaran-tom-holland-sebagai-spider-man-yang-alami-gegar-otak-ringan</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ekonomi</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ini Sebabnya Sule Ditilang Petugas Dishub Jakarta</t>
+          <t>Persita Tangerang Gasak Persib Bandung 2-1, Carlos Pena Kecewa Kemenangan Tidak Disaksikan Suporter</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hot Gossip | Jum'at, 26 September 2025 14:53 WIB Ini Sebabnya Sule Ditilang Petugas Dishub Jakarta</t>
+          <t>Liga Indonesia | Minggu, 28 September 2025 16:31 WIB Persita Tangerang Gasak Persib Bandung 2-1, Carlos Pena Kecewa Kemenangan Tidak Disaksikan Suporter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/26/33/3172644/ini-sebabnya-sule-ditilang-petugas-dishub-jakarta</t>
+          <t>https://bola.okezone.com/read/2025/09/28/49/3173052/persita-tangerang-gasak-persib-bandung-2-1-carlos-pena-kecewa-kemenangan-tidak-disaksikan-suporter</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -550,12 +546,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bayern Munich Tampil Gahar di Awal Musim 2025-2026, Vincent Kompany Bocorkan Rahasianya</t>
+          <t>Daftar Juara Dunia MotoGP sejak 1949: Marc Marquez dan Valentino Rossi Kini Selevel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Jum'at, 26 September 2025 14:52 WIB Bayern Munich Tampil Gahar di Awal Musim 2025-2026, Vincent Kompany Bocorkan Rahasianya</t>
+          <t>MotoGP | Minggu, 28 September 2025 16:29 WIB Daftar Juara Dunia MotoGP sejak 1949: Marc Marquez dan Valentino Rossi Kini Selevel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,7 +561,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/26/51/3172643/bayern-munich-tampil-gahar-di-awal-musim-2025-2026-vincent-kompany-bocorkan-rahasianya</t>
+          <t>https://sports.okezone.com/read/2025/09/28/38/3173051/daftar-juara-dunia-motogp-sejak-1949-marc-marquez-dan-valentino-rossi-kini-selevel</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -576,12 +572,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jadwal dan Link Live Streaming Vision+ Borussia Monchengladbach vs Eintracht Frankfurt di Bundesliga 2025-2026, Bisa Nonton Gratis!</t>
+          <t>Breaking News! Marak Keracunan MBG, SPPG Bermasalah Ditutup Sementara</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Jum'at, 26 September 2025 14:49 WIB Jadwal dan Link Live Streaming Vision+ Borussia Monchengladbach vs Eintracht Frankfurt di Bundesliga 2025-2026, Bisa Nonton Gratis!</t>
+          <t>Nasional | Minggu, 28 September 2025 16:27 WIB Breaking News! Marak Keracunan MBG, SPPG Bermasalah Ditutup Sementara</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -591,7 +587,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/26/51/3172642/jadwal-dan-link-live-streaming-vision-borussia-monchengladbach-vs-eintracht-frankfurt-di-bundesliga-2025-2026-bisa-nonton-gratis</t>
+          <t>https://news.okezone.com/read/2025/09/28/337/3173050/breaking-news-marak-keracunan-mbg-sppg-bermasalah-ditutup-sementara</t>
         </is>
       </c>
       <c r="E6" t="b">
@@ -602,12 +598,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Momen Bersejarah, Wanita Tertinggi dan Terpendek di Dunia Saling Bertemu</t>
+          <t>Ini Link Resmi Pendaftaran KIP Kuliah 2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Life | Jum'at, 26 September 2025 14:49 WIB Momen Bersejarah, Wanita Tertinggi dan Terpendek di Dunia Saling Bertemu</t>
+          <t>Sekolah | Minggu, 28 September 2025 16:26 WIB Ini Link Resmi Pendaftaran KIP Kuliah 2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -617,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://women.okezone.com/read/2025/09/26/612/3172641/momen-bersejarah-wanita-tertinggi-dan-terpendek-di-dunia-saling-bertemu</t>
+          <t>https://edukasi.okezone.com/read/2025/09/28/624/3173042/ini-link-resmi-pendaftaran-kip-kuliah-2025</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -628,12 +624,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kisah Cristiano Ronaldo yang Dituduh Kencani PSK Bertarif Rp156 Juta per Jam, Apa Respons CR7?</t>
+          <t>RI Rumuskan Strategi Kurangi Emisi di Sektor Pelayaran</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Jum'at, 26 September 2025 14:49 WIB Kisah Cristiano Ronaldo yang Dituduh Kencani PSK Bertarif Rp156 Juta per Jam, Apa Respons CR7?</t>
+          <t>Hot Issue | Minggu, 28 September 2025 16:12 WIB RI Rumuskan Strategi Kurangi Emisi di Sektor Pelayaran</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,7 +639,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/26/51/3172639/kisah-cristiano-ronaldo-yang-dituduh-kencani-psk-bertarif-rp156-juta-per-jam-apa-respons-cr7</t>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3172988/ri-rumuskan-strategi-kurangi-emisi-di-sektor-pelayaran</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -654,12 +650,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Microsoft Putus Akses Layanan untuk Militer Israel Terkait Pengawasan Warga Sipil Gaza</t>
+          <t>Pemprov DKI Salurkan Bansos untuk 200.684 Lansia hingga Disabilitas Periode September</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Techno | Jum'at, 26 September 2025 14:48 WIB Microsoft Putus Akses Layanan untuk Militer Israel Terkait Pengawasan Warga Sipil Gaza</t>
+          <t>Megapolitan | Minggu, 28 September 2025 16:12 WIB Pemprov DKI Salurkan Bansos untuk 200.684 Lansia hingga Disabilitas Periode September</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -669,7 +665,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/26/16/3172640/microsoft-putus-akses-layanan-untuk-militer-israel-terkait-pengawasan-warga-sipil-gaza</t>
+          <t>https://news.okezone.com/read/2025/09/28/338/3173048/pemprov-dki-salurkan-bansos-untuk-200-684-lansia-hingga-disabilitas-periode-september</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -680,12 +676,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Panel Surya Ratusan Sekolah Pakistan Dicuri, Ribuan Siswa Alami Krisis Listrik</t>
+          <t>Cara Ampuh Mengatasi Kaca Mobil Tergores Wiper</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>International | Jum'at, 26 September 2025 14:41 WIB Panel Surya Ratusan Sekolah Pakistan Dicuri, Ribuan Siswa Alami Krisis Listrik</t>
+          <t>Autos | Minggu, 28 September 2025 15:53 WIB Cara Ampuh Mengatasi Kaca Mobil Tergores Wiper</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -695,7 +691,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/26/18/3172638/panel-surya-ratusan-sekolah-pakistan-dicuri-ribuan-siswa-alami-krisis-listrik</t>
+          <t>https://ototekno.okezone.com/read/2025/09/28/15/3173047/cara-ampuh-mengatasi-kaca-mobil-tergores-wiper</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -706,12 +702,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RUU BUMN Siap Disahkan di Paripurna, BP BUMN Gantikan Peran Kementerian BUMN</t>
+          <t>Marc Klok Bangga Persib Bandung Jadi Penyumbang Pemain Terbanyak ke Timnas Indonesia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hot Issue | Jum'at, 26 September 2025 14:41 WIB RUU BUMN Siap Disahkan di Paripurna, BP BUMN Gantikan Peran Kementerian BUMN</t>
+          <t>Liga Indonesia | Minggu, 28 September 2025 15:41 WIB Marc Klok Bangga Persib Bandung Jadi Penyumbang Pemain Terbanyak ke Timnas Indonesia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -721,7 +717,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/26/320/3172637/ruu-bumn-siap-disahkan-di-paripurna-bp-bumn-gantikan-peran-kementerian-bumn</t>
+          <t>https://bola.okezone.com/read/2025/09/28/49/3173046/marc-klok-bangga-persib-bandung-jadi-penyumbang-pemain-terbanyak-ke-timnas-indonesia</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -732,12 +728,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nonton Bareng Vision+ Atletico Madrid vs Real Madrid di Batavia PIK, Rasakan Keseruannya!</t>
+          <t>Banjir Bandang Terjang Parigi Moutong Sulteng, Jembatan Putus dan 51 KK Terdampak</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liga Spanyol | Jum'at, 26 September 2025 14:41 WIB Nonton Bareng Vision+ Atletico Madrid vs Real Madrid di Batavia PIK, Rasakan Keseruannya!</t>
+          <t>Nasional | Minggu, 28 September 2025 15:31 WIB Banjir Bandang Terjang Parigi Moutong Sulteng, Jembatan Putus dan 51 KK Terdampak</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -747,7 +743,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/26/46/3172636/nonton-bareng-vision-atletico-madrid-vs-real-madrid-di-batavia-pik-rasakan-keseruannya</t>
+          <t>https://news.okezone.com/read/2025/09/28/337/3173043/banjir-bandang-terjang-parigi-moutong-sulteng-jembatan-putus-dan-51-kk-terdampak</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -758,12 +754,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Karyawan Zaskia Mecca Sudah Maafkan Oknum TNI Pelaku Kekerasan, tapi Proses Hukum Lanjut</t>
+          <t>Simak Ini Jadwal Lengkap SNBP dan SNBT 2026, Catat Tanggal Pentingnya</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hot Gossip | Jum'at, 26 September 2025 14:33 WIB Karyawan Zaskia Mecca Sudah Maafkan Oknum TNI Pelaku Kekerasan, tapi Proses Hukum Lanjut</t>
+          <t>Kampus | Minggu, 28 September 2025 15:19 WIB Simak Ini Jadwal Lengkap SNBP dan SNBT 2026, Catat Tanggal Pentingnya</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -773,7 +769,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/26/33/3172635/karyawan-zaskia-mecca-sudah-maafkan-oknum-tni-pelaku-kekerasan-tapi-proses-hukum-lanjut</t>
+          <t>https://edukasi.okezone.com/read/2025/09/28/65/3173041/simak-ini-jadwal-lengkap-snbp-dan-snbt-2026-catat-tanggal-pentingnya</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -784,12 +780,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hasil Perempatfinal Korea Open 2025: Jonatan Christie Rebut Tiket Semifinal!</t>
+          <t>3 Rekor yang Sukses Dipecahkan Marc Marquez Usai Jadi Juara Dunia MotoGP 2025, Nomor 1 Bikin Fans Valentino Rossi Murka</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Netting | Jum'at, 26 September 2025 14:31 WIB Hasil Perempatfinal Korea Open 2025: Jonatan Christie Rebut Tiket Semifinal!</t>
+          <t>MotoGP | Minggu, 28 September 2025 15:12 WIB 3 Rekor yang Sukses Dipecahkan Marc Marquez Usai Jadi Juara Dunia MotoGP 2025, Nomor 1 Bikin Fans Valentino Rossi Murka</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -799,7 +795,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/26/40/3172634/hasil-perempatfinal-korea-open-2025-jonatan-christie-rebut-tiket-semifinal</t>
+          <t>https://sports.okezone.com/read/2025/09/28/38/3173040/3-rekor-yang-sukses-dipecahkan-marc-marquez-usai-jadi-juara-dunia-motogp-2025-nomor-1-bikin-fans-valentino-rossi-murka</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -810,12 +806,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Menkum: Batas Waktu Menteri dan Wamen Rangkap Jabatan di BUMN Dua Tahun</t>
+          <t>Viral, Kepala Pria Ini Nyangkut di Lampu Lalu Lintas Setelah Tabrakan Aneh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nasional | Jum'at, 26 September 2025 14:21 WIB Menkum: Batas Waktu Menteri dan Wamen Rangkap Jabatan di BUMN Dua Tahun</t>
+          <t>International | Minggu, 28 September 2025 15:12 WIB Viral, Kepala Pria Ini Nyangkut di Lampu Lalu Lintas Setelah Tabrakan Aneh</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -825,7 +821,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/26/337/3172631/menkum-batas-waktu-menteri-dan-wamen-rangkap-jabatan-di-bumn-dua-tahun</t>
+          <t>https://news.okezone.com/read/2025/09/28/18/3173039/viral-kepala-pria-ini-nyangkut-di-lampu-lalu-lintas-setelah-tabrakan-aneh</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -836,12 +832,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kapolri Tunjuk Kombes Iman Imannudin Jadi Dirkrimum Polda Metro</t>
+          <t>Rumah di Duren Sawit Jaktim Kebakaran, 12 Unit Damkar Dikerahkan Padamkan Api</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nasional | Jum'at, 26 September 2025 14:18 WIB Kapolri Tunjuk Kombes Iman Imannudin Jadi Dirkrimum Polda Metro</t>
+          <t>Megapolitan | Minggu, 28 September 2025 15:09 WIB Rumah di Duren Sawit Jaktim Kebakaran, 12 Unit Damkar Dikerahkan Padamkan Api</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -851,13 +847,1555 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/26/337/3172630/kapolri-tunjuk-kombes-iman-imannudin-jadi-dirkrimum-polda-metro</t>
+          <t>https://news.okezone.com/read/2025/09/28/338/3173038/rumah-di-duren-sawit-jaktim-kebakaran-12-unit-damkar-dikerahkan-padamkan-api</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Daftar 10 Profesi yang Paling Tidak Dipercaya Warga Indonesia</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Smart Money | Minggu, 28 September 2025 15:03 WIB Daftar 10 Profesi yang Paling Tidak Dipercaya Warga Indonesia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/24/622/3172150/daftar-10-profesi-yang-paling-tidak-dipercaya-warga-indonesia</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hasil Final Korea Open 2025: Gagal Kalahkan Wakil Tuan Rumah, Fajar Alfian/Shohibul Fikri Raih Runner-up</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Netting | Minggu, 28 September 2025 14:50 WIB Hasil Final Korea Open 2025: Gagal Kalahkan Wakil Tuan Rumah, Fajar Alfian/Shohibul Fikri Raih Runner-up</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://sports.okezone.com/read/2025/09/28/40/3173037/hasil-final-korea-open-2025-gagal-kalahkan-wakil-tuan-rumah-fajar-alfian-shohibul-fikri-raih-runner-up</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Marak Keracunan MBG, Kepala BGN Ngaku ke Prabowo jika SPPG Baru Minim Jam Terbang</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nasional | Minggu, 28 September 2025 14:48 WIB Marak Keracunan MBG, Kepala BGN Ngaku ke Prabowo jika SPPG Baru Minim Jam Terbang</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/337/3173036/marak-keracunan-mbg-kepala-bgn-ngaku-ke-prabowo-jika-sppg-baru-minim-jam-terbang</t>
+        </is>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Emil Audero Cedera Betis, Dicoret Patrick Kluivert dari Timnas Indonesia?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liga Italia | Minggu, 28 September 2025 14:45 WIB Emil Audero Cedera Betis, Dicoret Patrick Kluivert dari Timnas Indonesia?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://bola.okezone.com/read/2025/09/28/47/3173035/emil-audero-cedera-betis-dicoret-patrick-kluivert-dari-timnas-indonesia</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Klasemen Sementara MotoGP 2025 Usai Race MotoGP Jepang 2025: Marc Marquez Juara, Perebutan Runner-up Kian Sengit</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MotoGP | Minggu, 28 September 2025 14:19 WIB Klasemen Sementara MotoGP 2025 Usai Race MotoGP Jepang 2025: Marc Marquez Juara, Perebutan Runner-up Kian Sengit</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://sports.okezone.com/read/2025/09/28/38/3173033/klasemen-sementara-motogp-2025-usai-race-motogp-jepang-2025-marc-marquez-juara-perebutan-runner-up-kian-sengit</t>
+        </is>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jadwal dan Link Live Streaming ATP 500 Japan Open &amp; China Open 2025 di Vision+, Klik di Sini!</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Netting | Minggu, 28 September 2025 14:13 WIB Jadwal dan Link Live Streaming ATP 500 Japan Open &amp; China Open 2025 di Vision+, Klik di Sini!</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://sports.okezone.com/read/2025/09/28/40/3173032/jadwal-dan-link-live-streaming-atp-500-japan-open-amp-china-open-2025-di-vision-klik-di-sini</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rumah Eks Dirjen Kemnaker Tersangka Pemerasan TKA Disita KPK</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nasional | Minggu, 28 September 2025 14:11 WIB Rumah Eks Dirjen Kemnaker Tersangka Pemerasan TKA Disita KPK</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/337/3173031/rumah-eks-dirjen-kemnaker-tersangka-pemerasan-tka-disita-kpk</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Heboh! Bocah Hilang 13 Hari Diduga Diculik Badut di Tangerang</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Megapolitan | Minggu, 28 September 2025 14:06 WIB Heboh! Bocah Hilang 13 Hari Diduga Diculik Badut di Tangerang</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/338/3173029/heboh-bocah-hilang-13-hari-diduga-diculik-badut-di-tangerang</t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>5 Cara Dapatkan Uang dari TikTok dengan Menonton Video</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Techno | Minggu, 28 September 2025 14:04 WIB 5 Cara Dapatkan Uang dari TikTok dengan Menonton Video</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://ototekno.okezone.com/read/2025/09/28/16/3173028/5-cara-dapatkan-uang-dari-tiktok-dengan-menonton-video</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Masih Jadi Denyut Nadi Ekonomi RI, UMKM Butuh Akses Jaringan Luas</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hot Issue | Minggu, 28 September 2025 14:02 WIB Masih Jadi Denyut Nadi Ekonomi RI, UMKM Butuh Akses Jaringan Luas</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3172983/masih-jadi-denyut-nadi-ekonomi-ri-umkm-butuh-akses-jaringan-luas</t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ekonomi</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kenapa Banyak Perempuan Jepang Berusia 100 Tahun?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Beauty | Minggu, 28 September 2025 13:59 WIB Kenapa Banyak Perempuan Jepang Berusia 100 Tahun?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://women.okezone.com/read/2025/09/28/611/3173027/kenapa-banyak-perempuan-jepang-berusia-100-tahun</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tangis Marc Marquez Pecah Usai Segel Gelar Juara Dunia MotoGP 2025 di Jepang</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MotoGP | Minggu, 28 September 2025 13:58 WIB Tangis Marc Marquez Pecah Usai Segel Gelar Juara Dunia MotoGP 2025 di Jepang</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://sports.okezone.com/read/2025/09/28/38/3173026/tangis-marc-marquez-pecah-usai-segel-gelar-juara-dunia-motogp-2025-di-jepang</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Bertambah, 137 Rumah Rusak Akibat Gempa M5,7 di Banyuwangi-Situbondo</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nasional | Minggu, 28 September 2025 13:44 WIB Bertambah, 137 Rumah Rusak Akibat Gempa M5,7 di Banyuwangi-Situbondo</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/337/3173021/bertambah-137-rumah-rusak-akibat-gempa-m5-7-di-banyuwangi-situbondo</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BREAKING NEWS: Jonatan Christie Juara Korea Open 2025 Usai Kalahkan Anders Antonsen di Final</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Netting | Minggu, 28 September 2025 13:39 WIB BREAKING NEWS: Jonatan Christie Juara Korea Open 2025 Usai Kalahkan Anders Antonsen di Final</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://sports.okezone.com/read/2025/09/28/40/3173025/breaking-news-jonatan-christie-juara-korea-open-2025-usai-kalahkan-anders-antonsen-di-final</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Kevin Diks Cs Babak Belur Lawan Eintracht Frankfurt, Pelatih Borussia Monchengladbach Kecewa Berat</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sepakbola Dunia | Minggu, 28 September 2025 13:36 WIB Kevin Diks Cs Babak Belur Lawan Eintracht Frankfurt, Pelatih Borussia Monchengladbach Kecewa Berat</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://bola.okezone.com/read/2025/09/28/51/3173024/kevin-diks-cs-babak-belur-lawan-eintracht-frankfurt-pelatih-borussia-monchengladbach-kecewa-berat</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Setidaknya 36 Orang Tewas Desak-desakan dalam Kampanye Artis Politisi India</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>International | Minggu, 28 September 2025 13:31 WIB Setidaknya 36 Orang Tewas Desak-desakan dalam Kampanye Artis Politisi India</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/18/3173023/setidaknya-36-orang-tewas-desak-desakan-dalam-kampanye-artis-politisi-india</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Final OSN 2025 Jenjang SMA Digelar Oktober, Berikut Jadwal Lengkapnya</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sekolah | Minggu, 28 September 2025 13:31 WIB Final OSN 2025 Jenjang SMA Digelar Oktober, Berikut Jadwal Lengkapnya</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://edukasi.okezone.com/read/2025/09/28/624/3173022/final-osn-2025-jenjang-sma-digelar-oktober-berikut-jadwal-lengkapnya</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Marak Keracunan MBG, Cak Imin: Kita Tidak Boleh Berhenti di Tengah Jalan</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nasional | Minggu, 28 September 2025 13:30 WIB Marak Keracunan MBG, Cak Imin: Kita Tidak Boleh Berhenti di Tengah Jalan</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/337/3173011/marak-keracunan-mbg-cak-imin-kita-tidak-boleh-berhenti-di-tengah-jalan</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Pratama Arhan Foto Mesra dengan Selebgram Putri Azzralea, Netizen Duga Hanya Editan</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Hot Gossip | Minggu, 28 September 2025 13:30 WIB Pratama Arhan Foto Mesra dengan Selebgram Putri Azzralea, Netizen Duga Hanya Editan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://celebrity.okezone.com/read/2025/09/28/33/3173019/pratama-arhan-foto-mesra-dengan-selebgram-putri-azzralea-netizen-duga-hanya-editan</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kisah Perjuangan Marc Marquez Hampir Pensiun karena Alami Kerusakan Mata Kini Samai Gelar Juara Dunia Valentino Rossi</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MotoGP | Minggu, 28 September 2025 13:25 WIB Kisah Perjuangan Marc Marquez Hampir Pensiun karena Alami Kerusakan Mata Kini Samai Gelar Juara Dunia Valentino Rossi</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://sports.okezone.com/read/2025/09/28/38/3173020/kisah-perjuangan-marc-marquez-hampir-pensiun-karena-alami-kerusakan-mata-kini-samai-gelar-juara-dunia-valentino-rossi</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Panen Jagung Melimpah, Petani Nikmati Rp15 Triliun dari Kenaikan Produksi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Market Update | Minggu, 28 September 2025 13:25 WIB Panen Jagung Melimpah, Petani Nikmati Rp15 Triliun dari Kenaikan Produksi</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/278/3172991/panen-jagung-melimpah-petani-nikmati-rp15-triliun-dari-kenaikan-produksi-nbsp-nbsp</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tantangan Besar Industri AI, Banyak Warga Salah Paham Peran Kecerdasan Buatan</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hot Issue | Minggu, 28 September 2025 13:11 WIB Tantangan Besar Industri AI, Banyak Warga Salah Paham Peran Kecerdasan Buatan</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3172957/tantangan-besar-industri-ai-banyak-warga-salah-paham-peran-kecerdasan-buatan</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sebut Portland Dilanda Perang, Trump Kerahkan Militer dengan Otorisasi Penuh ke Oregon</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>International | Minggu, 28 September 2025 13:04 WIB Sebut Portland Dilanda Perang, Trump Kerahkan Militer dengan Otorisasi Penuh ke Oregon</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/18/3173018/sebut-portland-dilanda-perang-trump-kerahkan-militer-dengan-otorisasi-penuh-ke-oregon</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Layanan Transjakarta Koridor 1 Blok M-Kota Kembali Normal</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Megapolitan | Minggu, 28 September 2025 13:00 WIB Layanan Transjakarta Koridor 1 Blok M-Kota Kembali Normal</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/338/3173012/layanan-transjakarta-koridor-1-blok-m-kota-kembali-normal</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Marc Marquez Samai Gelar Juara Valentino Rossi Usai Pastikan Jadi Raja MotoGP 2025 di Jepang</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MotoGP | Minggu, 28 September 2025 12:59 WIB Marc Marquez Samai Gelar Juara Valentino Rossi Usai Pastikan Jadi Raja MotoGP 2025 di Jepang</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://sports.okezone.com/read/2025/09/28/38/3173017/marc-marquez-samai-gelar-juara-valentino-rossi-usai-pastikan-jadi-raja-motogp-2025-di-jepang</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BREAKING NEWS: Marc Marquez Resmi Juara Dunia MotoGP 2025, Usai Finis Ke-2 di MotoGP Jepang!</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MotoGP | Minggu, 28 September 2025 12:46 WIB BREAKING NEWS: Marc Marquez Resmi Juara Dunia MotoGP 2025, Usai Finis Ke-2 di MotoGP Jepang!</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://sports.okezone.com/read/2025/09/28/38/3173016/breaking-news-marc-marquez-resmi-juara-dunia-motogp-2025-usai-finis-ke-2-di-motogp-jepang</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kisah Legenda Pebulu Tangkis Indonesia Susy Susanti, Ternyata Pernah Sengaja Kalah di French Open</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Netting | Minggu, 28 September 2025 12:40 WIB Kisah Legenda Pebulu Tangkis Indonesia Susy Susanti, Ternyata Pernah Sengaja Kalah di French Open</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://sports.okezone.com/read/2025/09/28/40/3173015/kisah-legenda-pebulu-tangkis-indonesia-susy-susanti-ternyata-pernah-sengaja-kalah-di-french-open</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tasya Farasya Akui Syok saat Tahu Suami Gelapkan Dana Perusahaan Rp23 Miliar</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Hot Gossip | Minggu, 28 September 2025 12:30 WIB Tasya Farasya Akui Syok saat Tahu Suami Gelapkan Dana Perusahaan Rp23 Miliar</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://celebrity.okezone.com/read/2025/09/28/33/3173013/tasya-farasya-akui-syok-saat-tahu-suami-gelapkan-dana-perusahaan-rp23-miliar</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rumah di Tambora Kebakaran, 11 Unit Damkar Berjibaku Jinakkan Api</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Megapolitan | Minggu, 28 September 2025 12:25 WIB Rumah di Tambora Kebakaran, 11 Unit Damkar Berjibaku Jinakkan Api</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/338/3173014/rumah-di-tambora-kebakaran-11-unit-damkar-berjibaku-jinakkan-api</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Harga Emas Diprediksi Tembus Rp2,3 Juta per Gram Sampai Akhir 2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hot Issue | Minggu, 28 September 2025 12:20 WIB Harga Emas Diprediksi Tembus Rp2,3 Juta per Gram Sampai Akhir 2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3173010/harga-emas-diprediksi-tembus-rp2-3-juta-per-gram-sampai-akhir-2025</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Kinerja PLN Semester I-2025, Utang Masih Dalam Batas Wajar</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Hot Issue | Minggu, 28 September 2025 12:08 WIB Kinerja PLN Semester I-2025, Utang Masih Dalam Batas Wajar</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3172956/kinerja-pln-semester-i-2025-utang-masih-dalam-batas-wajar</t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Kaget Lihat Skuad Timnas Indonesia untuk Kualifikasi Piala Dunia 2026, Pandit Malaysia: Legasi Shin Tae-yong Telah Berakhir</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sepakbola Dunia | Minggu, 28 September 2025 12:08 WIB Kaget Lihat Skuad Timnas Indonesia untuk Kualifikasi Piala Dunia 2026, Pandit Malaysia: Legasi Shin Tae-yong Telah Berakhir</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://bola.okezone.com/read/2025/09/28/51/3173009/kaget-lihat-skuad-timnas-indonesia-untuk-kualifikasi-piala-dunia-2026-pandit-malaysia-legasi-shin-tae-yong-telah-berakhir</t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Persija Jakarta Gagal Menang 2 Laga Beruntun, Mampu Putus Tren Negatif di Markas Borneo FC?</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liga Indonesia | Minggu, 28 September 2025 12:06 WIB Persija Jakarta Gagal Menang 2 Laga Beruntun, Mampu Putus Tren Negatif di Markas Borneo FC?</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://bola.okezone.com/read/2025/09/28/49/3173008/persija-jakarta-gagal-menang-2-laga-beruntun-mampu-putus-tren-negatif-di-markas-borneo-fc</t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Honda Bawa Motor Bebek Supra GTR di IMOS 2025, Masih Banyak Peminat?</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Autos | Minggu, 28 September 2025 11:59 WIB Honda Bawa Motor Bebek Supra GTR di IMOS 2025, Masih Banyak Peminat?</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://ototekno.okezone.com/read/2025/09/28/15/3173007/honda-bawa-motor-bebek-supra-gtr-di-imos-2025-masih-banyak-peminat</t>
+        </is>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Makin Susah, Beli BBM Shell Cuma Tersedia di Satu SPBU Jakarta</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Hot Issue | Minggu, 28 September 2025 11:53 WIB Makin Susah, Beli BBM Shell Cuma Tersedia di Satu SPBU Jakarta</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3173006/makin-susah-beli-bbm-shell-cuma-tersedia-di-satu-spbu-jakarta</t>
+        </is>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Kebakaran Rumah di Permukiman Padat Taman Sari Jakbar, 10 Damkar Dikerahkan</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Megapolitan | Minggu, 28 September 2025 11:42 WIB Kebakaran Rumah di Permukiman Padat Taman Sari Jakbar, 10 Damkar Dikerahkan</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/338/3173003/kebakaran-rumah-di-permukiman-padat-taman-sari-jakbar-10-damkar-dikerahkan</t>
+        </is>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Rupiah Diprediksi Melemah ke Level Rp16.800 Pekan Depan</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hot Issue | Minggu, 28 September 2025 11:39 WIB Rupiah Diprediksi Melemah ke Level Rp16.800 Pekan Depan</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3173002/rupiah-diprediksi-melemah-ke-level-rp16-800-pekan-depan</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>rupiah</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Kompak! Pramono-Doel Suarakan Jaga Jakarta di Arena CFD Bundaran HI</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Megapolitan | Minggu, 28 September 2025 11:37 WIB Kompak! Pramono-Doel Suarakan Jaga Jakarta di Arena CFD Bundaran HI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/338/3172978/kompak-pramono-doel-suarakan-jaga-jakarta-di-arena-cfd-bundaran-hi</t>
+        </is>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Daftar SMA Top yang Lulusannya Banyak Masuk Akmil dan Akpol</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Sekolah | Minggu, 28 September 2025 11:33 WIB Daftar SMA Top yang Lulusannya Banyak Masuk Akmil dan Akpol</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://edukasi.okezone.com/read/2025/09/28/624/3173001/daftar-sma-top-yang-lulusannya-banyak-masuk-akmil-dan-akpol</t>
+        </is>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Apa Arti Lavender Marriage dan Dampaknya Bagi Psikologis</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Life | Minggu, 28 September 2025 11:26 WIB Apa Arti Lavender Marriage dan Dampaknya Bagi Psikologis</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://women.okezone.com/read/2025/09/28/612/3173000/apa-arti-lavender-marriage-dan-dampaknya-bagi-psikologis</t>
+        </is>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Warga 3 Kecamatan di Katingan Titip Aspirasi Perbaikan Jalan-Alat Pertanian, Legislator Perindo: Kami Perjuangkan</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nusantara | Minggu, 28 September 2025 11:23 WIB Warga 3 Kecamatan di Katingan Titip Aspirasi Perbaikan Jalan-Alat Pertanian, Legislator Perindo: Kami Perjuangkan</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/340/3172999/warga-3-kecamatan-di-katingan-titip-aspirasi-perbaikan-jalan-alat-pertanian-legislator-perindo-kami-perjuangkan</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sentil FAM karena Cari-Cari Alasan Usai Disanksi FIFA, Jurnalis Malaysia: Coba Keluarkan Buktinya</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Sepakbola Dunia | Minggu, 28 September 2025 11:21 WIB Sentil FAM karena Cari-Cari Alasan Usai Disanksi FIFA, Jurnalis Malaysia: Coba Keluarkan Buktinya</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://bola.okezone.com/read/2025/09/28/51/3172998/sentil-fam-karena-cari-cari-alasan-usai-disanksi-fifa-jurnalis-malaysia-coba-keluarkan-buktinya</t>
+        </is>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jukir Aniaya Pemotor di Jakut Pakai Pipa Besi hingga Berlumuran Darah, Ini Kronologinya!</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Megapolitan | Minggu, 28 September 2025 11:18 WIB Jukir Aniaya Pemotor di Jakut Pakai Pipa Besi hingga Berlumuran Darah, Ini Kronologinya!</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/338/3172997/jukir-aniaya-pemotor-di-jakut-pakai-pipa-besi-hingga-berlumuran-darah-ini-kronologinya</t>
+        </is>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Borneo FC vs Persija Jakarta, Mauricio Souza Pede Jordi Amat Cs Bisa Putus Tren Kemenangan Tuan Rumah</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Liga Indonesia | Minggu, 28 September 2025 11:18 WIB Borneo FC vs Persija Jakarta, Mauricio Souza Pede Jordi Amat Cs Bisa Putus Tren Kemenangan Tuan Rumah</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://bola.okezone.com/read/2025/09/28/49/3172996/borneo-fc-vs-persija-jakarta-mauricio-souza-pede-jordi-amat-cs-bisa-putus-tren-kemenangan-tuan-rumah</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Meta Luncurkan Platform Berbagi Video AI Vibes</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Techno | Minggu, 28 September 2025 11:14 WIB Meta Luncurkan Platform Berbagi Video AI Vibes</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://ototekno.okezone.com/read/2025/09/28/16/3172995/meta-luncurkan-platform-berbagi-video-ai-vibes</t>
+        </is>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Menpora Erick Thohir Bertemu Menkeu Purbaya Yudhi Sadewa, Bahas Anggaran SEA Games 2025?</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Sport Lain | Minggu, 28 September 2025 11:11 WIB Menpora Erick Thohir Bertemu Menkeu Purbaya Yudhi Sadewa, Bahas Anggaran SEA Games 2025?</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://sports.okezone.com/read/2025/09/28/43/3172994/menpora-erick-thohir-bertemu-menkeu-purbaya-yudhi-sadewa-bahas-anggaran-sea-games-2025</t>
+        </is>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Cukai Rokok 2026 Tak Naik, Jadi Angin Segar Bagi Industri dan Petani</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Hot Issue | Minggu, 28 September 2025 11:02 WIB Cukai Rokok 2026 Tak Naik, Jadi Angin Segar Bagi Industri dan Petani</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3172969/cukai-rokok-2026-tak-naik-jadi-angin-segar-bagi-industri-dan-petani</t>
+        </is>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Pengusaha Logistik Buka-bukaan soal Akses BBM Pertamina di Seluruh RI</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Hot Issue | Minggu, 28 September 2025 11:00 WIB Pengusaha Logistik Buka-bukaan soal Akses BBM Pertamina di Seluruh RI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3172992/pengusaha-logistik-buka-bukaan-soal-akses-bbm-pertamina-di-seluruh-ri</t>
+        </is>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Superbrands Indonesia’s Choice 2025 Beri Penghargaan untuk 58 Merek di Indonesia</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Economy | Minggu, 28 September 2025 11:00 WIB Superbrands Indonesia’s Choice 2025 Beri Penghargaan untuk 58 Merek di Indonesia</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/11/3172968/superbrands-indonesia-rsquo-s-choice-2025-beri-penghargaan-untuk-58-merek-di-indonesia</t>
+        </is>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Oknum TNI Penganiaya Karyawan Zaskia Mecca Ditahan di Denpom Jaya</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Megapolitan | Minggu, 28 September 2025 10:49 WIB Oknum TNI Penganiaya Karyawan Zaskia Mecca Ditahan di Denpom Jaya</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/338/3172990/oknum-tni-penganiaya-karyawan-zaskia-mecca-ditahan-di-denpom-jaya</t>
+        </is>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BGN Larang Makanan Kemasan untuk MBG, Alasannya Mengejutkan</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Hot Issue | Minggu, 28 September 2025 10:37 WIB BGN Larang Makanan Kemasan untuk MBG, Alasannya Mengejutkan</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3172989/bgn-larang-makanan-kemasan-untuk-mbg-alasannya-mengejutkan-nbsp</t>
+        </is>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>5 Penyebab Real Madrid Kalah 2-5 dari Atletico Madrid di Liga Spanyol 2025-2026, Nomor 1 Bikin Xabi Alonso Marah</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Liga Spanyol | Minggu, 28 September 2025 10:24 WIB 5 Penyebab Real Madrid Kalah 2-5 dari Atletico Madrid di Liga Spanyol 2025-2026, Nomor 1 Bikin Xabi Alonso Marah</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://bola.okezone.com/read/2025/09/28/46/3172987/5-penyebab-real-madrid-kalah-2-5-dari-atletico-madrid-di-liga-spanyol-2025-2026-nomor-1-bikin-xabi-alonso-marah</t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Dalih Thom Haye Usai Persib Bandung Kalah dari 1-2 dari Persita Tangerang, Ngaku Masih Butuh Penyesuaian</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Liga Indonesia | Minggu, 28 September 2025 10:21 WIB Dalih Thom Haye Usai Persib Bandung Kalah dari 1-2 dari Persita Tangerang, Ngaku Masih Butuh Penyesuaian</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://bola.okezone.com/read/2025/09/28/49/3172986/dalih-thom-haye-usai-persib-bandung-kalah-dari-1-2-dari-persita-tangerang-ngaku-masih-butuh-penyesuaian</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>AS Cabut Visa Presiden Kolombia Usai Demo Pro-Palestina</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>International | Minggu, 28 September 2025 10:19 WIB AS Cabut Visa Presiden Kolombia Usai Demo Pro-Palestina</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/18/3172985/as-cabut-visa-presiden-kolombia-usai-demo-pro-palestina</t>
+        </is>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Gunung Lewotobi Laki-Laki Meletus, Muntahkan Abu Vulkanik Setinggi 1.200 Meter</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nasional | Minggu, 28 September 2025 10:14 WIB Gunung Lewotobi Laki-Laki Meletus, Muntahkan Abu Vulkanik Setinggi 1.200 Meter</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/337/3172984/gunung-lewotobi-laki-laki-meletus-muntahkan-abu-vulkanik-setinggi-1-200-meter</t>
+        </is>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Link Live Streaming Race MotoGP Jepang 2025: Gelar Juara Dunia di Depan Mata Marc Marquez!</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MotoGP | Minggu, 28 September 2025 10:14 WIB Link Live Streaming Race MotoGP Jepang 2025: Gelar Juara Dunia di Depan Mata Marc Marquez!</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://sports.okezone.com/read/2025/09/28/38/3172982/link-live-streaming-race-motogp-jepang-2025-gelar-juara-dunia-di-depan-mata-marc-marquez</t>
+        </is>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Harga Pangan Hari Ini: Telur Hampir Rp31 Ribu dan Cabai Rp59 Ribu per Kg</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Hot Issue | Minggu, 28 September 2025 10:06 WIB Harga Pangan Hari Ini: Telur Hampir Rp31 Ribu dan Cabai Rp59 Ribu per Kg</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3172981/harga-pangan-hari-ini-telur-hampir-rp31-ribu-dan-cabai-rp59-ribu-per-kg</t>
+        </is>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Bangunan di Indonesia Sumbang 33% Emisi, Penggunaan AC Jadi Sorotan</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Property | Minggu, 28 September 2025 10:01 WIB Bangunan di Indonesia Sumbang 33% Emisi, Penggunaan AC Jadi Sorotan</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://economy.okezone.com/read/2025/09/28/470/3172959/bangunan-di-indonesia-sumbang-33-emisi-penggunaan-ac-jadi-sorotan</t>
+        </is>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Tukang Parkir Hantam Warga Pakai Pipa Besi di Jakut Ditangkap, Nih Tampangnya!</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Megapolitan | Minggu, 28 September 2025 09:59 WIB Tukang Parkir Hantam Warga Pakai Pipa Besi di Jakut Ditangkap, Nih Tampangnya!</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://news.okezone.com/read/2025/09/28/338/3172980/tukang-parkir-hantam-warga-pakai-pipa-besi-di-jakut-ditangkap-nih-tampangnya</t>
+        </is>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daftar_berita/okezone.xlsx
+++ b/daftar_berita/okezone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lancarkan Serangan Besar-besaran, Rusia Bombardir Ukraina Selama Lebih dari 12 Jam</t>
+          <t>IHSG Dibuka Menguat ke 8.139, Saham-Saham Ini Cuan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>International | Minggu, 28 September 2025 16:42 WIB Lancarkan Serangan Besar-besaran, Rusia Bombardir Ukraina Selama Lebih dari 12 Jam</t>
+          <t>Market Update | Senin, 29 September 2025 09:21 WIB IHSG Dibuka Menguat ke 8.139, Saham-Saham Ini Cuan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,23 +483,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/18/3173054/lancarkan-serangan-besar-besaran-rusia-bombardir-ukraina-selama-lebih-dari-12-jam</t>
+          <t>https://economy.okezone.com/read/2025/09/29/278/3173154/ihsg-dibuka-menguat-ke-8-139-saham-saham-ini-cuan</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>saham</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Segini Gaji dan Bayaran Tom Holland sebagai Spider-Man yang Alami Gegar Otak Ringan</t>
+          <t>Penyebab Kapten Timnas Indonesia Jay Idzes Tolak Ajakan Nemanja Matic untuk Selebrasi Gol di Laga Sassuolo vs Udinese</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Life | Minggu, 28 September 2025 16:41 WIB Segini Gaji dan Bayaran Tom Holland sebagai Spider-Man yang Alami Gegar Otak Ringan</t>
+          <t>Liga Italia | Senin, 29 September 2025 09:13 WIB Penyebab Kapten Timnas Indonesia Jay Idzes Tolak Ajakan Nemanja Matic untuk Selebrasi Gol di Laga Sassuolo vs Udinese</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,7 +513,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://women.okezone.com/read/2025/09/28/612/3173053/segini-gaji-dan-bayaran-tom-holland-sebagai-spider-man-yang-alami-gegar-otak-ringan</t>
+          <t>https://bola.okezone.com/read/2025/09/29/47/3173153/penyebab-kapten-timnas-indonesia-jay-idzes-tolak-ajakan-nemanja-matic-untuk-selebrasi-gol-di-laga-sassuolo-vs-udinese</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -520,12 +524,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Persita Tangerang Gasak Persib Bandung 2-1, Carlos Pena Kecewa Kemenangan Tidak Disaksikan Suporter</t>
+          <t>Shell Buka Suara soal Isu PHK Massal Imbas Kebijakan Impor BBM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liga Indonesia | Minggu, 28 September 2025 16:31 WIB Persita Tangerang Gasak Persib Bandung 2-1, Carlos Pena Kecewa Kemenangan Tidak Disaksikan Suporter</t>
+          <t>Hot Issue | Senin, 29 September 2025 09:10 WIB Shell Buka Suara soal Isu PHK Massal Imbas Kebijakan Impor BBM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +539,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/49/3173052/persita-tangerang-gasak-persib-bandung-2-1-carlos-pena-kecewa-kemenangan-tidak-disaksikan-suporter</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173152/shell-buka-suara-soal-isu-phk-massal-imbas-kebijakan-impor-bbm</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -546,12 +550,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Daftar Juara Dunia MotoGP sejak 1949: Marc Marquez dan Valentino Rossi Kini Selevel</t>
+          <t>Kebakaran Hebat di Taman Sari akibat Kipas Angin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MotoGP | Minggu, 28 September 2025 16:29 WIB Daftar Juara Dunia MotoGP sejak 1949: Marc Marquez dan Valentino Rossi Kini Selevel</t>
+          <t>Megapolitan | Senin, 29 September 2025 09:04 WIB Kebakaran Hebat di Taman Sari akibat Kipas Angin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -561,7 +565,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/38/3173051/daftar-juara-dunia-motogp-sejak-1949-marc-marquez-dan-valentino-rossi-kini-selevel</t>
+          <t>https://news.okezone.com/read/2025/09/29/338/3173151/kebakaran-hebat-di-taman-sari-akibat-kipas-angin</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -572,12 +576,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Breaking News! Marak Keracunan MBG, SPPG Bermasalah Ditutup Sementara</t>
+          <t>BCA Mobile Berangsur Normal Usai Error, Ini Instruksi BCA ke Nasabah</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nasional | Minggu, 28 September 2025 16:27 WIB Breaking News! Marak Keracunan MBG, SPPG Bermasalah Ditutup Sementara</t>
+          <t>Hot Issue | Senin, 29 September 2025 08:58 WIB BCA Mobile Berangsur Normal Usai Error, Ini Instruksi BCA ke Nasabah</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -587,7 +591,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/337/3173050/breaking-news-marak-keracunan-mbg-sppg-bermasalah-ditutup-sementara</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173150/bca-mobile-berangsur-normal-usai-error-ini-instruksi-bca-ke-nasabah</t>
         </is>
       </c>
       <c r="E6" t="b">
@@ -598,12 +602,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ini Link Resmi Pendaftaran KIP Kuliah 2025</t>
+          <t>Media Belanda Sebut Bintang Timnas Indonesia Mees Hilgers Cocok Bela Ajax Amsterdam, Ini Alasannya!</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sekolah | Minggu, 28 September 2025 16:26 WIB Ini Link Resmi Pendaftaran KIP Kuliah 2025</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 08:54 WIB Media Belanda Sebut Bintang Timnas Indonesia Mees Hilgers Cocok Bela Ajax Amsterdam, Ini Alasannya!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,7 +617,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://edukasi.okezone.com/read/2025/09/28/624/3173042/ini-link-resmi-pendaftaran-kip-kuliah-2025</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173149/media-belanda-sebut-bintang-timnas-indonesia-mees-hilgers-cocok-bela-ajax-amsterdam-ini-alasannya</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -624,12 +628,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RI Rumuskan Strategi Kurangi Emisi di Sektor Pelayaran</t>
+          <t>50 Kapal Aktivis Flotilla yang Akan Menembus Blokade Israel Mulai Dekati Jalur Gaza</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hot Issue | Minggu, 28 September 2025 16:12 WIB RI Rumuskan Strategi Kurangi Emisi di Sektor Pelayaran</t>
+          <t>International | Senin, 29 September 2025 08:50 WIB 50 Kapal Aktivis Flotilla yang Akan Menembus Blokade Israel Mulai Dekati Jalur Gaza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -639,7 +643,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3172988/ri-rumuskan-strategi-kurangi-emisi-di-sektor-pelayaran</t>
+          <t>https://news.okezone.com/read/2025/09/29/18/3173147/50-kapal-aktivis-flotilla-yang-akan-menembus-blokade-israel-mulai-dekati-jalur-gaza-nbsp</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -650,12 +654,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pemprov DKI Salurkan Bansos untuk 200.684 Lansia hingga Disabilitas Periode September</t>
+          <t>Pesan Haru Alex Marquez untuk Marc Marquez: Juara MotoGP 2025 Setelah Apa yang Dilalui 5 Tahun Terakhir!</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Megapolitan | Minggu, 28 September 2025 16:12 WIB Pemprov DKI Salurkan Bansos untuk 200.684 Lansia hingga Disabilitas Periode September</t>
+          <t>MotoGP | Senin, 29 September 2025 08:48 WIB Pesan Haru Alex Marquez untuk Marc Marquez: Juara MotoGP 2025 Setelah Apa yang Dilalui 5 Tahun Terakhir!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -665,7 +669,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/338/3173048/pemprov-dki-salurkan-bansos-untuk-200-684-lansia-hingga-disabilitas-periode-september</t>
+          <t>https://sports.okezone.com/read/2025/09/29/38/3173146/pesan-haru-alex-marquez-untuk-marc-marquez-juara-motogp-2025-setelah-apa-yang-dilalui-5-tahun-terakhir</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -676,12 +680,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cara Ampuh Mengatasi Kaca Mobil Tergores Wiper</t>
+          <t>Harga Emas Antam Terbaru Hari Ini, Kembali Cetak Rekor Tertinggi Jadi Rp2.198.000 per Gram</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Autos | Minggu, 28 September 2025 15:53 WIB Cara Ampuh Mengatasi Kaca Mobil Tergores Wiper</t>
+          <t>Hot Issue | Senin, 29 September 2025 08:46 WIB Harga Emas Antam Terbaru Hari Ini, Kembali Cetak Rekor Tertinggi Jadi Rp2.198.000 per Gram</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -691,7 +695,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/28/15/3173047/cara-ampuh-mengatasi-kaca-mobil-tergores-wiper</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173145/harga-emas-antam-terbaru-hari-ini-kembali-cetak-rekor-tertinggi-jadi-rp2-198-000-per-gram</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -702,12 +706,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Marc Klok Bangga Persib Bandung Jadi Penyumbang Pemain Terbanyak ke Timnas Indonesia</t>
+          <t>BGN: Korban Keracunan MBG Tanggung Jawab Pemerintah, Tak Perlu Bayar Rumah Sakit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liga Indonesia | Minggu, 28 September 2025 15:41 WIB Marc Klok Bangga Persib Bandung Jadi Penyumbang Pemain Terbanyak ke Timnas Indonesia</t>
+          <t>Hot Issue | Senin, 29 September 2025 08:34 WIB BGN: Korban Keracunan MBG Tanggung Jawab Pemerintah, Tak Perlu Bayar Rumah Sakit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -717,7 +721,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/49/3173046/marc-klok-bangga-persib-bandung-jadi-penyumbang-pemain-terbanyak-ke-timnas-indonesia</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173144/bgn-korban-keracunan-mbg-tanggung-jawab-pemerintah-tak-perlu-bayar-rumah-sakit</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -728,12 +732,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Banjir Bandang Terjang Parigi Moutong Sulteng, Jembatan Putus dan 51 KK Terdampak</t>
+          <t>Kekejaman Israel Terhadap Anak-Anak dan Perempuan di Gaza Terukir Selama Berabad-abad</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nasional | Minggu, 28 September 2025 15:31 WIB Banjir Bandang Terjang Parigi Moutong Sulteng, Jembatan Putus dan 51 KK Terdampak</t>
+          <t>International | Senin, 29 September 2025 08:23 WIB Kekejaman Israel Terhadap Anak-Anak dan Perempuan di Gaza Terukir Selama Berabad-abad</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -743,7 +747,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/337/3173043/banjir-bandang-terjang-parigi-moutong-sulteng-jembatan-putus-dan-51-kk-terdampak</t>
+          <t>https://news.okezone.com/read/2025/09/29/18/3173142/kekejaman-israel-terhadap-anak-anak-dan-perempuan-di-gaza-terukir-selama-berabad-abad</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -754,12 +758,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Simak Ini Jadwal Lengkap SNBP dan SNBT 2026, Catat Tanggal Pentingnya</t>
+          <t>Penerima BSU September 2025 untuk Guru Cair Rp600.000, Kalau Pekerja?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kampus | Minggu, 28 September 2025 15:19 WIB Simak Ini Jadwal Lengkap SNBP dan SNBT 2026, Catat Tanggal Pentingnya</t>
+          <t>Smart Money | Senin, 29 September 2025 08:19 WIB Penerima BSU September 2025 untuk Guru Cair Rp600.000, Kalau Pekerja?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -769,7 +773,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://edukasi.okezone.com/read/2025/09/28/65/3173041/simak-ini-jadwal-lengkap-snbp-dan-snbt-2026-catat-tanggal-pentingnya</t>
+          <t>https://economy.okezone.com/read/2025/09/29/622/3173141/penerima-bsu-september-2025-untuk-guru-cair-rp600-000-kalau-pekerja</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -780,12 +784,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3 Rekor yang Sukses Dipecahkan Marc Marquez Usai Jadi Juara Dunia MotoGP 2025, Nomor 1 Bikin Fans Valentino Rossi Murka</t>
+          <t>Nunung Ungkap Hikmah usai Divonis Idap Kanker Payudara</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MotoGP | Minggu, 28 September 2025 15:12 WIB 3 Rekor yang Sukses Dipecahkan Marc Marquez Usai Jadi Juara Dunia MotoGP 2025, Nomor 1 Bikin Fans Valentino Rossi Murka</t>
+          <t>Hot Gossip | Senin, 29 September 2025 08:10 WIB Nunung Ungkap Hikmah usai Divonis Idap Kanker Payudara</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -795,7 +799,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/38/3173040/3-rekor-yang-sukses-dipecahkan-marc-marquez-usai-jadi-juara-dunia-motogp-2025-nomor-1-bikin-fans-valentino-rossi-murka</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173148/nunung-ungkap-hikmah-usai-divonis-idap-kanker-payudara-nbsp</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -806,12 +810,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Viral, Kepala Pria Ini Nyangkut di Lampu Lalu Lintas Setelah Tabrakan Aneh</t>
+          <t>Alasan Makanan Pabrikan Dilarang di MBG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>International | Minggu, 28 September 2025 15:12 WIB Viral, Kepala Pria Ini Nyangkut di Lampu Lalu Lintas Setelah Tabrakan Aneh</t>
+          <t>Hot Issue | Senin, 29 September 2025 08:02 WIB Alasan Makanan Pabrikan Dilarang di MBG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -821,7 +825,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/18/3173039/viral-kepala-pria-ini-nyangkut-di-lampu-lalu-lintas-setelah-tabrakan-aneh</t>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3173004/alasan-makanan-pabrikan-dilarang-di-mbg</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -832,12 +836,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rumah di Duren Sawit Jaktim Kebakaran, 12 Unit Damkar Dikerahkan Padamkan Api</t>
+          <t>BCA Mobile dan MyBCA Error Hari Ini, BCA Minta Maaf</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Megapolitan | Minggu, 28 September 2025 15:09 WIB Rumah di Duren Sawit Jaktim Kebakaran, 12 Unit Damkar Dikerahkan Padamkan Api</t>
+          <t>Hot Issue | Senin, 29 September 2025 07:58 WIB BCA Mobile dan MyBCA Error Hari Ini, BCA Minta Maaf</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -847,7 +851,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/338/3173038/rumah-di-duren-sawit-jaktim-kebakaran-12-unit-damkar-dikerahkan-padamkan-api</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173140/bca-mobile-dan-mybca-error-hari-ini-bca-minta-maaf</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -858,12 +862,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Daftar 10 Profesi yang Paling Tidak Dipercaya Warga Indonesia</t>
+          <t>Jadwal Siaran Langsung Timnas Indonesia di Babak Keempat Kualifikasi Piala Dunia 2026 Zona Asia, Live di RCTI!</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Smart Money | Minggu, 28 September 2025 15:03 WIB Daftar 10 Profesi yang Paling Tidak Dipercaya Warga Indonesia</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 07:58 WIB Jadwal Siaran Langsung Timnas Indonesia di Babak Keempat Kualifikasi Piala Dunia 2026 Zona Asia, Live di RCTI!</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -873,7 +877,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/24/622/3172150/daftar-10-profesi-yang-paling-tidak-dipercaya-warga-indonesia</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173139/jadwal-siaran-langsung-timnas-indonesia-di-babak-keempat-kualifikasi-piala-dunia-2026-zona-asia-live-di-rcti</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -884,12 +888,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hasil Final Korea Open 2025: Gagal Kalahkan Wakil Tuan Rumah, Fajar Alfian/Shohibul Fikri Raih Runner-up</t>
+          <t>Cek Bansos PKH dan BPNT September 2025, dari Jadwal hingga Besarannya</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Netting | Minggu, 28 September 2025 14:50 WIB Hasil Final Korea Open 2025: Gagal Kalahkan Wakil Tuan Rumah, Fajar Alfian/Shohibul Fikri Raih Runner-up</t>
+          <t>Smart Money | Senin, 29 September 2025 07:46 WIB Cek Bansos PKH dan BPNT September 2025, dari Jadwal hingga Besarannya</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -899,7 +903,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/40/3173037/hasil-final-korea-open-2025-gagal-kalahkan-wakil-tuan-rumah-fajar-alfian-shohibul-fikri-raih-runner-up</t>
+          <t>https://economy.okezone.com/read/2025/09/29/622/3173138/cek-bansos-pkh-dan-bpnt-september-2025-dari-jadwal-hingga-besarannya</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -910,12 +914,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Marak Keracunan MBG, Kepala BGN Ngaku ke Prabowo jika SPPG Baru Minim Jam Terbang</t>
+          <t>Dihukum FIFA, FAM Ngaku Ada Kesalahan Teknis saat Kirim Berkas 7 Pemain Naturalisasi Timnas Malaysia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nasional | Minggu, 28 September 2025 14:48 WIB Marak Keracunan MBG, Kepala BGN Ngaku ke Prabowo jika SPPG Baru Minim Jam Terbang</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 07:45 WIB Dihukum FIFA, FAM Ngaku Ada Kesalahan Teknis saat Kirim Berkas 7 Pemain Naturalisasi Timnas Malaysia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -925,7 +929,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/337/3173036/marak-keracunan-mbg-kepala-bgn-ngaku-ke-prabowo-jika-sppg-baru-minim-jam-terbang</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173137/dihukum-fifa-fam-ngaku-ada-kesalahan-teknis-saat-kirim-berkas-7-pemain-naturalisasi-timnas-malaysia</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -936,12 +940,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Emil Audero Cedera Betis, Dicoret Patrick Kluivert dari Timnas Indonesia?</t>
+          <t>Pasokan Gas untuk PLTMG Bangkanai Diperkuat, Topang Kelistrikan Kalimantan</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liga Italia | Minggu, 28 September 2025 14:45 WIB Emil Audero Cedera Betis, Dicoret Patrick Kluivert dari Timnas Indonesia?</t>
+          <t>Hot Issue | Senin, 29 September 2025 07:41 WIB Pasokan Gas untuk PLTMG Bangkanai Diperkuat, Topang Kelistrikan Kalimantan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -951,7 +955,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/47/3173035/emil-audero-cedera-betis-dicoret-patrick-kluivert-dari-timnas-indonesia</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173136/pasokan-gas-untuk-pltmg-bangkanai-diperkuat-topang-kelistrikan-kalimantan</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -962,12 +966,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Klasemen Sementara MotoGP 2025 Usai Race MotoGP Jepang 2025: Marc Marquez Juara, Perebutan Runner-up Kian Sengit</t>
+          <t>Update Kebakaran Taman Sari: 6 Korban Luka Ringan dan 225 Jiwa Mengungsi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MotoGP | Minggu, 28 September 2025 14:19 WIB Klasemen Sementara MotoGP 2025 Usai Race MotoGP Jepang 2025: Marc Marquez Juara, Perebutan Runner-up Kian Sengit</t>
+          <t>Megapolitan | Senin, 29 September 2025 07:33 WIB Update Kebakaran Taman Sari: 6 Korban Luka Ringan dan 225 Jiwa Mengungsi</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -977,7 +981,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/38/3173033/klasemen-sementara-motogp-2025-usai-race-motogp-jepang-2025-marc-marquez-juara-perebutan-runner-up-kian-sengit</t>
+          <t>https://news.okezone.com/read/2025/09/29/338/3173135/update-kebakaran-taman-sari-6-korban-luka-ringan-dan-225-jiwa-mengungsi</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -988,12 +992,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jadwal dan Link Live Streaming ATP 500 Japan Open &amp; China Open 2025 di Vision+, Klik di Sini!</t>
+          <t>Pemain Timnas Indonesia Calvin Verdonk Tabrak Juara Piala Dunia 2022 di Laga LOSC Lille vs Lyon, Berujung Adu Kepala dengan Malick Fofana!</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Netting | Minggu, 28 September 2025 14:13 WIB Jadwal dan Link Live Streaming ATP 500 Japan Open &amp; China Open 2025 di Vision+, Klik di Sini!</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 07:18 WIB Pemain Timnas Indonesia Calvin Verdonk Tabrak Juara Piala Dunia 2022 di Laga LOSC Lille vs Lyon, Berujung Adu Kepala dengan Malick Fofana!</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1003,7 +1007,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/40/3173032/jadwal-dan-link-live-streaming-atp-500-japan-open-amp-china-open-2025-di-vision-klik-di-sini</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173134/pemain-timnas-indonesia-calvin-verdonk-tabrak-juara-piala-dunia-2022-di-laga-losc-lille-vs-lyon-berujung-adu-kepala-dengan-malick-fofana</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -1014,12 +1018,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rumah Eks Dirjen Kemnaker Tersangka Pemerasan TKA Disita KPK</t>
+          <t>Bedu Bongkar Alasan Ceraikan Istri, Bantah karena Masalah Ekonomi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nasional | Minggu, 28 September 2025 14:11 WIB Rumah Eks Dirjen Kemnaker Tersangka Pemerasan TKA Disita KPK</t>
+          <t>Hot Gossip | Senin, 29 September 2025 07:12 WIB Bedu Bongkar Alasan Ceraikan Istri, Bantah karena Masalah Ekonomi</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1029,23 +1033,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/337/3173031/rumah-eks-dirjen-kemnaker-tersangka-pemerasan-tka-disita-kpk</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173133/bedu-bongkar-alasan-ceraikan-istri-bantah-karena-masalah-ekonomi</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ekonomi</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Heboh! Bocah Hilang 13 Hari Diduga Diculik Badut di Tangerang</t>
+          <t>Duo Maia Batal Tampil di Synchronize 2025, Pinkan Mambo Siap Naik Panggung</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Megapolitan | Minggu, 28 September 2025 14:06 WIB Heboh! Bocah Hilang 13 Hari Diduga Diculik Badut di Tangerang</t>
+          <t>Hot Gossip | Senin, 29 September 2025 07:10 WIB Duo Maia Batal Tampil di Synchronize 2025, Pinkan Mambo Siap Naik Panggung</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1055,7 +1063,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/338/3173029/heboh-bocah-hilang-13-hari-diduga-diculik-badut-di-tangerang</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173143/duo-maia-batal-tampil-di-synchronize-2025-pinkan-mambo-siap-naik-panggung</t>
         </is>
       </c>
       <c r="E24" t="b">
@@ -1066,12 +1074,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5 Cara Dapatkan Uang dari TikTok dengan Menonton Video</t>
+          <t>9 Fakta Bos Investree, dari Jadi CEO di Qatar hingga Ditangkap karena Modus Dana Ilegal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Techno | Minggu, 28 September 2025 14:04 WIB 5 Cara Dapatkan Uang dari TikTok dengan Menonton Video</t>
+          <t>Hot Issue | Senin, 29 September 2025 07:03 WIB 9 Fakta Bos Investree, dari Jadi CEO di Qatar hingga Ditangkap karena Modus Dana Ilegal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1081,7 +1089,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/28/16/3173028/5-cara-dapatkan-uang-dari-tiktok-dengan-menonton-video</t>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3172955/9-fakta-bos-investree-dari-jadi-ceo-di-qatar-hingga-ditangkap-karena-modus-dana-ilegal</t>
         </is>
       </c>
       <c r="E25" t="b">
@@ -1092,12 +1100,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Masih Jadi Denyut Nadi Ekonomi RI, UMKM Butuh Akses Jaringan Luas</t>
+          <t>Ini Perintah Prabowo Usai Kasus Keracunan MBG, Tutup SPPG Bermasalah hingga Wajib Punya Sertifikat Laik Higiene</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hot Issue | Minggu, 28 September 2025 14:02 WIB Masih Jadi Denyut Nadi Ekonomi RI, UMKM Butuh Akses Jaringan Luas</t>
+          <t>Hot Issue | Senin, 29 September 2025 06:52 WIB Ini Perintah Prabowo Usai Kasus Keracunan MBG, Tutup SPPG Bermasalah hingga Wajib Punya Sertifikat Laik Higiene</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1107,27 +1115,23 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3172983/masih-jadi-denyut-nadi-ekonomi-ri-umkm-butuh-akses-jaringan-luas</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173132/ini-perintah-prabowo-usai-kasus-keracunan-mbg-tutup-sppg-bermasalah-hingga-wajib-punya-sertifikat-laik-higiene-nbsp</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>ekonomi</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kenapa Banyak Perempuan Jepang Berusia 100 Tahun?</t>
+          <t>Jadwal MotoGP Mandalika 2025: Usai Kunci Gelar Juara, Marc Marquez Menang Perdana di Mandalika?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Beauty | Minggu, 28 September 2025 13:59 WIB Kenapa Banyak Perempuan Jepang Berusia 100 Tahun?</t>
+          <t>MotoGP | Senin, 29 September 2025 06:52 WIB Jadwal MotoGP Mandalika 2025: Usai Kunci Gelar Juara, Marc Marquez Menang Perdana di Mandalika?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1137,7 +1141,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://women.okezone.com/read/2025/09/28/611/3173027/kenapa-banyak-perempuan-jepang-berusia-100-tahun</t>
+          <t>https://sports.okezone.com/read/2025/09/29/38/3173131/jadwal-motogp-mandalika-2025-usai-kunci-gelar-juara-marc-marquez-menang-perdana-di-mandalika</t>
         </is>
       </c>
       <c r="E27" t="b">
@@ -1148,12 +1152,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tangis Marc Marquez Pecah Usai Segel Gelar Juara Dunia MotoGP 2025 di Jepang</t>
+          <t>Catat, Sejumlah Gerbang Tol Dalam Kota Masih Dilakukan Penutupan Hari Ini</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MotoGP | Minggu, 28 September 2025 13:58 WIB Tangis Marc Marquez Pecah Usai Segel Gelar Juara Dunia MotoGP 2025 di Jepang</t>
+          <t>Megapolitan | Senin, 29 September 2025 06:46 WIB Catat, Sejumlah Gerbang Tol Dalam Kota Masih Dilakukan Penutupan Hari Ini</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1163,7 +1167,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/38/3173026/tangis-marc-marquez-pecah-usai-segel-gelar-juara-dunia-motogp-2025-di-jepang</t>
+          <t>https://news.okezone.com/read/2025/09/29/338/3173130/catat-sejumlah-gerbang-tol-dalam-kota-masih-dilakukan-penutupan-hari-ini</t>
         </is>
       </c>
       <c r="E28" t="b">
@@ -1174,12 +1178,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bertambah, 137 Rumah Rusak Akibat Gempa M5,7 di Banyuwangi-Situbondo</t>
+          <t>Bantah Klaim Mardiono Jadi Ketum PPP Secara Aklamasi, Rommy: Itu Ngamar, Bukan Muktamar</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nasional | Minggu, 28 September 2025 13:44 WIB Bertambah, 137 Rumah Rusak Akibat Gempa M5,7 di Banyuwangi-Situbondo</t>
+          <t>Nasional | Senin, 29 September 2025 06:33 WIB Bantah Klaim Mardiono Jadi Ketum PPP Secara Aklamasi, Rommy: Itu Ngamar, Bukan Muktamar</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1189,7 +1193,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/337/3173021/bertambah-137-rumah-rusak-akibat-gempa-m5-7-di-banyuwangi-situbondo</t>
+          <t>https://news.okezone.com/read/2025/09/29/337/3173129/bantah-klaim-mardiono-jadi-ketum-ppp-secara-aklamasi-rommy-itu-ngamar-bukan-muktamar-nbsp</t>
         </is>
       </c>
       <c r="E29" t="b">
@@ -1200,12 +1204,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BREAKING NEWS: Jonatan Christie Juara Korea Open 2025 Usai Kalahkan Anders Antonsen di Final</t>
+          <t>Cek Besaran Tarif Listrik PLN hingga Desember 2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Netting | Minggu, 28 September 2025 13:39 WIB BREAKING NEWS: Jonatan Christie Juara Korea Open 2025 Usai Kalahkan Anders Antonsen di Final</t>
+          <t>Hot Issue | Senin, 29 September 2025 06:25 WIB Cek Besaran Tarif Listrik PLN hingga Desember 2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1215,7 +1219,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/40/3173025/breaking-news-jonatan-christie-juara-korea-open-2025-usai-kalahkan-anders-antonsen-di-final</t>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3173005/cek-besaran-tarif-listrik-pln-hingga-desember-2025</t>
         </is>
       </c>
       <c r="E30" t="b">
@@ -1226,12 +1230,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kevin Diks Cs Babak Belur Lawan Eintracht Frankfurt, Pelatih Borussia Monchengladbach Kecewa Berat</t>
+          <t>Herve Renard Umumkan 27 Pemain Timnas Arab Saudi untuk Lawan Timnas Indonesia dan Irak di Kualifikasi Piala Dunia 2026</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Minggu, 28 September 2025 13:36 WIB Kevin Diks Cs Babak Belur Lawan Eintracht Frankfurt, Pelatih Borussia Monchengladbach Kecewa Berat</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 06:11 WIB Herve Renard Umumkan 27 Pemain Timnas Arab Saudi untuk Lawan Timnas Indonesia dan Irak di Kualifikasi Piala Dunia 2026</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1241,7 +1245,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/51/3173024/kevin-diks-cs-babak-belur-lawan-eintracht-frankfurt-pelatih-borussia-monchengladbach-kecewa-berat</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173128/herve-renard-umumkan-27-pemain-timnas-arab-saudi-untuk-lawan-timnas-indonesia-dan-irak-di-kualifikasi-piala-dunia-2026</t>
         </is>
       </c>
       <c r="E31" t="b">
@@ -1252,12 +1256,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Setidaknya 36 Orang Tewas Desak-desakan dalam Kampanye Artis Politisi India</t>
+          <t>Diisukan Putus dari Fuji, Verrell Bramasta: Alhamdulillah , Masih Silaturahmi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>International | Minggu, 28 September 2025 13:31 WIB Setidaknya 36 Orang Tewas Desak-desakan dalam Kampanye Artis Politisi India</t>
+          <t>Hot Gossip | Senin, 29 September 2025 06:10 WIB Diisukan Putus dari Fuji, Verrell Bramasta: Alhamdulillah , Masih Silaturahmi</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1267,7 +1271,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/18/3173023/setidaknya-36-orang-tewas-desak-desakan-dalam-kampanye-artis-politisi-india</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173125/diisukan-putus-dari-fuji-verrell-bramasta-alhamdulillah-masih-silaturahmi</t>
         </is>
       </c>
       <c r="E32" t="b">
@@ -1278,12 +1282,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Final OSN 2025 Jenjang SMA Digelar Oktober, Berikut Jadwal Lengkapnya</t>
+          <t>Prabowo Unggah Foto Bareng Trump, Optimis Ada Terobosan Perdamaian</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sekolah | Minggu, 28 September 2025 13:31 WIB Final OSN 2025 Jenjang SMA Digelar Oktober, Berikut Jadwal Lengkapnya</t>
+          <t>Nasional | Senin, 29 September 2025 06:05 WIB Prabowo Unggah Foto Bareng Trump, Optimis Ada Terobosan Perdamaian</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1293,7 +1297,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://edukasi.okezone.com/read/2025/09/28/624/3173022/final-osn-2025-jenjang-sma-digelar-oktober-berikut-jadwal-lengkapnya</t>
+          <t>https://news.okezone.com/read/2025/09/29/337/3173127/prabowo-unggah-foto-bareng-trump-optimis-ada-terobosan-perdamaian</t>
         </is>
       </c>
       <c r="E33" t="b">
@@ -1304,12 +1308,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Marak Keracunan MBG, Cak Imin: Kita Tidak Boleh Berhenti di Tengah Jalan</t>
+          <t>5 Fakta Perubahan Kementerian BUMN, dari BP BUMN hingga Nasib Pegawai</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nasional | Minggu, 28 September 2025 13:30 WIB Marak Keracunan MBG, Cak Imin: Kita Tidak Boleh Berhenti di Tengah Jalan</t>
+          <t>Hot Issue | Senin, 29 September 2025 06:03 WIB 5 Fakta Perubahan Kementerian BUMN, dari BP BUMN hingga Nasib Pegawai</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1319,7 +1323,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/337/3173011/marak-keracunan-mbg-cak-imin-kita-tidak-boleh-berhenti-di-tengah-jalan</t>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3172952/5-fakta-perubahan-kementerian-bumn-dari-bp-bumn-hingga-nasib-pegawai</t>
         </is>
       </c>
       <c r="E34" t="b">
@@ -1330,12 +1334,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pratama Arhan Foto Mesra dengan Selebgram Putri Azzralea, Netizen Duga Hanya Editan</t>
+          <t>Patrick Kluivert Bahagia, 3 Bintang Timnas Arab Saudi Dipastikan Absen Lawan Timnas Indonesia!</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hot Gossip | Minggu, 28 September 2025 13:30 WIB Pratama Arhan Foto Mesra dengan Selebgram Putri Azzralea, Netizen Duga Hanya Editan</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 05:59 WIB Patrick Kluivert Bahagia, 3 Bintang Timnas Arab Saudi Dipastikan Absen Lawan Timnas Indonesia!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1345,7 +1349,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/28/33/3173019/pratama-arhan-foto-mesra-dengan-selebgram-putri-azzralea-netizen-duga-hanya-editan</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173126/patrick-kluivert-bahagia-3-bintang-timnas-arab-saudi-dipastikan-absen-lawan-timnas-indonesia</t>
         </is>
       </c>
       <c r="E35" t="b">
@@ -1356,12 +1360,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kisah Perjuangan Marc Marquez Hampir Pensiun karena Alami Kerusakan Mata Kini Samai Gelar Juara Dunia Valentino Rossi</t>
+          <t>Hasil Barcelona vs Real Sociedad di Liga Spanyol 2025-2026: Menang 2-1, Blaugrana Geser Real Madrid dari Puncak Klasemen!</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MotoGP | Minggu, 28 September 2025 13:25 WIB Kisah Perjuangan Marc Marquez Hampir Pensiun karena Alami Kerusakan Mata Kini Samai Gelar Juara Dunia Valentino Rossi</t>
+          <t>Liga Spanyol | Senin, 29 September 2025 05:48 WIB Hasil Barcelona vs Real Sociedad di Liga Spanyol 2025-2026: Menang 2-1, Blaugrana Geser Real Madrid dari Puncak Klasemen!</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1371,7 +1375,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/38/3173020/kisah-perjuangan-marc-marquez-hampir-pensiun-karena-alami-kerusakan-mata-kini-samai-gelar-juara-dunia-valentino-rossi</t>
+          <t>https://bola.okezone.com/read/2025/09/29/46/3173124/hasil-barcelona-vs-real-sociedad-di-liga-spanyol-2025-2026-menang-2-1-blaugrana-geser-real-madrid-dari-puncak-klasemen</t>
         </is>
       </c>
       <c r="E36" t="b">
@@ -1382,12 +1386,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Panen Jagung Melimpah, Petani Nikmati Rp15 Triliun dari Kenaikan Produksi</t>
+          <t>Rusia Hujani Ukraina dengan Ratusan Rudal dan Drone, Polandia Kerahkan Jet Tempur</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Market Update | Minggu, 28 September 2025 13:25 WIB Panen Jagung Melimpah, Petani Nikmati Rp15 Triliun dari Kenaikan Produksi</t>
+          <t>International | Senin, 29 September 2025 05:39 WIB Rusia Hujani Ukraina dengan Ratusan Rudal dan Drone, Polandia Kerahkan Jet Tempur</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1397,7 +1401,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/278/3172991/panen-jagung-melimpah-petani-nikmati-rp15-triliun-dari-kenaikan-produksi-nbsp-nbsp</t>
+          <t>https://news.okezone.com/read/2025/09/29/18/3173123/rusia-hujani-ukraina-dengan-ratusan-rudal-dan-drone-polandia-kerahkan-jet-tempur</t>
         </is>
       </c>
       <c r="E37" t="b">
@@ -1408,12 +1412,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tantangan Besar Industri AI, Banyak Warga Salah Paham Peran Kecerdasan Buatan</t>
+          <t>Hilang Kontak dengan Sandera, Hamas Minta Israel Mundur dari Gaza</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hot Issue | Minggu, 28 September 2025 13:11 WIB Tantangan Besar Industri AI, Banyak Warga Salah Paham Peran Kecerdasan Buatan</t>
+          <t>International | Senin, 29 September 2025 05:29 WIB Hilang Kontak dengan Sandera, Hamas Minta Israel Mundur dari Gaza</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1423,7 +1427,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3172957/tantangan-besar-industri-ai-banyak-warga-salah-paham-peran-kecerdasan-buatan</t>
+          <t>https://news.okezone.com/read/2025/09/29/18/3173122/hilang-kontak-dengan-sandera-hamas-minta-israel-mundur-dari-gaza</t>
         </is>
       </c>
       <c r="E38" t="b">
@@ -1434,12 +1438,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sebut Portland Dilanda Perang, Trump Kerahkan Militer dengan Otorisasi Penuh ke Oregon</t>
+          <t>Antonio Conte Ungkap Penyebab Napoli Kalah 1-2 dari AC Milan di Liga Italia 2025-2026</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>International | Minggu, 28 September 2025 13:04 WIB Sebut Portland Dilanda Perang, Trump Kerahkan Militer dengan Otorisasi Penuh ke Oregon</t>
+          <t>Liga Italia | Senin, 29 September 2025 05:13 WIB Antonio Conte Ungkap Penyebab Napoli Kalah 1-2 dari AC Milan di Liga Italia 2025-2026</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1449,7 +1453,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/18/3173018/sebut-portland-dilanda-perang-trump-kerahkan-militer-dengan-otorisasi-penuh-ke-oregon</t>
+          <t>https://bola.okezone.com/read/2025/09/29/47/3173121/antonio-conte-ungkap-penyebab-napoli-kalah-1-2-dari-ac-milan-di-liga-italia-2025-2026</t>
         </is>
       </c>
       <c r="E39" t="b">
@@ -1460,12 +1464,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Layanan Transjakarta Koridor 1 Blok M-Kota Kembali Normal</t>
+          <t>Eza Gionino Ikhlas Diceraikan Istri: Dia Berhak untuk Bahagia</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Megapolitan | Minggu, 28 September 2025 13:00 WIB Layanan Transjakarta Koridor 1 Blok M-Kota Kembali Normal</t>
+          <t>Hot Gossip | Senin, 29 September 2025 05:10 WIB Eza Gionino Ikhlas Diceraikan Istri: Dia Berhak untuk Bahagia</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1475,7 +1479,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/338/3173012/layanan-transjakarta-koridor-1-blok-m-kota-kembali-normal</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173120/eza-gionino-ikhlas-diceraikan-istri-dia-berhak-untuk-bahagia</t>
         </is>
       </c>
       <c r="E40" t="b">
@@ -1486,12 +1490,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Marc Marquez Samai Gelar Juara Valentino Rossi Usai Pastikan Jadi Raja MotoGP 2025 di Jepang</t>
+          <t>4 Fakta Cukai Rokok 2026 Tak Naik, Purbaya Fokus Berantas Rokok Ilegal</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MotoGP | Minggu, 28 September 2025 12:59 WIB Marc Marquez Samai Gelar Juara Valentino Rossi Usai Pastikan Jadi Raja MotoGP 2025 di Jepang</t>
+          <t>Hot Issue | Senin, 29 September 2025 05:03 WIB 4 Fakta Cukai Rokok 2026 Tak Naik, Purbaya Fokus Berantas Rokok Ilegal</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1501,7 +1505,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/38/3173017/marc-marquez-samai-gelar-juara-valentino-rossi-usai-pastikan-jadi-raja-motogp-2025-di-jepang</t>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3172951/4-fakta-cukai-rokok-2026-tak-naik-purbaya-fokus-berantas-rokok-ilegal</t>
         </is>
       </c>
       <c r="E41" t="b">
@@ -1512,12 +1516,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BREAKING NEWS: Marc Marquez Resmi Juara Dunia MotoGP 2025, Usai Finis Ke-2 di MotoGP Jepang!</t>
+          <t>Kisah Unik Raja Bulu Tangkis Dunia Viktor Axelsen, Ternyata Punya Nama Aksara Tionghoa dan Fasih Berbahasa Mandarin</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MotoGP | Minggu, 28 September 2025 12:46 WIB BREAKING NEWS: Marc Marquez Resmi Juara Dunia MotoGP 2025, Usai Finis Ke-2 di MotoGP Jepang!</t>
+          <t>Netting | Senin, 29 September 2025 04:52 WIB Kisah Unik Raja Bulu Tangkis Dunia Viktor Axelsen, Ternyata Punya Nama Aksara Tionghoa dan Fasih Berbahasa Mandarin</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1527,7 +1531,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/38/3173016/breaking-news-marc-marquez-resmi-juara-dunia-motogp-2025-usai-finis-ke-2-di-motogp-jepang</t>
+          <t>https://sports.okezone.com/read/2025/09/28/40/3173105/kisah-unik-raja-bulu-tangkis-dunia-viktor-axelsen-ternyata-punya-nama-aksara-tionghoa-dan-fasih-berbahasa-mandarin</t>
         </is>
       </c>
       <c r="E42" t="b">
@@ -1538,12 +1542,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Kisah Legenda Pebulu Tangkis Indonesia Susy Susanti, Ternyata Pernah Sengaja Kalah di French Open</t>
+          <t>Ribuan Jiwa Terdampak Kebakaran Hebat di Tamansari Jakbar, Kerugian Capai Puluhan Miliar</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Netting | Minggu, 28 September 2025 12:40 WIB Kisah Legenda Pebulu Tangkis Indonesia Susy Susanti, Ternyata Pernah Sengaja Kalah di French Open</t>
+          <t>Megapolitan | Senin, 29 September 2025 04:05 WIB Ribuan Jiwa Terdampak Kebakaran Hebat di Tamansari Jakbar, Kerugian Capai Puluhan Miliar</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1553,7 +1557,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/40/3173015/kisah-legenda-pebulu-tangkis-indonesia-susy-susanti-ternyata-pernah-sengaja-kalah-di-french-open</t>
+          <t>https://news.okezone.com/read/2025/09/28/338/3173114/ribuan-jiwa-terdampak-kebakaran-hebat-di-tamansari-jakbar-kerugian-capai-puluhan-miliar</t>
         </is>
       </c>
       <c r="E43" t="b">
@@ -1564,12 +1568,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Tasya Farasya Akui Syok saat Tahu Suami Gelapkan Dana Perusahaan Rp23 Miliar</t>
+          <t>Timnas Irak Dikritik Jelang Lawan Timnas Indonesia: Persiapan Kurang Ideal hingga Diminta Gelar TC Sebelum ke Arab Saudi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hot Gossip | Minggu, 28 September 2025 12:30 WIB Tasya Farasya Akui Syok saat Tahu Suami Gelapkan Dana Perusahaan Rp23 Miliar</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 04:05 WIB Timnas Irak Dikritik Jelang Lawan Timnas Indonesia: Persiapan Kurang Ideal hingga Diminta Gelar TC Sebelum ke Arab Saudi</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1579,7 +1583,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/28/33/3173013/tasya-farasya-akui-syok-saat-tahu-suami-gelapkan-dana-perusahaan-rp23-miliar</t>
+          <t>https://bola.okezone.com/read/2025/09/28/51/3173060/timnas-irak-dikritik-jelang-lawan-timnas-indonesia-persiapan-kurang-ideal-hingga-diminta-gelar-tc-sebelum-ke-arab-saudi</t>
         </is>
       </c>
       <c r="E44" t="b">
@@ -1590,12 +1594,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Rumah di Tambora Kebakaran, 11 Unit Damkar Berjibaku Jinakkan Api</t>
+          <t>Kisah Patrick Kluivert yang Tertarik Ikuti Jejak Thom Haye, Bikin Tato jika Timnas Indonesia Lolos Piala Dunia 2026!</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Megapolitan | Minggu, 28 September 2025 12:25 WIB Rumah di Tambora Kebakaran, 11 Unit Damkar Berjibaku Jinakkan Api</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 03:05 WIB Kisah Patrick Kluivert yang Tertarik Ikuti Jejak Thom Haye, Bikin Tato jika Timnas Indonesia Lolos Piala Dunia 2026!</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1605,7 +1609,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/338/3173014/rumah-di-tambora-kebakaran-11-unit-damkar-berjibaku-jinakkan-api</t>
+          <t>https://bola.okezone.com/read/2025/09/28/51/3173059/kisah-patrick-kluivert-yang-tertarik-ikuti-jejak-thom-haye-bikin-tato-jika-timnas-indonesia-lolos-piala-dunia-2026</t>
         </is>
       </c>
       <c r="E45" t="b">
@@ -1616,12 +1620,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Harga Emas Diprediksi Tembus Rp2,3 Juta per Gram Sampai Akhir 2025</t>
+          <t>Mensesneg Ungkap Gaya Prabowo Selesaikan Masalah dalam Sebuah Forum Pertemuan</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hot Issue | Minggu, 28 September 2025 12:20 WIB Harga Emas Diprediksi Tembus Rp2,3 Juta per Gram Sampai Akhir 2025</t>
+          <t>Nasional | Senin, 29 September 2025 03:00 WIB Mensesneg Ungkap Gaya Prabowo Selesaikan Masalah dalam Sebuah Forum Pertemuan</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1631,7 +1635,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3173010/harga-emas-diprediksi-tembus-rp2-3-juta-per-gram-sampai-akhir-2025</t>
+          <t>https://news.okezone.com/read/2025/09/28/337/3173117/mensesneg-ungkap-gaya-prabowo-selesaikan-masalah-dalam-sebuah-forum-pertemuan</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -1642,12 +1646,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kinerja PLN Semester I-2025, Utang Masih Dalam Batas Wajar</t>
+          <t>Ungkapkan Kekaguman, Fabio Quartararo: Marc Marquez Pantas Juara Dunia MotoGP 2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hot Issue | Minggu, 28 September 2025 12:08 WIB Kinerja PLN Semester I-2025, Utang Masih Dalam Batas Wajar</t>
+          <t>MotoGP | Senin, 29 September 2025 02:46 WIB Ungkapkan Kekaguman, Fabio Quartararo: Marc Marquez Pantas Juara Dunia MotoGP 2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1657,7 +1661,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3172956/kinerja-pln-semester-i-2025-utang-masih-dalam-batas-wajar</t>
+          <t>https://sports.okezone.com/read/2025/09/28/38/3173100/ungkapkan-kekaguman-fabio-quartararo-marc-marquez-pantas-juara-dunia-motogp-2025</t>
         </is>
       </c>
       <c r="E47" t="b">
@@ -1668,12 +1672,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kaget Lihat Skuad Timnas Indonesia untuk Kualifikasi Piala Dunia 2026, Pandit Malaysia: Legasi Shin Tae-yong Telah Berakhir</t>
+          <t>Kartu Pers Istana Jurnalis CNN Dicabut, Begini Penjelasan Istana</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Minggu, 28 September 2025 12:08 WIB Kaget Lihat Skuad Timnas Indonesia untuk Kualifikasi Piala Dunia 2026, Pandit Malaysia: Legasi Shin Tae-yong Telah Berakhir</t>
+          <t>Nasional | Senin, 29 September 2025 02:05 WIB Kartu Pers Istana Jurnalis CNN Dicabut, Begini Penjelasan Istana</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1683,7 +1687,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/51/3173009/kaget-lihat-skuad-timnas-indonesia-untuk-kualifikasi-piala-dunia-2026-pandit-malaysia-legasi-shin-tae-yong-telah-berakhir</t>
+          <t>https://news.okezone.com/read/2025/09/28/337/3173116/kartu-pers-istana-jurnalis-cnn-dicabut-begini-penjelasan-istana</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -1694,12 +1698,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Persija Jakarta Gagal Menang 2 Laga Beruntun, Mampu Putus Tren Negatif di Markas Borneo FC?</t>
+          <t>Statistik Ciamik Kiper Timnas Indonesia U-23 Cahya Supriadi di Super League 2025-2026: Catatkan 22 Penyelamatan!</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Liga Indonesia | Minggu, 28 September 2025 12:06 WIB Persija Jakarta Gagal Menang 2 Laga Beruntun, Mampu Putus Tren Negatif di Markas Borneo FC?</t>
+          <t>Liga Indonesia | Senin, 29 September 2025 02:05 WIB Statistik Ciamik Kiper Timnas Indonesia U-23 Cahya Supriadi di Super League 2025-2026: Catatkan 22 Penyelamatan!</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1709,7 +1713,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/49/3173008/persija-jakarta-gagal-menang-2-laga-beruntun-mampu-putus-tren-negatif-di-markas-borneo-fc</t>
+          <t>https://bola.okezone.com/read/2025/09/28/49/3173057/statistik-ciamik-kiper-timnas-indonesia-u-23-cahya-supriadi-di-super-league-2025-2026-catatkan-22-penyelamatan</t>
         </is>
       </c>
       <c r="E49" t="b">
@@ -1720,12 +1724,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Honda Bawa Motor Bebek Supra GTR di IMOS 2025, Masih Banyak Peminat?</t>
+          <t>Jadi Juara Dunia MotoGP 2025, Marc Marquez: Saya Tidak Tahu Arti Penderitaan 6 Tahun Lalu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Autos | Minggu, 28 September 2025 11:59 WIB Honda Bawa Motor Bebek Supra GTR di IMOS 2025, Masih Banyak Peminat?</t>
+          <t>MotoGP | Senin, 29 September 2025 01:35 WIB Jadi Juara Dunia MotoGP 2025, Marc Marquez: Saya Tidak Tahu Arti Penderitaan 6 Tahun Lalu</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1735,7 +1739,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/28/15/3173007/honda-bawa-motor-bebek-supra-gtr-di-imos-2025-masih-banyak-peminat</t>
+          <t>https://sports.okezone.com/read/2025/09/28/38/3173091/jadi-juara-dunia-motogp-2025-marc-marquez-saya-tidak-tahu-arti-penderitaan-6-tahun-lalu</t>
         </is>
       </c>
       <c r="E50" t="b">
@@ -1746,12 +1750,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Makin Susah, Beli BBM Shell Cuma Tersedia di Satu SPBU Jakarta</t>
+          <t>Dalih Ruben Amorim Usai Manchester United Kalah 1-3 dari Brentford di Liga Inggris 2025-2026</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hot Issue | Minggu, 28 September 2025 11:53 WIB Makin Susah, Beli BBM Shell Cuma Tersedia di Satu SPBU Jakarta</t>
+          <t>Liga Inggris | Senin, 29 September 2025 01:05 WIB Dalih Ruben Amorim Usai Manchester United Kalah 1-3 dari Brentford di Liga Inggris 2025-2026</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1761,7 +1765,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3173006/makin-susah-beli-bbm-shell-cuma-tersedia-di-satu-spbu-jakarta</t>
+          <t>https://bola.okezone.com/read/2025/09/28/45/3173049/dalih-ruben-amorim-usai-manchester-united-kalah-1-3-dari-brentford-di-liga-inggris-2025-2026</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -1772,12 +1776,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kebakaran Rumah di Permukiman Padat Taman Sari Jakbar, 10 Damkar Dikerahkan</t>
+          <t>Kumpulkan Sejumlah Menteri di Kertanegara Malam Hari, Ini yang Dibahas Prabowo</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Megapolitan | Minggu, 28 September 2025 11:42 WIB Kebakaran Rumah di Permukiman Padat Taman Sari Jakbar, 10 Damkar Dikerahkan</t>
+          <t>Nasional | Senin, 29 September 2025 01:02 WIB Kumpulkan Sejumlah Menteri di Kertanegara Malam Hari, Ini yang Dibahas Prabowo</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1787,7 +1791,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/338/3173003/kebakaran-rumah-di-permukiman-padat-taman-sari-jakbar-10-damkar-dikerahkan</t>
+          <t>https://news.okezone.com/read/2025/09/29/337/3173118/kumpulkan-sejumlah-menteri-di-kertanegara-malam-hari-ini-yang-dibahas-prabowo</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -1798,12 +1802,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Rupiah Diprediksi Melemah ke Level Rp16.800 Pekan Depan</t>
+          <t>Kata-Kata Haru Marc Marquez saat Pastikan Gelar Juara Dunia MotoGP 2025 di Jepang</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hot Issue | Minggu, 28 September 2025 11:39 WIB Rupiah Diprediksi Melemah ke Level Rp16.800 Pekan Depan</t>
+          <t>MotoGP | Senin, 29 September 2025 00:32 WIB Kata-Kata Haru Marc Marquez saat Pastikan Gelar Juara Dunia MotoGP 2025 di Jepang</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1813,27 +1817,23 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3173002/rupiah-diprediksi-melemah-ke-level-rp16-800-pekan-depan</t>
+          <t>https://sports.okezone.com/read/2025/09/28/38/3173090/kata-kata-haru-marc-marquez-saat-pastikan-gelar-juara-dunia-motogp-2025-di-jepang</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>rupiah</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Kompak! Pramono-Doel Suarakan Jaga Jakarta di Arena CFD Bundaran HI</t>
+          <t>4 Pendulang Emas Selamat dari Pembantaian KKB Usai Sembunyi di Hutan, 2 Rekannya Tewas Ditembak</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Megapolitan | Minggu, 28 September 2025 11:37 WIB Kompak! Pramono-Doel Suarakan Jaga Jakarta di Arena CFD Bundaran HI</t>
+          <t>Nusantara | Senin, 29 September 2025 00:08 WIB 4 Pendulang Emas Selamat dari Pembantaian KKB Usai Sembunyi di Hutan, 2 Rekannya Tewas Ditembak</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/338/3172978/kompak-pramono-doel-suarakan-jaga-jakarta-di-arena-cfd-bundaran-hi</t>
+          <t>https://news.okezone.com/read/2025/09/29/340/3173119/4-pendulang-emas-selamat-dari-pembantaian-kkb-usai-sembunyi-di-hutan-2-rekannya-tewas-ditembak</t>
         </is>
       </c>
       <c r="E54" t="b">
@@ -1854,12 +1854,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Daftar SMA Top yang Lulusannya Banyak Masuk Akmil dan Akpol</t>
+          <t>Terungkap! 2 Klub Belanda Ternyata Minati Mees Hilgers Usai Gagal ke Stade Brest tapi Ditolak</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sekolah | Minggu, 28 September 2025 11:33 WIB Daftar SMA Top yang Lulusannya Banyak Masuk Akmil dan Akpol</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 00:05 WIB Terungkap! 2 Klub Belanda Ternyata Minati Mees Hilgers Usai Gagal ke Stade Brest tapi Ditolak</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://edukasi.okezone.com/read/2025/09/28/624/3173001/daftar-sma-top-yang-lulusannya-banyak-masuk-akmil-dan-akpol</t>
+          <t>https://bola.okezone.com/read/2025/09/28/51/3173030/terungkap-2-klub-belanda-ternyata-minati-mees-hilgers-usai-gagal-ke-stade-brest-tapi-ditolak</t>
         </is>
       </c>
       <c r="E55" t="b">
@@ -1880,12 +1880,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Apa Arti Lavender Marriage dan Dampaknya Bagi Psikologis</t>
+          <t>News</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Life | Minggu, 28 September 2025 11:26 WIB Apa Arti Lavender Marriage dan Dampaknya Bagi Psikologis</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://women.okezone.com/read/2025/09/28/612/3173000/apa-arti-lavender-marriage-dan-dampaknya-bagi-psikologis</t>
+          <t>https://news.okezone.com/</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -1906,12 +1906,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Warga 3 Kecamatan di Katingan Titip Aspirasi Perbaikan Jalan-Alat Pertanian, Legislator Perindo: Kami Perjuangkan</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Nusantara | Minggu, 28 September 2025 11:23 WIB Warga 3 Kecamatan di Katingan Titip Aspirasi Perbaikan Jalan-Alat Pertanian, Legislator Perindo: Kami Perjuangkan</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/340/3172999/warga-3-kecamatan-di-katingan-titip-aspirasi-perbaikan-jalan-alat-pertanian-legislator-perindo-kami-perjuangkan</t>
+          <t>https://economy.okezone.com/</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -1932,12 +1932,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sentil FAM karena Cari-Cari Alasan Usai Disanksi FIFA, Jurnalis Malaysia: Coba Keluarkan Buktinya</t>
+          <t>Lifestyle</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Minggu, 28 September 2025 11:21 WIB Sentil FAM karena Cari-Cari Alasan Usai Disanksi FIFA, Jurnalis Malaysia: Coba Keluarkan Buktinya</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/51/3172998/sentil-fam-karena-cari-cari-alasan-usai-disanksi-fifa-jurnalis-malaysia-coba-keluarkan-buktinya</t>
+          <t>https://lifestyle.okezone.com/</t>
         </is>
       </c>
       <c r="E58" t="b">
@@ -1958,12 +1958,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Jukir Aniaya Pemotor di Jakut Pakai Pipa Besi hingga Berlumuran Darah, Ini Kronologinya!</t>
+          <t>Celebrity</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Megapolitan | Minggu, 28 September 2025 11:18 WIB Jukir Aniaya Pemotor di Jakut Pakai Pipa Besi hingga Berlumuran Darah, Ini Kronologinya!</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/338/3172997/jukir-aniaya-pemotor-di-jakut-pakai-pipa-besi-hingga-berlumuran-darah-ini-kronologinya</t>
+          <t>https://celebrity.okezone.com/</t>
         </is>
       </c>
       <c r="E59" t="b">
@@ -1984,12 +1984,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Borneo FC vs Persija Jakarta, Mauricio Souza Pede Jordi Amat Cs Bisa Putus Tren Kemenangan Tuan Rumah</t>
+          <t>Bola</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Liga Indonesia | Minggu, 28 September 2025 11:18 WIB Borneo FC vs Persija Jakarta, Mauricio Souza Pede Jordi Amat Cs Bisa Putus Tren Kemenangan Tuan Rumah</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/49/3172996/borneo-fc-vs-persija-jakarta-mauricio-souza-pede-jordi-amat-cs-bisa-putus-tren-kemenangan-tuan-rumah</t>
+          <t>https://bola.okezone.com/</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -2010,12 +2010,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Meta Luncurkan Platform Berbagi Video AI Vibes</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Techno | Minggu, 28 September 2025 11:14 WIB Meta Luncurkan Platform Berbagi Video AI Vibes</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/28/16/3172995/meta-luncurkan-platform-berbagi-video-ai-vibes</t>
+          <t>https://sports.okezone.com/</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -2036,12 +2036,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Menpora Erick Thohir Bertemu Menkeu Purbaya Yudhi Sadewa, Bahas Anggaran SEA Games 2025?</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sport Lain | Minggu, 28 September 2025 11:11 WIB Menpora Erick Thohir Bertemu Menkeu Purbaya Yudhi Sadewa, Bahas Anggaran SEA Games 2025?</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/43/3172994/menpora-erick-thohir-bertemu-menkeu-purbaya-yudhi-sadewa-bahas-anggaran-sea-games-2025</t>
+          <t>https://travel.okezone.com/</t>
         </is>
       </c>
       <c r="E62" t="b">
@@ -2062,12 +2062,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cukai Rokok 2026 Tak Naik, Jadi Angin Segar Bagi Industri dan Petani</t>
+          <t>Highend</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hot Issue | Minggu, 28 September 2025 11:02 WIB Cukai Rokok 2026 Tak Naik, Jadi Angin Segar Bagi Industri dan Petani</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3172969/cukai-rokok-2026-tak-naik-jadi-angin-segar-bagi-industri-dan-petani</t>
+          <t>https://highend-magazine.okezone.com/</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -2088,12 +2088,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Pengusaha Logistik Buka-bukaan soal Akses BBM Pertamina di Seluruh RI</t>
+          <t>Muslim</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hot Issue | Minggu, 28 September 2025 11:00 WIB Pengusaha Logistik Buka-bukaan soal Akses BBM Pertamina di Seluruh RI</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3172992/pengusaha-logistik-buka-bukaan-soal-akses-bbm-pertamina-di-seluruh-ri</t>
+          <t>https://muslim.okezone.com/</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -2114,12 +2114,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Superbrands Indonesia’s Choice 2025 Beri Penghargaan untuk 58 Merek di Indonesia</t>
+          <t>Haji</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Economy | Minggu, 28 September 2025 11:00 WIB Superbrands Indonesia’s Choice 2025 Beri Penghargaan untuk 58 Merek di Indonesia</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/11/3172968/superbrands-indonesia-rsquo-s-choice-2025-beri-penghargaan-untuk-58-merek-di-indonesia</t>
+          <t>https://haji.okezone.com/</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -2140,12 +2140,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Oknum TNI Penganiaya Karyawan Zaskia Mecca Ditahan di Denpom Jaya</t>
+          <t>Edukasi</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Megapolitan | Minggu, 28 September 2025 10:49 WIB Oknum TNI Penganiaya Karyawan Zaskia Mecca Ditahan di Denpom Jaya</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/338/3172990/oknum-tni-penganiaya-karyawan-zaskia-mecca-ditahan-di-denpom-jaya</t>
+          <t>https://edukasi.okezone.com/</t>
         </is>
       </c>
       <c r="E66" t="b">
@@ -2166,12 +2166,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BGN Larang Makanan Kemasan untuk MBG, Alasannya Mengejutkan</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hot Issue | Minggu, 28 September 2025 10:37 WIB BGN Larang Makanan Kemasan untuk MBG, Alasannya Mengejutkan</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3172989/bgn-larang-makanan-kemasan-untuk-mbg-alasannya-mengejutkan-nbsp</t>
+          <t>https://health.okezone.com/</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -2192,12 +2192,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5 Penyebab Real Madrid Kalah 2-5 dari Atletico Madrid di Liga Spanyol 2025-2026, Nomor 1 Bikin Xabi Alonso Marah</t>
+          <t>Techno</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Liga Spanyol | Minggu, 28 September 2025 10:24 WIB 5 Penyebab Real Madrid Kalah 2-5 dari Atletico Madrid di Liga Spanyol 2025-2026, Nomor 1 Bikin Xabi Alonso Marah</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/46/3172987/5-penyebab-real-madrid-kalah-2-5-dari-atletico-madrid-di-liga-spanyol-2025-2026-nomor-1-bikin-xabi-alonso-marah</t>
+          <t>https://techno.okezone.com/</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -2218,12 +2218,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Dalih Thom Haye Usai Persib Bandung Kalah dari 1-2 dari Persita Tangerang, Ngaku Masih Butuh Penyesuaian</t>
+          <t>Otomotif</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Liga Indonesia | Minggu, 28 September 2025 10:21 WIB Dalih Thom Haye Usai Persib Bandung Kalah dari 1-2 dari Persita Tangerang, Ngaku Masih Butuh Penyesuaian</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/49/3172986/dalih-thom-haye-usai-persib-bandung-kalah-dari-1-2-dari-persita-tangerang-ngaku-masih-butuh-penyesuaian</t>
+          <t>https://otomotif.okezone.com/</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -2244,12 +2244,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AS Cabut Visa Presiden Kolombia Usai Demo Pro-Palestina</t>
+          <t>Infografis</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>International | Minggu, 28 September 2025 10:19 WIB AS Cabut Visa Presiden Kolombia Usai Demo Pro-Palestina</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/18/3172985/as-cabut-visa-presiden-kolombia-usai-demo-pro-palestina</t>
+          <t>https://infografis.okezone.com/</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -2270,12 +2270,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Gunung Lewotobi Laki-Laki Meletus, Muntahkan Abu Vulkanik Setinggi 1.200 Meter</t>
+          <t>Foto</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Nasional | Minggu, 28 September 2025 10:14 WIB Gunung Lewotobi Laki-Laki Meletus, Muntahkan Abu Vulkanik Setinggi 1.200 Meter</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/337/3172984/gunung-lewotobi-laki-laki-meletus-muntahkan-abu-vulkanik-setinggi-1-200-meter</t>
+          <t>https://foto.okezone.com/</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -2296,12 +2296,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Link Live Streaming Race MotoGP Jepang 2025: Gelar Juara Dunia di Depan Mata Marc Marquez!</t>
+          <t>Video</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MotoGP | Minggu, 28 September 2025 10:14 WIB Link Live Streaming Race MotoGP Jepang 2025: Gelar Juara Dunia di Depan Mata Marc Marquez!</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/38/3172982/link-live-streaming-race-motogp-jepang-2025-gelar-juara-dunia-di-depan-mata-marc-marquez</t>
+          <t>https://video.okezone.com/</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -2322,12 +2322,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Harga Pangan Hari Ini: Telur Hampir Rp31 Ribu dan Cabai Rp59 Ribu per Kg</t>
+          <t>Indeks</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hot Issue | Minggu, 28 September 2025 10:06 WIB Harga Pangan Hari Ini: Telur Hampir Rp31 Ribu dan Cabai Rp59 Ribu per Kg</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3172981/harga-pangan-hari-ini-telur-hampir-rp31-ribu-dan-cabai-rp59-ribu-per-kg</t>
+          <t>https://index.okezone.com/</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -2348,12 +2348,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bangunan di Indonesia Sumbang 33% Emisi, Penggunaan AC Jadi Sorotan</t>
+          <t>OKEZONE TV</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Property | Minggu, 28 September 2025 10:01 WIB Bangunan di Indonesia Sumbang 33% Emisi, Penggunaan AC Jadi Sorotan</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/470/3172959/bangunan-di-indonesia-sumbang-33-emisi-penggunaan-ac-jadi-sorotan</t>
+          <t>http://tv.okezone.com/</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -2374,12 +2374,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Tukang Parkir Hantam Warga Pakai Pipa Besi di Jakut Ditangkap, Nih Tampangnya!</t>
+          <t>Booking Hotel</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Megapolitan | Minggu, 28 September 2025 09:59 WIB Tukang Parkir Hantam Warga Pakai Pipa Besi di Jakut Ditangkap, Nih Tampangnya!</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2389,13 +2389,923 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/338/3172980/tukang-parkir-hantam-warga-pakai-pipa-besi-di-jakut-ditangkap-nih-tampangnya</t>
+          <t>http://www.misteraladin.com/</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Fashion Online</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://brandoutlet.co.id/</t>
+        </is>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Asuransi Kendaraan</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>http://www.mnc-insurance.com</t>
+        </is>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MNC Shop</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.mncshop.com/</t>
+        </is>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ARSIP</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/arsip</t>
+        </is>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TERPOPULER</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/populer</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PERISKOP</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/periskop</t>
+        </is>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>KALEIDOSKOP</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/kaleidoskop</t>
+        </is>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BERITA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/index</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BY KANAL</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/kanal</t>
+        </is>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>HEADLINE</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/headline</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Okezone News 15 Berita</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/1</t>
+        </is>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Okezone Finance 15 Berita</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/11</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Okezone Celebrity 5 Berita</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/13</t>
+        </is>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Okezone Sports 6 Berita</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/2</t>
+        </is>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Okezone Bola 14 Berita</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/14</t>
+        </is>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Okezone Foto 1 Berita</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/foto/</t>
+        </is>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Okezone Video 0 Berita</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/video/</t>
+        </is>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Okezone Infografis 0 Berita</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/infografis/</t>
+        </is>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Women</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/12</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ototekno</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/630</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Muslim</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/613</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/298</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/482</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Edukasi</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/623</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>TV Scope</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/533</t>
+        </is>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Quiz</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/628</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/foto</t>
+        </is>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/video</t>
+        </is>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Tren</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/620</t>
+        </is>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>About Us</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://management.okezone.com</t>
+        </is>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Redaksi</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://management.okezone.com/redaksi</t>
+        </is>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Kotak Pos</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://management.okezone.com/pos</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Karier</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://career.okezone.com</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Info Iklan</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://client.okezone.com/advertising</t>
+        </is>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Disclaimer</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://management.okezone.com/disclaimer</t>
+        </is>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daftar_berita/okezone.xlsx
+++ b/daftar_berita/okezone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IHSG Dibuka Menguat ke 8.139, Saham-Saham Ini Cuan</t>
+          <t>Akui Ada Keracunan MBG, Prabowo: Itu 0,00017 Persen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Market Update | Senin, 29 September 2025 09:21 WIB IHSG Dibuka Menguat ke 8.139, Saham-Saham Ini Cuan</t>
+          <t>Hot Issue | Senin, 29 September 2025 13:48 WIB Akui Ada Keracunan MBG, Prabowo: Itu 0,00017 Persen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,27 +483,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/278/3173154/ihsg-dibuka-menguat-ke-8-139-saham-saham-ini-cuan</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173210/akui-ada-keracunan-mbg-prabowo-itu-0-00017-persen</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>saham</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Penyebab Kapten Timnas Indonesia Jay Idzes Tolak Ajakan Nemanja Matic untuk Selebrasi Gol di Laga Sassuolo vs Udinese</t>
+          <t>Persib Bandung Ogah Lama-Lama Ratapi Kekalahan, Langsung Alihkan Fokus Lawan Bangkok United</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liga Italia | Senin, 29 September 2025 09:13 WIB Penyebab Kapten Timnas Indonesia Jay Idzes Tolak Ajakan Nemanja Matic untuk Selebrasi Gol di Laga Sassuolo vs Udinese</t>
+          <t>Liga Champion | Senin, 29 September 2025 13:48 WIB Persib Bandung Ogah Lama-Lama Ratapi Kekalahan, Langsung Alihkan Fokus Lawan Bangkok United</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +509,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/47/3173153/penyebab-kapten-timnas-indonesia-jay-idzes-tolak-ajakan-nemanja-matic-untuk-selebrasi-gol-di-laga-sassuolo-vs-udinese</t>
+          <t>https://bola.okezone.com/read/2025/09/29/261/3173209/persib-bandung-ogah-lama-lama-ratapi-kekalahan-langsung-alihkan-fokus-lawan-bangkok-united</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -524,12 +520,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Shell Buka Suara soal Isu PHK Massal Imbas Kebijakan Impor BBM</t>
+          <t>Mardiono Bukan Tinggalkan Area Muktamar PPP tapi Jenguk Korban Bentrokan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 09:10 WIB Shell Buka Suara soal Isu PHK Massal Imbas Kebijakan Impor BBM</t>
+          <t>Nasional | Senin, 29 September 2025 13:39 WIB Mardiono Bukan Tinggalkan Area Muktamar PPP tapi Jenguk Korban Bentrokan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173152/shell-buka-suara-soal-isu-phk-massal-imbas-kebijakan-impor-bbm</t>
+          <t>https://news.okezone.com/read/2025/09/29/337/3173207/mardiono-bukan-tinggalkan-area-muktamar-ppp-tapi-jenguk-korban-bentrokan</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -550,12 +546,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kebakaran Hebat di Taman Sari akibat Kipas Angin</t>
+          <t>Tata Cara Mandi Wajib Setelah Mimpi Basah</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Megapolitan | Senin, 29 September 2025 09:04 WIB Kebakaran Hebat di Taman Sari akibat Kipas Angin</t>
+          <t>Serba-serbi | Senin, 29 September 2025 13:32 WIB Tata Cara Mandi Wajib Setelah Mimpi Basah</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,7 +561,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/338/3173151/kebakaran-hebat-di-taman-sari-akibat-kipas-angin</t>
+          <t>https://muslim.okezone.com/read/2025/09/29/614/3173206/tata-cara-mandi-wajib-setelah-mimpi-basah</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -576,12 +572,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCA Mobile Berangsur Normal Usai Error, Ini Instruksi BCA ke Nasabah</t>
+          <t>Istana Akhirnya Kembalikan Kartu Liputan Wartawan CNN yang Sempat Dicabut</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 08:58 WIB BCA Mobile Berangsur Normal Usai Error, Ini Instruksi BCA ke Nasabah</t>
+          <t>Nasional | Senin, 29 September 2025 13:28 WIB Istana Akhirnya Kembalikan Kartu Liputan Wartawan CNN yang Sempat Dicabut</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -591,7 +587,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173150/bca-mobile-berangsur-normal-usai-error-ini-instruksi-bca-ke-nasabah</t>
+          <t>https://news.okezone.com/read/2025/09/29/337/3173204/istana-akhirnya-kembalikan-kartu-liputan-wartawan-cnn-yang-sempat-dicabut</t>
         </is>
       </c>
       <c r="E6" t="b">
@@ -602,12 +598,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Media Belanda Sebut Bintang Timnas Indonesia Mees Hilgers Cocok Bela Ajax Amsterdam, Ini Alasannya!</t>
+          <t>Harganya Tembus Rp700 Juta, Intip Spesifikasi New Pajero Sport</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 08:54 WIB Media Belanda Sebut Bintang Timnas Indonesia Mees Hilgers Cocok Bela Ajax Amsterdam, Ini Alasannya!</t>
+          <t>Autos | Senin, 29 September 2025 13:27 WIB Harganya Tembus Rp700 Juta, Intip Spesifikasi New Pajero Sport</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -617,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173149/media-belanda-sebut-bintang-timnas-indonesia-mees-hilgers-cocok-bela-ajax-amsterdam-ini-alasannya</t>
+          <t>https://ototekno.okezone.com/read/2025/09/29/15/3173203/harganya-tembus-rp700-juta-intip-spesifikasi-new-pajero-sport</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -628,12 +624,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>50 Kapal Aktivis Flotilla yang Akan Menembus Blokade Israel Mulai Dekati Jalur Gaza</t>
+          <t>Cara PSSI agar Timnas Indonesia Tak Dikerjai Arab Saudi Jelang Bentrok di Kualifikasi Piala Dunia 2026: Sewa Bus Sendiri</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>International | Senin, 29 September 2025 08:50 WIB 50 Kapal Aktivis Flotilla yang Akan Menembus Blokade Israel Mulai Dekati Jalur Gaza</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 13:18 WIB Cara PSSI agar Timnas Indonesia Tak Dikerjai Arab Saudi Jelang Bentrok di Kualifikasi Piala Dunia 2026: Sewa Bus Sendiri</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,7 +639,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/18/3173147/50-kapal-aktivis-flotilla-yang-akan-menembus-blokade-israel-mulai-dekati-jalur-gaza-nbsp</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173201/cara-pssi-agar-timnas-indonesia-tak-dikerjai-arab-saudi-jelang-bentrok-di-kualifikasi-piala-dunia-2026-sewa-bus-sendiri</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -654,12 +650,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pesan Haru Alex Marquez untuk Marc Marquez: Juara MotoGP 2025 Setelah Apa yang Dilalui 5 Tahun Terakhir!</t>
+          <t>Tidak Dendam ke Anies Diberi Nilai 11 saat Debat, Prabowo: Sebenarnya Dia Bantu Gue Menang!</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MotoGP | Senin, 29 September 2025 08:48 WIB Pesan Haru Alex Marquez untuk Marc Marquez: Juara MotoGP 2025 Setelah Apa yang Dilalui 5 Tahun Terakhir!</t>
+          <t>Nasional | Senin, 29 September 2025 13:13 WIB Tidak Dendam ke Anies Diberi Nilai 11 saat Debat, Prabowo: Sebenarnya Dia Bantu Gue Menang!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -669,7 +665,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/29/38/3173146/pesan-haru-alex-marquez-untuk-marc-marquez-juara-motogp-2025-setelah-apa-yang-dilalui-5-tahun-terakhir</t>
+          <t>https://news.okezone.com/read/2025/09/29/337/3173200/tidak-dendam-ke-anies-diberi-nilai-11-saat-debat-prabowo-sebenarnya-dia-bantu-gue-menang</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -680,12 +676,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Harga Emas Antam Terbaru Hari Ini, Kembali Cetak Rekor Tertinggi Jadi Rp2.198.000 per Gram</t>
+          <t>Prabowo Perintahkan Seluruh Dapur MBG Pakai Alat Pencuci Higienis dan Tes Kit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 08:46 WIB Harga Emas Antam Terbaru Hari Ini, Kembali Cetak Rekor Tertinggi Jadi Rp2.198.000 per Gram</t>
+          <t>Nasional | Senin, 29 September 2025 12:59 WIB Prabowo Perintahkan Seluruh Dapur MBG Pakai Alat Pencuci Higienis dan Tes Kit</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -695,7 +691,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173145/harga-emas-antam-terbaru-hari-ini-kembali-cetak-rekor-tertinggi-jadi-rp2-198-000-per-gram</t>
+          <t>https://news.okezone.com/read/2025/09/29/337/3173199/prabowo-perintahkan-seluruh-dapur-mbg-pakai-alat-pencuci-higienis-dan-tes-kit</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -706,12 +702,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BGN: Korban Keracunan MBG Tanggung Jawab Pemerintah, Tak Perlu Bayar Rumah Sakit</t>
+          <t>Vivo Luncurkan OriginOS 6 untuk Gantikan FuntouchOS, Rilis Global Bulan Depan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 08:34 WIB BGN: Korban Keracunan MBG Tanggung Jawab Pemerintah, Tak Perlu Bayar Rumah Sakit</t>
+          <t>Techno | Senin, 29 September 2025 12:56 WIB Vivo Luncurkan OriginOS 6 untuk Gantikan FuntouchOS, Rilis Global Bulan Depan</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -721,7 +717,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173144/bgn-korban-keracunan-mbg-tanggung-jawab-pemerintah-tak-perlu-bayar-rumah-sakit</t>
+          <t>https://ototekno.okezone.com/read/2025/09/29/16/3173198/vivo-luncurkan-originos-6-untuk-gantikan-funtouchos-rilis-global-bulan-depan</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -732,12 +728,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kekejaman Israel Terhadap Anak-Anak dan Perempuan di Gaza Terukir Selama Berabad-abad</t>
+          <t>Marak Gula Rafinasi di Pasar, Petani Minta Pengawasan Diperketat</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>International | Senin, 29 September 2025 08:23 WIB Kekejaman Israel Terhadap Anak-Anak dan Perempuan di Gaza Terukir Selama Berabad-abad</t>
+          <t>Hot Issue | Senin, 29 September 2025 12:47 WIB Marak Gula Rafinasi di Pasar, Petani Minta Pengawasan Diperketat</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -747,7 +743,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/18/3173142/kekejaman-israel-terhadap-anak-anak-dan-perempuan-di-gaza-terukir-selama-berabad-abad</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173197/marak-gula-rafinasi-di-pasar-petani-minta-pengawasan-diperketat</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -758,12 +754,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Penerima BSU September 2025 untuk Guru Cair Rp600.000, Kalau Pekerja?</t>
+          <t>Pengetahuan Kapten Timnas Indonesia Jay Idzes soal Aturan Sepakbola Melebihi Bek Bayern Munich dan Timnas Prancis!</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Smart Money | Senin, 29 September 2025 08:19 WIB Penerima BSU September 2025 untuk Guru Cair Rp600.000, Kalau Pekerja?</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 12:42 WIB Pengetahuan Kapten Timnas Indonesia Jay Idzes soal Aturan Sepakbola Melebihi Bek Bayern Munich dan Timnas Prancis!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -773,7 +769,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/622/3173141/penerima-bsu-september-2025-untuk-guru-cair-rp600-000-kalau-pekerja</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173196/pengetahuan-kapten-timnas-indonesia-jay-idzes-soal-aturan-sepakbola-melebihi-bek-bayern-munich-dan-timnas-prancis</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -784,12 +780,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nunung Ungkap Hikmah usai Divonis Idap Kanker Payudara</t>
+          <t>Pemerintah Tidak Akan Intervensi Polemik Dualisme PPP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hot Gossip | Senin, 29 September 2025 08:10 WIB Nunung Ungkap Hikmah usai Divonis Idap Kanker Payudara</t>
+          <t>Nasional | Senin, 29 September 2025 12:38 WIB Pemerintah Tidak Akan Intervensi Polemik Dualisme PPP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -799,7 +795,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173148/nunung-ungkap-hikmah-usai-divonis-idap-kanker-payudara-nbsp</t>
+          <t>https://news.okezone.com/read/2025/09/29/337/3173195/pemerintah-tidak-akan-intervensi-polemik-dualisme-ppp</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -810,12 +806,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alasan Makanan Pabrikan Dilarang di MBG</t>
+          <t>Sarwendah Tan Bahas soal Lavender Marriage , Netizen Ramai Berspekulasi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 08:02 WIB Alasan Makanan Pabrikan Dilarang di MBG</t>
+          <t>Hot Gossip | Senin, 29 September 2025 12:30 WIB Sarwendah Tan Bahas soal Lavender Marriage , Netizen Ramai Berspekulasi</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -825,7 +821,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3173004/alasan-makanan-pabrikan-dilarang-di-mbg</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173194/sarwendah-tan-bahas-soal-lavender-marriage-netizen-ramai-berspekulasi</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -836,12 +832,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCA Mobile dan MyBCA Error Hari Ini, BCA Minta Maaf</t>
+          <t>Kelakar Presiden Prabowo ke AHY di Acara PKS: Penerus SBY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 07:58 WIB BCA Mobile dan MyBCA Error Hari Ini, BCA Minta Maaf</t>
+          <t>Nasional | Senin, 29 September 2025 12:30 WIB Kelakar Presiden Prabowo ke AHY di Acara PKS: Penerus SBY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -851,7 +847,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173140/bca-mobile-dan-mybca-error-hari-ini-bca-minta-maaf</t>
+          <t>https://news.okezone.com/read/2025/09/29/337/3173193/kelakar-presiden-prabowo-ke-ahy-di-acara-pks-penerus-sby</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -862,12 +858,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jadwal Siaran Langsung Timnas Indonesia di Babak Keempat Kualifikasi Piala Dunia 2026 Zona Asia, Live di RCTI!</t>
+          <t>IHSG Sesi I Menguat ke Level 8.146</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 07:58 WIB Jadwal Siaran Langsung Timnas Indonesia di Babak Keempat Kualifikasi Piala Dunia 2026 Zona Asia, Live di RCTI!</t>
+          <t>Market Update | Senin, 29 September 2025 12:28 WIB IHSG Sesi I Menguat ke Level 8.146</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -877,7 +873,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173139/jadwal-siaran-langsung-timnas-indonesia-di-babak-keempat-kualifikasi-piala-dunia-2026-zona-asia-live-di-rcti</t>
+          <t>https://economy.okezone.com/read/2025/09/29/278/3173192/ihsg-sesi-i-menguat-ke-level-8-146</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -888,12 +884,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cek Bansos PKH dan BPNT September 2025, dari Jadwal hingga Besarannya</t>
+          <t>Fraksi PDIP Minta Pasal Larangan Jual Rokok di Perda KTR Dicoret, Ini Alasannya</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Smart Money | Senin, 29 September 2025 07:46 WIB Cek Bansos PKH dan BPNT September 2025, dari Jadwal hingga Besarannya</t>
+          <t>Megapolitan | Senin, 29 September 2025 12:19 WIB Fraksi PDIP Minta Pasal Larangan Jual Rokok di Perda KTR Dicoret, Ini Alasannya</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -903,7 +899,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/622/3173138/cek-bansos-pkh-dan-bpnt-september-2025-dari-jadwal-hingga-besarannya</t>
+          <t>https://news.okezone.com/read/2025/09/29/338/3173191/fraksi-pdip-minta-pasal-larangan-jual-rokok-di-perda-ktr-dicoret-ini-alasannya</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -914,12 +910,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dihukum FIFA, FAM Ngaku Ada Kesalahan Teknis saat Kirim Berkas 7 Pemain Naturalisasi Timnas Malaysia</t>
+          <t>Soroti Ancaman Perang Dunia Ketiga, Prabowo: Kita Hidup Dalam Keadaan Ketidakpastian!</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 07:45 WIB Dihukum FIFA, FAM Ngaku Ada Kesalahan Teknis saat Kirim Berkas 7 Pemain Naturalisasi Timnas Malaysia</t>
+          <t>Nasional | Senin, 29 September 2025 12:05 WIB Soroti Ancaman Perang Dunia Ketiga, Prabowo: Kita Hidup Dalam Keadaan Ketidakpastian!</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -929,7 +925,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173137/dihukum-fifa-fam-ngaku-ada-kesalahan-teknis-saat-kirim-berkas-7-pemain-naturalisasi-timnas-malaysia</t>
+          <t>https://news.okezone.com/read/2025/09/29/337/3173190/soroti-ancaman-perang-dunia-ketiga-prabowo-kita-hidup-dalam-keadaan-ketidakpastian</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -940,12 +936,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pasokan Gas untuk PLTMG Bangkanai Diperkuat, Topang Kelistrikan Kalimantan</t>
+          <t>Topan Bualoi Terjang Vietnam, Setidaknya 1 Orang Tewas dan 12 Lainnya Hilang</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 07:41 WIB Pasokan Gas untuk PLTMG Bangkanai Diperkuat, Topang Kelistrikan Kalimantan</t>
+          <t>International | Senin, 29 September 2025 12:05 WIB Topan Bualoi Terjang Vietnam, Setidaknya 1 Orang Tewas dan 12 Lainnya Hilang</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -955,7 +951,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173136/pasokan-gas-untuk-pltmg-bangkanai-diperkuat-topang-kelistrikan-kalimantan</t>
+          <t>https://news.okezone.com/read/2025/09/29/18/3173189/topan-bualoi-terjang-vietnam-setidaknya-1-orang-tewas-dan-12-lainnya-hilang</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -966,12 +962,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Update Kebakaran Taman Sari: 6 Korban Luka Ringan dan 225 Jiwa Mengungsi</t>
+          <t>Lagi Viral Kombinasi Olahraga Padel dan Pilates, Tuai Pro Kontra Netizen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Megapolitan | Senin, 29 September 2025 07:33 WIB Update Kebakaran Taman Sari: 6 Korban Luka Ringan dan 225 Jiwa Mengungsi</t>
+          <t>Life | Senin, 29 September 2025 12:03 WIB Lagi Viral Kombinasi Olahraga Padel dan Pilates, Tuai Pro Kontra Netizen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -981,7 +977,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/338/3173135/update-kebakaran-taman-sari-6-korban-luka-ringan-dan-225-jiwa-mengungsi</t>
+          <t>https://women.okezone.com/read/2025/09/29/612/3173187/lagi-viral-kombinasi-olahraga-padel-dan-pilates-tuai-pro-kontra-netizen</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -992,12 +988,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pemain Timnas Indonesia Calvin Verdonk Tabrak Juara Piala Dunia 2022 di Laga LOSC Lille vs Lyon, Berujung Adu Kepala dengan Malick Fofana!</t>
+          <t>Indra Sjafri Diumumkan Jadi Pelatih Timnas Indonesia U-23 di SEA Games 2025 Hari Ini?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 07:18 WIB Pemain Timnas Indonesia Calvin Verdonk Tabrak Juara Piala Dunia 2022 di Laga LOSC Lille vs Lyon, Berujung Adu Kepala dengan Malick Fofana!</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 12:03 WIB Indra Sjafri Diumumkan Jadi Pelatih Timnas Indonesia U-23 di SEA Games 2025 Hari Ini?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1007,7 +1003,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173134/pemain-timnas-indonesia-calvin-verdonk-tabrak-juara-piala-dunia-2022-di-laga-losc-lille-vs-lyon-berujung-adu-kepala-dengan-malick-fofana</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173188/indra-sjafri-diumumkan-jadi-pelatih-timnas-indonesia-u-23-di-sea-games-2025-hari-ini</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -1018,12 +1014,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bedu Bongkar Alasan Ceraikan Istri, Bantah karena Masalah Ekonomi</t>
+          <t>Cara Mudah Melihat Tanggal Pembuatan Akun Facebook Kamu</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hot Gossip | Senin, 29 September 2025 07:12 WIB Bedu Bongkar Alasan Ceraikan Istri, Bantah karena Masalah Ekonomi</t>
+          <t>Techno | Senin, 29 September 2025 12:01 WIB Cara Mudah Melihat Tanggal Pembuatan Akun Facebook Kamu</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1033,27 +1029,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173133/bedu-bongkar-alasan-ceraikan-istri-bantah-karena-masalah-ekonomi</t>
+          <t>https://ototekno.okezone.com/read/2025/09/29/16/3173185/cara-mudah-melihat-tanggal-pembuatan-akun-facebook-kamu</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>ekonomi</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Duo Maia Batal Tampil di Synchronize 2025, Pinkan Mambo Siap Naik Panggung</t>
+          <t>Kisah Sedih Pebulu Tangkis Supercantik Pornpawee Chochuwong, Cedera saat Lawan An Se Young di Korea Open hingga Harus Mundur</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hot Gossip | Senin, 29 September 2025 07:10 WIB Duo Maia Batal Tampil di Synchronize 2025, Pinkan Mambo Siap Naik Panggung</t>
+          <t>Netting | Senin, 29 September 2025 12:01 WIB Kisah Sedih Pebulu Tangkis Supercantik Pornpawee Chochuwong, Cedera saat Lawan An Se Young di Korea Open hingga Harus Mundur</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1063,7 +1055,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173143/duo-maia-batal-tampil-di-synchronize-2025-pinkan-mambo-siap-naik-panggung</t>
+          <t>https://sports.okezone.com/read/2025/09/29/40/3173186/kisah-sedih-pebulu-tangkis-supercantik-pornpawee-chochuwong-cedera-saat-lawan-an-se-young-di-korea-open-hingga-harus-mundur</t>
         </is>
       </c>
       <c r="E24" t="b">
@@ -1074,12 +1066,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9 Fakta Bos Investree, dari Jadi CEO di Qatar hingga Ditangkap karena Modus Dana Ilegal</t>
+          <t>Surat Al-Alaq Ayat 1-5, Arab, Latin dan Terjemahan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 07:03 WIB 9 Fakta Bos Investree, dari Jadi CEO di Qatar hingga Ditangkap karena Modus Dana Ilegal</t>
+          <t>Doa Harian | Senin, 29 September 2025 11:53 WIB Surat Al-Alaq Ayat 1-5, Arab, Latin dan Terjemahan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1089,7 +1081,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3172955/9-fakta-bos-investree-dari-jadi-ceo-di-qatar-hingga-ditangkap-karena-modus-dana-ilegal</t>
+          <t>https://muslim.okezone.com/read/2025/09/29/618/3173184/surat-al-alaq-ayat-1-5-arab-latin-dan-terjemahan</t>
         </is>
       </c>
       <c r="E25" t="b">
@@ -1100,12 +1092,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ini Perintah Prabowo Usai Kasus Keracunan MBG, Tutup SPPG Bermasalah hingga Wajib Punya Sertifikat Laik Higiene</t>
+          <t>Wapres Gibran Tidak Hadir, Mediasi Gugatan Ijazah Ditunda</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 06:52 WIB Ini Perintah Prabowo Usai Kasus Keracunan MBG, Tutup SPPG Bermasalah hingga Wajib Punya Sertifikat Laik Higiene</t>
+          <t>Nasional | Senin, 29 September 2025 11:48 WIB Wapres Gibran Tidak Hadir, Mediasi Gugatan Ijazah Ditunda</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1115,7 +1107,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173132/ini-perintah-prabowo-usai-kasus-keracunan-mbg-tutup-sppg-bermasalah-hingga-wajib-punya-sertifikat-laik-higiene-nbsp</t>
+          <t>https://news.okezone.com/read/2025/09/29/337/3173183/wapres-gibran-tidak-hadir-mediasi-gugatan-ijazah-ditunda</t>
         </is>
       </c>
       <c r="E26" t="b">
@@ -1126,12 +1118,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jadwal MotoGP Mandalika 2025: Usai Kunci Gelar Juara, Marc Marquez Menang Perdana di Mandalika?</t>
+          <t>Profil Kombes Budi Hermanto, Kabid Humas Polda Metro Penangkap Crazy Rich Surabaya Wahyu Kenzo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MotoGP | Senin, 29 September 2025 06:52 WIB Jadwal MotoGP Mandalika 2025: Usai Kunci Gelar Juara, Marc Marquez Menang Perdana di Mandalika?</t>
+          <t>Megapolitan | Senin, 29 September 2025 11:48 WIB Profil Kombes Budi Hermanto, Kabid Humas Polda Metro Penangkap Crazy Rich Surabaya Wahyu Kenzo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1141,7 +1133,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/29/38/3173131/jadwal-motogp-mandalika-2025-usai-kunci-gelar-juara-marc-marquez-menang-perdana-di-mandalika</t>
+          <t>https://news.okezone.com/read/2025/09/29/338/3173182/profil-kombes-budi-hermanto-kabid-humas-polda-metro-penangkap-crazy-rich-surabaya-wahyu-kenzo</t>
         </is>
       </c>
       <c r="E27" t="b">
@@ -1152,12 +1144,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Catat, Sejumlah Gerbang Tol Dalam Kota Masih Dilakukan Penutupan Hari Ini</t>
+          <t>Baru Meluncur, Seri Xiaomi 17 Dilaporkan Pecahkan Rekor Penjualan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Megapolitan | Senin, 29 September 2025 06:46 WIB Catat, Sejumlah Gerbang Tol Dalam Kota Masih Dilakukan Penutupan Hari Ini</t>
+          <t>Techno | Senin, 29 September 2025 11:43 WIB Baru Meluncur, Seri Xiaomi 17 Dilaporkan Pecahkan Rekor Penjualan</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/338/3173130/catat-sejumlah-gerbang-tol-dalam-kota-masih-dilakukan-penutupan-hari-ini</t>
+          <t>https://ototekno.okezone.com/read/2025/09/29/16/3173177/baru-meluncur-seri-xiaomi-17-dilaporkan-pecahkan-rekor-penjualan</t>
         </is>
       </c>
       <c r="E28" t="b">
@@ -1178,12 +1170,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bantah Klaim Mardiono Jadi Ketum PPP Secara Aklamasi, Rommy: Itu Ngamar, Bukan Muktamar</t>
+          <t>Angka Kematian Pasien Cuci Darah Setelah 5 Tahun Tinggi, Ini Kata Dokter</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 06:33 WIB Bantah Klaim Mardiono Jadi Ketum PPP Secara Aklamasi, Rommy: Itu Ngamar, Bukan Muktamar</t>
+          <t>Health | Senin, 29 September 2025 11:42 WIB Angka Kematian Pasien Cuci Darah Setelah 5 Tahun Tinggi, Ini Kata Dokter</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1193,7 +1185,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/337/3173129/bantah-klaim-mardiono-jadi-ketum-ppp-secara-aklamasi-rommy-itu-ngamar-bukan-muktamar-nbsp</t>
+          <t>https://women.okezone.com/read/2025/09/29/482/3173181/angka-kematian-pasien-cuci-darah-setelah-5-tahun-tinggi-ini-kata-dokter</t>
         </is>
       </c>
       <c r="E29" t="b">
@@ -1204,12 +1196,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cek Besaran Tarif Listrik PLN hingga Desember 2025</t>
+          <t>Menanti Aksi Juara MotoGP 2025 Marc Marquez di Sirkuit Mandalika pada 3-5 Oktober 2025!</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 06:25 WIB Cek Besaran Tarif Listrik PLN hingga Desember 2025</t>
+          <t>MotoGP | Senin, 29 September 2025 11:37 WIB Menanti Aksi Juara MotoGP 2025 Marc Marquez di Sirkuit Mandalika pada 3-5 Oktober 2025!</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1219,7 +1211,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3173005/cek-besaran-tarif-listrik-pln-hingga-desember-2025</t>
+          <t>https://sports.okezone.com/read/2025/09/29/38/3173180/menanti-aksi-juara-motogp-2025-marc-marquez-di-sirkuit-mandalika-pada-3-5-oktober-2025</t>
         </is>
       </c>
       <c r="E30" t="b">
@@ -1230,12 +1222,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Herve Renard Umumkan 27 Pemain Timnas Arab Saudi untuk Lawan Timnas Indonesia dan Irak di Kualifikasi Piala Dunia 2026</t>
+          <t>Prabowo Sebut Penghasilan Wartawan Sedikit, yang Banyak Bosnya</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 06:11 WIB Herve Renard Umumkan 27 Pemain Timnas Arab Saudi untuk Lawan Timnas Indonesia dan Irak di Kualifikasi Piala Dunia 2026</t>
+          <t>Hot Issue | Senin, 29 September 2025 11:34 WIB Prabowo Sebut Penghasilan Wartawan Sedikit, yang Banyak Bosnya</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1245,7 +1237,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173128/herve-renard-umumkan-27-pemain-timnas-arab-saudi-untuk-lawan-timnas-indonesia-dan-irak-di-kualifikasi-piala-dunia-2026</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173179/prabowo-sebut-penghasilan-wartawan-sedikit-yang-banyak-bosnya</t>
         </is>
       </c>
       <c r="E31" t="b">
@@ -1256,12 +1248,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Diisukan Putus dari Fuji, Verrell Bramasta: Alhamdulillah , Masih Silaturahmi</t>
+          <t>PO Bus yang Layani Rute Terjauh di Indonesia</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hot Gossip | Senin, 29 September 2025 06:10 WIB Diisukan Putus dari Fuji, Verrell Bramasta: Alhamdulillah , Masih Silaturahmi</t>
+          <t>Autos | Senin, 29 September 2025 11:32 WIB PO Bus yang Layani Rute Terjauh di Indonesia</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1271,7 +1263,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173125/diisukan-putus-dari-fuji-verrell-bramasta-alhamdulillah-masih-silaturahmi</t>
+          <t>https://ototekno.okezone.com/read/2025/09/29/15/3173178/po-bus-yang-layani-rute-terjauh-di-indonesia</t>
         </is>
       </c>
       <c r="E32" t="b">
@@ -1282,12 +1274,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Prabowo Unggah Foto Bareng Trump, Optimis Ada Terobosan Perdamaian</t>
+          <t>Dibocorkan Fabrizio Romano, Pelatih Top Ini Siap Gantikan Ruben Amorim di Manchester United</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 06:05 WIB Prabowo Unggah Foto Bareng Trump, Optimis Ada Terobosan Perdamaian</t>
+          <t>Liga Inggris | Senin, 29 September 2025 11:23 WIB Dibocorkan Fabrizio Romano, Pelatih Top Ini Siap Gantikan Ruben Amorim di Manchester United</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1297,7 +1289,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/337/3173127/prabowo-unggah-foto-bareng-trump-optimis-ada-terobosan-perdamaian</t>
+          <t>https://bola.okezone.com/read/2025/09/29/45/3173176/dibocorkan-fabrizio-romano-pelatih-top-ini-siap-gantikan-ruben-amorim-di-manchester-united</t>
         </is>
       </c>
       <c r="E33" t="b">
@@ -1308,12 +1300,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5 Fakta Perubahan Kementerian BUMN, dari BP BUMN hingga Nasib Pegawai</t>
+          <t>Ketum Kadin Ajak Generasi Muda Jadi Motor Penggerak Ekonomi RI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 06:03 WIB 5 Fakta Perubahan Kementerian BUMN, dari BP BUMN hingga Nasib Pegawai</t>
+          <t>Hot Issue | Senin, 29 September 2025 11:21 WIB Ketum Kadin Ajak Generasi Muda Jadi Motor Penggerak Ekonomi RI</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1323,23 +1315,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3172952/5-fakta-perubahan-kementerian-bumn-dari-bp-bumn-hingga-nasib-pegawai</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173175/ketum-kadin-ajak-generasi-muda-jadi-motor-penggerak-ekonomi-ri-nbsp</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ekonomi</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Patrick Kluivert Bahagia, 3 Bintang Timnas Arab Saudi Dipastikan Absen Lawan Timnas Indonesia!</t>
+          <t>Mutasi Polri, Kapolri Tunjuk Kombes Budi Hermanto Jadi Kabid Humas Polda Metro Jaya</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 05:59 WIB Patrick Kluivert Bahagia, 3 Bintang Timnas Arab Saudi Dipastikan Absen Lawan Timnas Indonesia!</t>
+          <t>Nasional | Senin, 29 September 2025 11:14 WIB Mutasi Polri, Kapolri Tunjuk Kombes Budi Hermanto Jadi Kabid Humas Polda Metro Jaya</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1349,7 +1345,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173126/patrick-kluivert-bahagia-3-bintang-timnas-arab-saudi-dipastikan-absen-lawan-timnas-indonesia</t>
+          <t>https://news.okezone.com/read/2025/09/29/337/3173174/mutasi-polri-nbsp-kapolri-tunjuk-kombes-budi-hermanto-jadi-kabid-humas-polda-metro-jaya</t>
         </is>
       </c>
       <c r="E35" t="b">
@@ -1360,12 +1356,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hasil Barcelona vs Real Sociedad di Liga Spanyol 2025-2026: Menang 2-1, Blaugrana Geser Real Madrid dari Puncak Klasemen!</t>
+          <t>Patrick Kluivert Coret 5 Pemain Timnas Indonesia Jelang Lawan Arab Saudi di Babak 4 Kualifikasi Piala Dunia 2026 Zona Asia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Liga Spanyol | Senin, 29 September 2025 05:48 WIB Hasil Barcelona vs Real Sociedad di Liga Spanyol 2025-2026: Menang 2-1, Blaugrana Geser Real Madrid dari Puncak Klasemen!</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 11:08 WIB Patrick Kluivert Coret 5 Pemain Timnas Indonesia Jelang Lawan Arab Saudi di Babak 4 Kualifikasi Piala Dunia 2026 Zona Asia</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1375,7 +1371,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/46/3173124/hasil-barcelona-vs-real-sociedad-di-liga-spanyol-2025-2026-menang-2-1-blaugrana-geser-real-madrid-dari-puncak-klasemen</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173173/patrick-kluivert-coret-5-pemain-timnas-indonesia-jelang-lawan-arab-saudi-di-babak-4-kualifikasi-piala-dunia-2026-zona-asia</t>
         </is>
       </c>
       <c r="E36" t="b">
@@ -1386,12 +1382,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Rusia Hujani Ukraina dengan Ratusan Rudal dan Drone, Polandia Kerahkan Jet Tempur</t>
+          <t>Viral Anak SD Keracunan Ikan Hiu Goreng, Dokter Merkurinya Tinggi!</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>International | Senin, 29 September 2025 05:39 WIB Rusia Hujani Ukraina dengan Ratusan Rudal dan Drone, Polandia Kerahkan Jet Tempur</t>
+          <t>Food | Senin, 29 September 2025 10:59 WIB Viral Anak SD Keracunan Ikan Hiu Goreng, Dokter Merkurinya Tinggi!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1401,7 +1397,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/18/3173123/rusia-hujani-ukraina-dengan-ratusan-rudal-dan-drone-polandia-kerahkan-jet-tempur</t>
+          <t>https://women.okezone.com/read/2025/09/29/298/3173171/viral-anak-sd-keracunan-ikan-hiu-goreng-dokter-merkurinya-tinggi</t>
         </is>
       </c>
       <c r="E37" t="b">
@@ -1412,12 +1408,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hilang Kontak dengan Sandera, Hamas Minta Israel Mundur dari Gaza</t>
+          <t>5 Waktu yang Diharamkan untuk Sholat</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>International | Senin, 29 September 2025 05:29 WIB Hilang Kontak dengan Sandera, Hamas Minta Israel Mundur dari Gaza</t>
+          <t>Tausyiah | Senin, 29 September 2025 10:55 WIB 5 Waktu yang Diharamkan untuk Sholat</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1427,7 +1423,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/18/3173122/hilang-kontak-dengan-sandera-hamas-minta-israel-mundur-dari-gaza</t>
+          <t>https://muslim.okezone.com/read/2025/09/29/330/3173170/5-waktu-yang-diharamkan-untuk-sholat</t>
         </is>
       </c>
       <c r="E38" t="b">
@@ -1438,12 +1434,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Antonio Conte Ungkap Penyebab Napoli Kalah 1-2 dari AC Milan di Liga Italia 2025-2026</t>
+          <t>Kisah Pebulu Tangkis Kunlavut Vitidsarn, Dipromosikan Jadi Polisi Usai Raih Medali Olimpiade Paris 2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Liga Italia | Senin, 29 September 2025 05:13 WIB Antonio Conte Ungkap Penyebab Napoli Kalah 1-2 dari AC Milan di Liga Italia 2025-2026</t>
+          <t>Netting | Senin, 29 September 2025 10:47 WIB Kisah Pebulu Tangkis Kunlavut Vitidsarn, Dipromosikan Jadi Polisi Usai Raih Medali Olimpiade Paris 2024</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1453,7 +1449,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/47/3173121/antonio-conte-ungkap-penyebab-napoli-kalah-1-2-dari-ac-milan-di-liga-italia-2025-2026</t>
+          <t>https://sports.okezone.com/read/2025/09/29/40/3173167/kisah-pebulu-tangkis-kunlavut-vitidsarn-dipromosikan-jadi-polisi-usai-raih-medali-olimpiade-paris-2024</t>
         </is>
       </c>
       <c r="E39" t="b">
@@ -1464,12 +1460,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Eza Gionino Ikhlas Diceraikan Istri: Dia Berhak untuk Bahagia</t>
+          <t>Gerbang Tol Pejompongan Masih Ditutup, Lalu Lintas di Jalan Gatot Subroto Arah Semanggi Lancar</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hot Gossip | Senin, 29 September 2025 05:10 WIB Eza Gionino Ikhlas Diceraikan Istri: Dia Berhak untuk Bahagia</t>
+          <t>Megapolitan | Senin, 29 September 2025 10:46 WIB Gerbang Tol Pejompongan Masih Ditutup, Lalu Lintas di Jalan Gatot Subroto Arah Semanggi Lancar</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1479,7 +1475,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173120/eza-gionino-ikhlas-diceraikan-istri-dia-berhak-untuk-bahagia</t>
+          <t>https://news.okezone.com/read/2025/09/29/338/3173168/gerbang-tol-pejompongan-masih-ditutup-lalu-lintas-di-jalan-gatot-subroto-arah-semanggi-lancar</t>
         </is>
       </c>
       <c r="E40" t="b">
@@ -1490,12 +1486,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4 Fakta Cukai Rokok 2026 Tak Naik, Purbaya Fokus Berantas Rokok Ilegal</t>
+          <t>Penyebab Zinedine Zidane Tolak Latih Manchester United Gantikan Ruben Amorim</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 05:03 WIB 4 Fakta Cukai Rokok 2026 Tak Naik, Purbaya Fokus Berantas Rokok Ilegal</t>
+          <t>Liga Inggris | Senin, 29 September 2025 10:41 WIB Penyebab Zinedine Zidane Tolak Latih Manchester United Gantikan Ruben Amorim</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1505,7 +1501,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3172951/4-fakta-cukai-rokok-2026-tak-naik-purbaya-fokus-berantas-rokok-ilegal</t>
+          <t>https://bola.okezone.com/read/2025/09/29/45/3173166/penyebab-zinedine-zidane-tolak-latih-manchester-united-gantikan-ruben-amorim</t>
         </is>
       </c>
       <c r="E41" t="b">
@@ -1516,12 +1512,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kisah Unik Raja Bulu Tangkis Dunia Viktor Axelsen, Ternyata Punya Nama Aksara Tionghoa dan Fasih Berbahasa Mandarin</t>
+          <t>Daftar Motor Terbaik di IMOS 2025, Honda ADV hingga Harley-Davidson</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Netting | Senin, 29 September 2025 04:52 WIB Kisah Unik Raja Bulu Tangkis Dunia Viktor Axelsen, Ternyata Punya Nama Aksara Tionghoa dan Fasih Berbahasa Mandarin</t>
+          <t>Autos | Senin, 29 September 2025 10:39 WIB Daftar Motor Terbaik di IMOS 2025, Honda ADV hingga Harley-Davidson</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1531,7 +1527,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/40/3173105/kisah-unik-raja-bulu-tangkis-dunia-viktor-axelsen-ternyata-punya-nama-aksara-tionghoa-dan-fasih-berbahasa-mandarin</t>
+          <t>https://ototekno.okezone.com/read/2025/09/29/15/3173165/daftar-motor-terbaik-di-imos-2025-honda-adv-hingga-harley-davidson</t>
         </is>
       </c>
       <c r="E42" t="b">
@@ -1542,12 +1538,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ribuan Jiwa Terdampak Kebakaran Hebat di Tamansari Jakbar, Kerugian Capai Puluhan Miliar</t>
+          <t>Penembakan Massal di Gereja Michigan Tewaskan Setidaknya Empat Orang</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Megapolitan | Senin, 29 September 2025 04:05 WIB Ribuan Jiwa Terdampak Kebakaran Hebat di Tamansari Jakbar, Kerugian Capai Puluhan Miliar</t>
+          <t>International | Senin, 29 September 2025 10:31 WIB Penembakan Massal di Gereja Michigan Tewaskan Setidaknya Empat Orang</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1557,7 +1553,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/338/3173114/ribuan-jiwa-terdampak-kebakaran-hebat-di-tamansari-jakbar-kerugian-capai-puluhan-miliar</t>
+          <t>https://news.okezone.com/read/2025/09/29/18/3173164/penembakan-massal-di-gereja-michigan-tewaskan-setidaknya-empat-orang</t>
         </is>
       </c>
       <c r="E43" t="b">
@@ -1568,12 +1564,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Timnas Irak Dikritik Jelang Lawan Timnas Indonesia: Persiapan Kurang Ideal hingga Diminta Gelar TC Sebelum ke Arab Saudi</t>
+          <t>Shell Lepas Bisnis SPBU di Indonesia Mulai 2026</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 04:05 WIB Timnas Irak Dikritik Jelang Lawan Timnas Indonesia: Persiapan Kurang Ideal hingga Diminta Gelar TC Sebelum ke Arab Saudi</t>
+          <t>Hot Issue | Senin, 29 September 2025 10:10 WIB Shell Lepas Bisnis SPBU di Indonesia Mulai 2026</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1583,23 +1579,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/51/3173060/timnas-irak-dikritik-jelang-lawan-timnas-indonesia-persiapan-kurang-ideal-hingga-diminta-gelar-tc-sebelum-ke-arab-saudi</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173163/shell-lepas-bisnis-spbu-di-indonesia-mulai-2026</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>bisnis</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kisah Patrick Kluivert yang Tertarik Ikuti Jejak Thom Haye, Bikin Tato jika Timnas Indonesia Lolos Piala Dunia 2026!</t>
+          <t>Aktor Lee Dong Gun Divonis Idap Penyakit Langka, Hanya Menyerang 1 Persen Orang Korea</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 03:05 WIB Kisah Patrick Kluivert yang Tertarik Ikuti Jejak Thom Haye, Bikin Tato jika Timnas Indonesia Lolos Piala Dunia 2026!</t>
+          <t>Hot Gossip | Senin, 29 September 2025 10:10 WIB Aktor Lee Dong Gun Divonis Idap Penyakit Langka, Hanya Menyerang 1 Persen Orang Korea</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/51/3173059/kisah-patrick-kluivert-yang-tertarik-ikuti-jejak-thom-haye-bikin-tato-jika-timnas-indonesia-lolos-piala-dunia-2026</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173172/aktor-lee-dong-gun-divonis-idap-penyakit-langka-hanya-menyerang-1-persen-orang-korea</t>
         </is>
       </c>
       <c r="E45" t="b">
@@ -1620,12 +1620,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mensesneg Ungkap Gaya Prabowo Selesaikan Masalah dalam Sebuah Forum Pertemuan</t>
+          <t>Ayah Bantah Nissa Sabyan Tengah Hamil Anak Pertama</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 03:00 WIB Mensesneg Ungkap Gaya Prabowo Selesaikan Masalah dalam Sebuah Forum Pertemuan</t>
+          <t>Hot Gossip | Senin, 29 September 2025 10:10 WIB Ayah Bantah Nissa Sabyan Tengah Hamil Anak Pertama</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/337/3173117/mensesneg-ungkap-gaya-prabowo-selesaikan-masalah-dalam-sebuah-forum-pertemuan</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173162/ayah-bantah-nissa-sabyan-tengah-hamil-anak-pertama</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -1646,12 +1646,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ungkapkan Kekaguman, Fabio Quartararo: Marc Marquez Pantas Juara Dunia MotoGP 2025</t>
+          <t>Trump Sangat Percaya Diri Perang Gaza Segera Berakhir</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MotoGP | Senin, 29 September 2025 02:46 WIB Ungkapkan Kekaguman, Fabio Quartararo: Marc Marquez Pantas Juara Dunia MotoGP 2025</t>
+          <t>International | Senin, 29 September 2025 09:57 WIB Trump Sangat Percaya Diri Perang Gaza Segera Berakhir</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/38/3173100/ungkapkan-kekaguman-fabio-quartararo-marc-marquez-pantas-juara-dunia-motogp-2025</t>
+          <t>https://news.okezone.com/read/2025/09/29/18/3173160/trump-sangat-percaya-diri-perang-gaza-segera-berakhir</t>
         </is>
       </c>
       <c r="E47" t="b">
@@ -1672,12 +1672,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kartu Pers Istana Jurnalis CNN Dicabut, Begini Penjelasan Istana</t>
+          <t>Intip Statistik Mentereng Jay Idzes saat Sassuolo Menang 3-1 atas Udinese di Liga Italia 2025-2026</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 02:05 WIB Kartu Pers Istana Jurnalis CNN Dicabut, Begini Penjelasan Istana</t>
+          <t>Liga Italia | Senin, 29 September 2025 09:47 WIB Intip Statistik Mentereng Jay Idzes saat Sassuolo Menang 3-1 atas Udinese di Liga Italia 2025-2026</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/28/337/3173116/kartu-pers-istana-jurnalis-cnn-dicabut-begini-penjelasan-istana</t>
+          <t>https://bola.okezone.com/read/2025/09/29/47/3173159/intip-statistik-mentereng-jay-idzes-saat-sassuolo-menang-3-1-atas-udinese-di-liga-italia-2025-2026</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -1698,12 +1698,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Statistik Ciamik Kiper Timnas Indonesia U-23 Cahya Supriadi di Super League 2025-2026: Catatkan 22 Penyelamatan!</t>
+          <t>Jadwal Siaran Langsung Bangkok United vs Persib Bandung di AFC Champions League 2 2025-2026: Bikin Kejutan, Maung Bandung?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Liga Indonesia | Senin, 29 September 2025 02:05 WIB Statistik Ciamik Kiper Timnas Indonesia U-23 Cahya Supriadi di Super League 2025-2026: Catatkan 22 Penyelamatan!</t>
+          <t>Liga Champion | Senin, 29 September 2025 09:46 WIB Jadwal Siaran Langsung Bangkok United vs Persib Bandung di AFC Champions League 2 2025-2026: Bikin Kejutan, Maung Bandung?</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/49/3173057/statistik-ciamik-kiper-timnas-indonesia-u-23-cahya-supriadi-di-super-league-2025-2026-catatkan-22-penyelamatan</t>
+          <t>https://bola.okezone.com/read/2025/09/29/261/3173158/jadwal-siaran-langsung-bangkok-united-vs-persib-bandung-di-afc-champions-league-2-2025-2026-bikin-kejutan-maung-bandung</t>
         </is>
       </c>
       <c r="E49" t="b">
@@ -1724,12 +1724,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jadi Juara Dunia MotoGP 2025, Marc Marquez: Saya Tidak Tahu Arti Penderitaan 6 Tahun Lalu</t>
+          <t>Tasya Farasya Tenteng Tas Hermes Seharga Rp2,9 Miliar</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MotoGP | Senin, 29 September 2025 01:35 WIB Jadi Juara Dunia MotoGP 2025, Marc Marquez: Saya Tidak Tahu Arti Penderitaan 6 Tahun Lalu</t>
+          <t>Fashion | Senin, 29 September 2025 09:41 WIB Tasya Farasya Tenteng Tas Hermes Seharga Rp2,9 Miliar</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/38/3173091/jadi-juara-dunia-motogp-2025-marc-marquez-saya-tidak-tahu-arti-penderitaan-6-tahun-lalu</t>
+          <t>https://women.okezone.com/read/2025/09/29/194/3173155/tasya-farasya-tenteng-tas-hermes-seharga-rp2-9-miliar</t>
         </is>
       </c>
       <c r="E50" t="b">
@@ -1750,12 +1750,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Dalih Ruben Amorim Usai Manchester United Kalah 1-3 dari Brentford di Liga Inggris 2025-2026</t>
+          <t>Purbaya Usul ke Prabowo Tak Tambah Wamen Lagi Usai Anggito Jadi Ketua LPS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Liga Inggris | Senin, 29 September 2025 01:05 WIB Dalih Ruben Amorim Usai Manchester United Kalah 1-3 dari Brentford di Liga Inggris 2025-2026</t>
+          <t>Hot Issue | Senin, 29 September 2025 09:36 WIB Purbaya Usul ke Prabowo Tak Tambah Wamen Lagi Usai Anggito Jadi Ketua LPS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/45/3173049/dalih-ruben-amorim-usai-manchester-united-kalah-1-3-dari-brentford-di-liga-inggris-2025-2026</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173157/purbaya-usul-ke-prabowo-tak-tambah-wamen-lagi-usai-anggito-jadi-ketua-lps</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -1776,12 +1776,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kumpulkan Sejumlah Menteri di Kertanegara Malam Hari, Ini yang Dibahas Prabowo</t>
+          <t>Vonis Mati Mantan Menteri Pertanian Tang Renjian karena Terima Suap Rp627 Miliar</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 01:02 WIB Kumpulkan Sejumlah Menteri di Kertanegara Malam Hari, Ini yang Dibahas Prabowo</t>
+          <t>International | Senin, 29 September 2025 09:32 WIB Vonis Mati Mantan Menteri Pertanian Tang Renjian karena Terima Suap Rp627 Miliar</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/337/3173118/kumpulkan-sejumlah-menteri-di-kertanegara-malam-hari-ini-yang-dibahas-prabowo</t>
+          <t>https://news.okezone.com/read/2025/09/29/18/3173156/vonis-mati-mantan-menteri-pertanian-tang-renjian-karena-terima-suap-rp627-miliar</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -1802,12 +1802,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kata-Kata Haru Marc Marquez saat Pastikan Gelar Juara Dunia MotoGP 2025 di Jepang</t>
+          <t>IHSG Dibuka Menguat ke 8.139, Saham-Saham Ini Cuan</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MotoGP | Senin, 29 September 2025 00:32 WIB Kata-Kata Haru Marc Marquez saat Pastikan Gelar Juara Dunia MotoGP 2025 di Jepang</t>
+          <t>Market Update | Senin, 29 September 2025 09:21 WIB IHSG Dibuka Menguat ke 8.139, Saham-Saham Ini Cuan</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1817,23 +1817,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/28/38/3173090/kata-kata-haru-marc-marquez-saat-pastikan-gelar-juara-dunia-motogp-2025-di-jepang</t>
+          <t>https://economy.okezone.com/read/2025/09/29/278/3173154/ihsg-dibuka-menguat-ke-8-139-saham-saham-ini-cuan</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>saham</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4 Pendulang Emas Selamat dari Pembantaian KKB Usai Sembunyi di Hutan, 2 Rekannya Tewas Ditembak</t>
+          <t>Penyebab Kapten Timnas Indonesia Jay Idzes Tolak Ajakan Nemanja Matic untuk Selebrasi Gol di Laga Sassuolo vs Udinese</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Nusantara | Senin, 29 September 2025 00:08 WIB 4 Pendulang Emas Selamat dari Pembantaian KKB Usai Sembunyi di Hutan, 2 Rekannya Tewas Ditembak</t>
+          <t>Liga Italia | Senin, 29 September 2025 09:13 WIB Penyebab Kapten Timnas Indonesia Jay Idzes Tolak Ajakan Nemanja Matic untuk Selebrasi Gol di Laga Sassuolo vs Udinese</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1843,7 +1847,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/340/3173119/4-pendulang-emas-selamat-dari-pembantaian-kkb-usai-sembunyi-di-hutan-2-rekannya-tewas-ditembak</t>
+          <t>https://bola.okezone.com/read/2025/09/29/47/3173153/penyebab-kapten-timnas-indonesia-jay-idzes-tolak-ajakan-nemanja-matic-untuk-selebrasi-gol-di-laga-sassuolo-vs-udinese</t>
         </is>
       </c>
       <c r="E54" t="b">
@@ -1854,12 +1858,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Terungkap! 2 Klub Belanda Ternyata Minati Mees Hilgers Usai Gagal ke Stade Brest tapi Ditolak</t>
+          <t>Shell Buka Suara soal Isu PHK Massal Imbas Kebijakan Impor BBM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 00:05 WIB Terungkap! 2 Klub Belanda Ternyata Minati Mees Hilgers Usai Gagal ke Stade Brest tapi Ditolak</t>
+          <t>Hot Issue | Senin, 29 September 2025 09:10 WIB Shell Buka Suara soal Isu PHK Massal Imbas Kebijakan Impor BBM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1869,7 +1873,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/28/51/3173030/terungkap-2-klub-belanda-ternyata-minati-mees-hilgers-usai-gagal-ke-stade-brest-tapi-ditolak</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173152/shell-buka-suara-soal-isu-phk-massal-imbas-kebijakan-impor-bbm</t>
         </is>
       </c>
       <c r="E55" t="b">
@@ -1880,12 +1884,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>News</t>
+          <t>Kebakaran Hebat di Taman Sari akibat Kipas Angin</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Megapolitan | Senin, 29 September 2025 09:04 WIB Kebakaran Hebat di Taman Sari akibat Kipas Angin</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1895,7 +1899,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/</t>
+          <t>https://news.okezone.com/read/2025/09/29/338/3173151/kebakaran-hebat-di-taman-sari-akibat-kipas-angin</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -1906,12 +1910,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>BCA Mobile Berangsur Normal Usai Error, Ini Instruksi BCA ke Nasabah</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Hot Issue | Senin, 29 September 2025 08:58 WIB BCA Mobile Berangsur Normal Usai Error, Ini Instruksi BCA ke Nasabah</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1921,7 +1925,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173150/bca-mobile-berangsur-normal-usai-error-ini-instruksi-bca-ke-nasabah</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -1932,12 +1936,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lifestyle</t>
+          <t>Media Belanda Sebut Bintang Timnas Indonesia Mees Hilgers Cocok Bela Ajax Amsterdam, Ini Alasannya!</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 08:54 WIB Media Belanda Sebut Bintang Timnas Indonesia Mees Hilgers Cocok Bela Ajax Amsterdam, Ini Alasannya!</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1947,7 +1951,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://lifestyle.okezone.com/</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173149/media-belanda-sebut-bintang-timnas-indonesia-mees-hilgers-cocok-bela-ajax-amsterdam-ini-alasannya</t>
         </is>
       </c>
       <c r="E58" t="b">
@@ -1958,12 +1962,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Celebrity</t>
+          <t>50 Kapal Aktivis Flotilla yang Akan Menembus Blokade Israel Mulai Dekati Jalur Gaza</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>International | Senin, 29 September 2025 08:50 WIB 50 Kapal Aktivis Flotilla yang Akan Menembus Blokade Israel Mulai Dekati Jalur Gaza</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1973,7 +1977,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/</t>
+          <t>https://news.okezone.com/read/2025/09/29/18/3173147/50-kapal-aktivis-flotilla-yang-akan-menembus-blokade-israel-mulai-dekati-jalur-gaza-nbsp</t>
         </is>
       </c>
       <c r="E59" t="b">
@@ -1984,12 +1988,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Bola</t>
+          <t>Pesan Haru Alex Marquez untuk Marc Marquez: Juara MotoGP 2025 Setelah Apa yang Dilalui 5 Tahun Terakhir!</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>MotoGP | Senin, 29 September 2025 08:48 WIB Pesan Haru Alex Marquez untuk Marc Marquez: Juara MotoGP 2025 Setelah Apa yang Dilalui 5 Tahun Terakhir!</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1999,7 +2003,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/</t>
+          <t>https://sports.okezone.com/read/2025/09/29/38/3173146/pesan-haru-alex-marquez-untuk-marc-marquez-juara-motogp-2025-setelah-apa-yang-dilalui-5-tahun-terakhir</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -2010,12 +2014,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Harga Emas Antam Terbaru Hari Ini, Kembali Cetak Rekor Tertinggi Jadi Rp2.198.000 per Gram</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Hot Issue | Senin, 29 September 2025 08:46 WIB Harga Emas Antam Terbaru Hari Ini, Kembali Cetak Rekor Tertinggi Jadi Rp2.198.000 per Gram</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2025,7 +2029,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173145/harga-emas-antam-terbaru-hari-ini-kembali-cetak-rekor-tertinggi-jadi-rp2-198-000-per-gram</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -2036,12 +2040,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>BGN: Korban Keracunan MBG Tanggung Jawab Pemerintah, Tak Perlu Bayar Rumah Sakit</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Hot Issue | Senin, 29 September 2025 08:34 WIB BGN: Korban Keracunan MBG Tanggung Jawab Pemerintah, Tak Perlu Bayar Rumah Sakit</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2051,7 +2055,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://travel.okezone.com/</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173144/bgn-korban-keracunan-mbg-tanggung-jawab-pemerintah-tak-perlu-bayar-rumah-sakit</t>
         </is>
       </c>
       <c r="E62" t="b">
@@ -2062,12 +2066,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Highend</t>
+          <t>Kekejaman Israel Terhadap Anak-Anak dan Perempuan di Gaza Terukir Selama Berabad-abad</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>International | Senin, 29 September 2025 08:23 WIB Kekejaman Israel Terhadap Anak-Anak dan Perempuan di Gaza Terukir Selama Berabad-abad</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2077,7 +2081,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://highend-magazine.okezone.com/</t>
+          <t>https://news.okezone.com/read/2025/09/29/18/3173142/kekejaman-israel-terhadap-anak-anak-dan-perempuan-di-gaza-terukir-selama-berabad-abad</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -2088,12 +2092,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Muslim</t>
+          <t>Penerima BSU September 2025 untuk Guru Cair Rp600.000, Kalau Pekerja?</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Smart Money | Senin, 29 September 2025 08:19 WIB Penerima BSU September 2025 untuk Guru Cair Rp600.000, Kalau Pekerja?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2103,7 +2107,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://muslim.okezone.com/</t>
+          <t>https://economy.okezone.com/read/2025/09/29/622/3173141/penerima-bsu-september-2025-untuk-guru-cair-rp600-000-kalau-pekerja</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -2114,12 +2118,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Haji</t>
+          <t>Nunung Ungkap Hikmah usai Divonis Idap Kanker Payudara</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Hot Gossip | Senin, 29 September 2025 08:10 WIB Nunung Ungkap Hikmah usai Divonis Idap Kanker Payudara</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2129,7 +2133,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://haji.okezone.com/</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173148/nunung-ungkap-hikmah-usai-divonis-idap-kanker-payudara-nbsp</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -2140,12 +2144,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Edukasi</t>
+          <t>Alasan Makanan Pabrikan Dilarang di MBG</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Hot Issue | Senin, 29 September 2025 08:02 WIB Alasan Makanan Pabrikan Dilarang di MBG</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2155,7 +2159,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://edukasi.okezone.com/</t>
+          <t>https://economy.okezone.com/read/2025/09/28/320/3173004/alasan-makanan-pabrikan-dilarang-di-mbg</t>
         </is>
       </c>
       <c r="E66" t="b">
@@ -2166,12 +2170,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>BCA Mobile dan MyBCA Error Hari Ini, BCA Minta Maaf</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Hot Issue | Senin, 29 September 2025 07:58 WIB BCA Mobile dan MyBCA Error Hari Ini, BCA Minta Maaf</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2181,7 +2185,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://health.okezone.com/</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173140/bca-mobile-dan-mybca-error-hari-ini-bca-minta-maaf</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -2192,12 +2196,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Techno</t>
+          <t>Jadwal Siaran Langsung Timnas Indonesia di Babak Keempat Kualifikasi Piala Dunia 2026 Zona Asia, Live di RCTI!</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 07:58 WIB Jadwal Siaran Langsung Timnas Indonesia di Babak Keempat Kualifikasi Piala Dunia 2026 Zona Asia, Live di RCTI!</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2207,7 +2211,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://techno.okezone.com/</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173139/jadwal-siaran-langsung-timnas-indonesia-di-babak-keempat-kualifikasi-piala-dunia-2026-zona-asia-live-di-rcti</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -2218,12 +2222,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Otomotif</t>
+          <t>Cek Bansos PKH dan BPNT September 2025, dari Jadwal hingga Besarannya</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Smart Money | Senin, 29 September 2025 07:46 WIB Cek Bansos PKH dan BPNT September 2025, dari Jadwal hingga Besarannya</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2233,7 +2237,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://otomotif.okezone.com/</t>
+          <t>https://economy.okezone.com/read/2025/09/29/622/3173138/cek-bansos-pkh-dan-bpnt-september-2025-dari-jadwal-hingga-besarannya</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -2244,12 +2248,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Infografis</t>
+          <t>Dihukum FIFA, FAM Ngaku Ada Kesalahan Teknis saat Kirim Berkas 7 Pemain Naturalisasi Timnas Malaysia</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 07:45 WIB Dihukum FIFA, FAM Ngaku Ada Kesalahan Teknis saat Kirim Berkas 7 Pemain Naturalisasi Timnas Malaysia</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2259,7 +2263,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://infografis.okezone.com/</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173137/dihukum-fifa-fam-ngaku-ada-kesalahan-teknis-saat-kirim-berkas-7-pemain-naturalisasi-timnas-malaysia</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -2270,12 +2274,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Foto</t>
+          <t>Pasokan Gas untuk PLTMG Bangkanai Diperkuat, Topang Kelistrikan Kalimantan</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Hot Issue | Senin, 29 September 2025 07:41 WIB Pasokan Gas untuk PLTMG Bangkanai Diperkuat, Topang Kelistrikan Kalimantan</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2285,7 +2289,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://foto.okezone.com/</t>
+          <t>https://economy.okezone.com/read/2025/09/29/320/3173136/pasokan-gas-untuk-pltmg-bangkanai-diperkuat-topang-kelistrikan-kalimantan</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -2296,12 +2300,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Video</t>
+          <t>Update Kebakaran Taman Sari: 6 Korban Luka Ringan dan 225 Jiwa Mengungsi</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Megapolitan | Senin, 29 September 2025 07:33 WIB Update Kebakaran Taman Sari: 6 Korban Luka Ringan dan 225 Jiwa Mengungsi</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2311,7 +2315,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://video.okezone.com/</t>
+          <t>https://news.okezone.com/read/2025/09/29/338/3173135/update-kebakaran-taman-sari-6-korban-luka-ringan-dan-225-jiwa-mengungsi</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -2322,12 +2326,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Indeks</t>
+          <t>Pemain Timnas Indonesia Calvin Verdonk Tabrak Juara Piala Dunia 2022 di Laga LOSC Lille vs Lyon, Berujung Adu Kepala dengan Malick Fofana!</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Sepakbola Dunia | Senin, 29 September 2025 07:18 WIB Pemain Timnas Indonesia Calvin Verdonk Tabrak Juara Piala Dunia 2022 di Laga LOSC Lille vs Lyon, Berujung Adu Kepala dengan Malick Fofana!</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2337,7 +2341,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://index.okezone.com/</t>
+          <t>https://bola.okezone.com/read/2025/09/29/51/3173134/pemain-timnas-indonesia-calvin-verdonk-tabrak-juara-piala-dunia-2022-di-laga-losc-lille-vs-lyon-berujung-adu-kepala-dengan-malick-fofana</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -2348,12 +2352,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>OKEZONE TV</t>
+          <t>Bedu Bongkar Alasan Ceraikan Istri, Bantah karena Masalah Ekonomi</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Hot Gossip | Senin, 29 September 2025 07:12 WIB Bedu Bongkar Alasan Ceraikan Istri, Bantah karena Masalah Ekonomi</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2363,23 +2367,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://tv.okezone.com/</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173133/bedu-bongkar-alasan-ceraikan-istri-bantah-karena-masalah-ekonomi</t>
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ekonomi</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Booking Hotel</t>
+          <t>Duo Maia Batal Tampil di Synchronize 2025, Pinkan Mambo Siap Naik Panggung</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>Hot Gossip | Senin, 29 September 2025 07:10 WIB Duo Maia Batal Tampil di Synchronize 2025, Pinkan Mambo Siap Naik Panggung</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2389,923 +2397,13 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.misteraladin.com/</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173143/duo-maia-batal-tampil-di-synchronize-2025-pinkan-mambo-siap-naik-panggung</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Fashion Online</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://brandoutlet.co.id/</t>
-        </is>
-      </c>
-      <c r="E76" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Asuransi Kendaraan</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>http://www.mnc-insurance.com</t>
-        </is>
-      </c>
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>MNC Shop</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://www.mncshop.com/</t>
-        </is>
-      </c>
-      <c r="E78" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>ARSIP</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/arsip</t>
-        </is>
-      </c>
-      <c r="E79" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>TERPOPULER</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/populer</t>
-        </is>
-      </c>
-      <c r="E80" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>PERISKOP</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/periskop</t>
-        </is>
-      </c>
-      <c r="E81" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>KALEIDOSKOP</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/kaleidoskop</t>
-        </is>
-      </c>
-      <c r="E82" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>BERITA</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/index</t>
-        </is>
-      </c>
-      <c r="E83" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>BY KANAL</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/kanal</t>
-        </is>
-      </c>
-      <c r="E84" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>HEADLINE</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/headline</t>
-        </is>
-      </c>
-      <c r="E85" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Okezone News 15 Berita</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/1</t>
-        </is>
-      </c>
-      <c r="E86" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Okezone Finance 15 Berita</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/11</t>
-        </is>
-      </c>
-      <c r="E87" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Okezone Celebrity 5 Berita</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/13</t>
-        </is>
-      </c>
-      <c r="E88" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Okezone Sports 6 Berita</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/2</t>
-        </is>
-      </c>
-      <c r="E89" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Okezone Bola 14 Berita</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/14</t>
-        </is>
-      </c>
-      <c r="E90" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Okezone Foto 1 Berita</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/foto/</t>
-        </is>
-      </c>
-      <c r="E91" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Okezone Video 0 Berita</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/video/</t>
-        </is>
-      </c>
-      <c r="E92" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Okezone Infografis 0 Berita</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/infografis/</t>
-        </is>
-      </c>
-      <c r="E93" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Women</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/12</t>
-        </is>
-      </c>
-      <c r="E94" t="b">
-        <v>0</v>
-      </c>
-      <c r="F94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Ototekno</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/630</t>
-        </is>
-      </c>
-      <c r="E95" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Muslim</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/613</t>
-        </is>
-      </c>
-      <c r="E96" t="b">
-        <v>0</v>
-      </c>
-      <c r="F96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/298</t>
-        </is>
-      </c>
-      <c r="E97" t="b">
-        <v>0</v>
-      </c>
-      <c r="F97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Health</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/482</t>
-        </is>
-      </c>
-      <c r="E98" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Edukasi</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/623</t>
-        </is>
-      </c>
-      <c r="E99" t="b">
-        <v>0</v>
-      </c>
-      <c r="F99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>TV Scope</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/533</t>
-        </is>
-      </c>
-      <c r="E100" t="b">
-        <v>0</v>
-      </c>
-      <c r="F100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Quiz</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/628</t>
-        </is>
-      </c>
-      <c r="E101" t="b">
-        <v>0</v>
-      </c>
-      <c r="F101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Foto</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/foto</t>
-        </is>
-      </c>
-      <c r="E102" t="b">
-        <v>0</v>
-      </c>
-      <c r="F102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Video</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/video</t>
-        </is>
-      </c>
-      <c r="E103" t="b">
-        <v>0</v>
-      </c>
-      <c r="F103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Tren</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://index.okezone.com/home/channel/620</t>
-        </is>
-      </c>
-      <c r="E104" t="b">
-        <v>0</v>
-      </c>
-      <c r="F104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>About Us</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://management.okezone.com</t>
-        </is>
-      </c>
-      <c r="E105" t="b">
-        <v>0</v>
-      </c>
-      <c r="F105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Redaksi</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://management.okezone.com/redaksi</t>
-        </is>
-      </c>
-      <c r="E106" t="b">
-        <v>0</v>
-      </c>
-      <c r="F106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Kotak Pos</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://management.okezone.com/pos</t>
-        </is>
-      </c>
-      <c r="E107" t="b">
-        <v>0</v>
-      </c>
-      <c r="F107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Karier</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://career.okezone.com</t>
-        </is>
-      </c>
-      <c r="E108" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Info Iklan</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://client.okezone.com/advertising</t>
-        </is>
-      </c>
-      <c r="E109" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Disclaimer</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://management.okezone.com/disclaimer</t>
-        </is>
-      </c>
-      <c r="E110" t="b">
-        <v>0</v>
-      </c>
-      <c r="F110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daftar_berita/okezone.xlsx
+++ b/daftar_berita/okezone.xlsx
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Akui Ada Keracunan MBG, Prabowo: Itu 0,00017 Persen</t>
+          <t>Menkomdigi Resmikan 1.194 Titik Kampung Internet, Wagub Sumut: Selaras dengan PHTC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 13:48 WIB Akui Ada Keracunan MBG, Prabowo: Itu 0,00017 Persen</t>
+          <t>Nusantara | Selasa, 30 September 2025 13:47 WIB Menkomdigi Resmikan 1.194 Titik Kampung Internet, Wagub Sumut: Selaras dengan PHTC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173210/akui-ada-keracunan-mbg-prabowo-itu-0-00017-persen</t>
+          <t>https://news.okezone.com/read/2025/09/30/340/3173459/menkomdigi-resmikan-1-194-titik-kampung-internet-wagub-sumut-selaras-dengan-phtc</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -494,12 +494,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Persib Bandung Ogah Lama-Lama Ratapi Kekalahan, Langsung Alihkan Fokus Lawan Bangkok United</t>
+          <t>Bright hingga Siti Nurhaliza Bakal Meriahkan Indonesian Television Awards 2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liga Champion | Senin, 29 September 2025 13:48 WIB Persib Bandung Ogah Lama-Lama Ratapi Kekalahan, Langsung Alihkan Fokus Lawan Bangkok United</t>
+          <t>TV Scoop | Selasa, 30 September 2025 13:30 WIB Bright hingga Siti Nurhaliza Bakal Meriahkan Indonesian Television Awards 2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/261/3173209/persib-bandung-ogah-lama-lama-ratapi-kekalahan-langsung-alihkan-fokus-lawan-bangkok-united</t>
+          <t>https://celebrity.okezone.com/read/2025/09/30/598/3173403/bright-hingga-siti-nurhaliza-bakal-meriahkan-indonesian-television-awards-2025</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -520,12 +520,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mardiono Bukan Tinggalkan Area Muktamar PPP tapi Jenguk Korban Bentrokan</t>
+          <t>Orange Bond Oversubscribed, PNM Raih Dana Rp16 Triliun</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 13:39 WIB Mardiono Bukan Tinggalkan Area Muktamar PPP tapi Jenguk Korban Bentrokan</t>
+          <t>Hot Issue | Selasa, 30 September 2025 13:27 WIB Orange Bond Oversubscribed, PNM Raih Dana Rp16 Triliun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/337/3173207/mardiono-bukan-tinggalkan-area-muktamar-ppp-tapi-jenguk-korban-bentrokan</t>
+          <t>https://economy.okezone.com/read/2025/09/30/320/3173458/orange-bond-oversubscribed-pnm-raih-dana-rp16-triliun</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -546,12 +546,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tata Cara Mandi Wajib Setelah Mimpi Basah</t>
+          <t>Purbaya Alokasikan Rp479 Triliun untuk Subsidi Energi dan Kompensasi 2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Serba-serbi | Senin, 29 September 2025 13:32 WIB Tata Cara Mandi Wajib Setelah Mimpi Basah</t>
+          <t>Hot Issue | Selasa, 30 September 2025 13:10 WIB Purbaya Alokasikan Rp479 Triliun untuk Subsidi Energi dan Kompensasi 2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://muslim.okezone.com/read/2025/09/29/614/3173206/tata-cara-mandi-wajib-setelah-mimpi-basah</t>
+          <t>https://economy.okezone.com/read/2025/09/30/320/3173457/purbaya-alokasikan-rp479-triliun-untuk-subsidi-energi-dan-kompensasi-2025</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -572,12 +572,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Istana Akhirnya Kembalikan Kartu Liputan Wartawan CNN yang Sempat Dicabut</t>
+          <t>Patrick Kluivert Bahagia, Mathew Baker Resmi Dikontrak Melbourne City hingga 2028!</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 13:28 WIB Istana Akhirnya Kembalikan Kartu Liputan Wartawan CNN yang Sempat Dicabut</t>
+          <t>Sepakbola Dunia | Selasa, 30 September 2025 13:03 WIB Patrick Kluivert Bahagia, Mathew Baker Resmi Dikontrak Melbourne City hingga 2028!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/337/3173204/istana-akhirnya-kembalikan-kartu-liputan-wartawan-cnn-yang-sempat-dicabut</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173455/patrick-kluivert-bahagia-mathew-baker-resmi-dikontrak-melbourne-city-hingga-2028</t>
         </is>
       </c>
       <c r="E6" t="b">
@@ -598,12 +598,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Harganya Tembus Rp700 Juta, Intip Spesifikasi New Pajero Sport</t>
+          <t>Kondisi Terkini Vika Kolesnaya Usai Melahirkan, Masih Dirawat dan Pemulihan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Autos | Senin, 29 September 2025 13:27 WIB Harganya Tembus Rp700 Juta, Intip Spesifikasi New Pajero Sport</t>
+          <t>Hot Gossip | Selasa, 30 September 2025 13:02 WIB Kondisi Terkini Vika Kolesnaya Usai Melahirkan, Masih Dirawat dan Pemulihan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/29/15/3173203/harganya-tembus-rp700-juta-intip-spesifikasi-new-pajero-sport</t>
+          <t>https://celebrity.okezone.com/read/2025/09/30/33/3173418/kondisi-terkini-vika-kolesnaya-usai-melahirkan-masih-dirawat-dan-pemulihan</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -624,12 +624,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cara PSSI agar Timnas Indonesia Tak Dikerjai Arab Saudi Jelang Bentrok di Kualifikasi Piala Dunia 2026: Sewa Bus Sendiri</t>
+          <t>Ini Cara dan Download Cheat Harvest Moon: Back to Nature untuk Android</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 13:18 WIB Cara PSSI agar Timnas Indonesia Tak Dikerjai Arab Saudi Jelang Bentrok di Kualifikasi Piala Dunia 2026: Sewa Bus Sendiri</t>
+          <t>Techno | Selasa, 30 September 2025 12:52 WIB Ini Cara dan Download Cheat Harvest Moon: Back to Nature untuk Android</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173201/cara-pssi-agar-timnas-indonesia-tak-dikerjai-arab-saudi-jelang-bentrok-di-kualifikasi-piala-dunia-2026-sewa-bus-sendiri</t>
+          <t>https://ototekno.okezone.com/read/2025/09/30/16/3173454/ini-cara-dan-download-cheat-harvest-moon-back-to-nature-untuk-android</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -650,12 +650,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tidak Dendam ke Anies Diberi Nilai 11 saat Debat, Prabowo: Sebenarnya Dia Bantu Gue Menang!</t>
+          <t>Warga NTB Dapat Diskon Tiket untuk MotoGP Mandalika 2025, 2 Kategori Termahal Sudah Ludes!</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 13:13 WIB Tidak Dendam ke Anies Diberi Nilai 11 saat Debat, Prabowo: Sebenarnya Dia Bantu Gue Menang!</t>
+          <t>MotoGP | Selasa, 30 September 2025 12:44 WIB Warga NTB Dapat Diskon Tiket untuk MotoGP Mandalika 2025, 2 Kategori Termahal Sudah Ludes!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/337/3173200/tidak-dendam-ke-anies-diberi-nilai-11-saat-debat-prabowo-sebenarnya-dia-bantu-gue-menang</t>
+          <t>https://sports.okezone.com/read/2025/09/30/38/3173452/warga-ntb-dapat-diskon-tiket-untuk-motogp-mandalika-2025-2-kategori-termahal-sudah-ludes</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -676,12 +676,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Prabowo Perintahkan Seluruh Dapur MBG Pakai Alat Pencuci Higienis dan Tes Kit</t>
+          <t>Tampil Bak Pejabat, Bedu Akui Pinjam Kemeja Sang Kakak saat Hadir di PA Jaksel</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 12:59 WIB Prabowo Perintahkan Seluruh Dapur MBG Pakai Alat Pencuci Higienis dan Tes Kit</t>
+          <t>Hot Gossip | Selasa, 30 September 2025 12:41 WIB Tampil Bak Pejabat, Bedu Akui Pinjam Kemeja Sang Kakak saat Hadir di PA Jaksel</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/337/3173199/prabowo-perintahkan-seluruh-dapur-mbg-pakai-alat-pencuci-higienis-dan-tes-kit</t>
+          <t>https://celebrity.okezone.com/read/2025/09/30/33/3173451/tampil-bak-pejabat-bedu-akui-pinjam-kemeja-sang-kakak-saat-hadir-di-pa-jaksel</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -702,12 +702,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vivo Luncurkan OriginOS 6 untuk Gantikan FuntouchOS, Rilis Global Bulan Depan</t>
+          <t>Live di RCTI! Ini Jadwal Siaran Langsung Persib Bandung vs Bangkok United di AFC Champions League 2 2025-2026</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Techno | Senin, 29 September 2025 12:56 WIB Vivo Luncurkan OriginOS 6 untuk Gantikan FuntouchOS, Rilis Global Bulan Depan</t>
+          <t>Liga Champion | Selasa, 30 September 2025 12:34 WIB Live di RCTI! Ini Jadwal Siaran Langsung Persib Bandung vs Bangkok United di AFC Champions League 2 2025-2026</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/29/16/3173198/vivo-luncurkan-originos-6-untuk-gantikan-funtouchos-rilis-global-bulan-depan</t>
+          <t>https://bola.okezone.com/read/2025/09/30/261/3173450/live-di-rcti-ini-jadwal-siaran-langsung-persib-bandung-vs-bangkok-united-di-afc-champions-league-2-2025-2026</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -728,12 +728,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Marak Gula Rafinasi di Pasar, Petani Minta Pengawasan Diperketat</t>
+          <t>Azizah Salsha Pilih Main Padel saat Pratama Arhan Ucap Ikrar Talak</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 12:47 WIB Marak Gula Rafinasi di Pasar, Petani Minta Pengawasan Diperketat</t>
+          <t>Hot Gossip | Selasa, 30 September 2025 12:30 WIB Azizah Salsha Pilih Main Padel saat Pratama Arhan Ucap Ikrar Talak</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173197/marak-gula-rafinasi-di-pasar-petani-minta-pengawasan-diperketat</t>
+          <t>https://celebrity.okezone.com/read/2025/09/30/33/3173396/azizah-salsha-pilih-main-padel-saat-pratama-arhan-ucap-ikrar-talak</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -754,12 +754,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pengetahuan Kapten Timnas Indonesia Jay Idzes soal Aturan Sepakbola Melebihi Bek Bayern Munich dan Timnas Prancis!</t>
+          <t>IHSG Sesi I Turun ke Level 8.096</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 12:42 WIB Pengetahuan Kapten Timnas Indonesia Jay Idzes soal Aturan Sepakbola Melebihi Bek Bayern Munich dan Timnas Prancis!</t>
+          <t>Market Update | Selasa, 30 September 2025 12:28 WIB IHSG Sesi I Turun ke Level 8.096</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173196/pengetahuan-kapten-timnas-indonesia-jay-idzes-soal-aturan-sepakbola-melebihi-bek-bayern-munich-dan-timnas-prancis</t>
+          <t>https://economy.okezone.com/read/2025/09/30/278/3173449/ihsg-sesi-i-turun-ke-level-8-096</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -780,12 +780,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pemerintah Tidak Akan Intervensi Polemik Dualisme PPP</t>
+          <t>China Vonis Mati 11 Anggota Mafia Penguasa Pusat Penipuan Myanmar</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 12:38 WIB Pemerintah Tidak Akan Intervensi Polemik Dualisme PPP</t>
+          <t>International | Selasa, 30 September 2025 12:25 WIB China Vonis Mati 11 Anggota Mafia Penguasa Pusat Penipuan Myanmar</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/337/3173195/pemerintah-tidak-akan-intervensi-polemik-dualisme-ppp</t>
+          <t>https://news.okezone.com/read/2025/09/30/18/3173448/china-vonis-mati-11-anggota-mafia-penguasa-pusat-penipuan-myanmar</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -806,12 +806,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sarwendah Tan Bahas soal Lavender Marriage , Netizen Ramai Berspekulasi</t>
+          <t>Besaran Insentif Mobil Diusulkan Berdasarkan TKDN</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hot Gossip | Senin, 29 September 2025 12:30 WIB Sarwendah Tan Bahas soal Lavender Marriage , Netizen Ramai Berspekulasi</t>
+          <t>Autos | Selasa, 30 September 2025 12:18 WIB Besaran Insentif Mobil Diusulkan Berdasarkan TKDN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173194/sarwendah-tan-bahas-soal-lavender-marriage-netizen-ramai-berspekulasi</t>
+          <t>https://ototekno.okezone.com/read/2025/09/30/15/3173447/besaran-insentif-mobil-diusulkan-berdasarkan-tkdn</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -832,12 +832,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kelakar Presiden Prabowo ke AHY di Acara PKS: Penerus SBY</t>
+          <t>Dahnil Anzar Sebut Kuota Haji Indonesia 2026 Capai 221 Ribu</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 12:30 WIB Kelakar Presiden Prabowo ke AHY di Acara PKS: Penerus SBY</t>
+          <t>Haji &amp; Umroh | Selasa, 30 September 2025 12:14 WIB Dahnil Anzar Sebut Kuota Haji Indonesia 2026 Capai 221 Ribu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/337/3173193/kelakar-presiden-prabowo-ke-ahy-di-acara-pks-penerus-sby</t>
+          <t>https://muslim.okezone.com/read/2025/09/30/398/3173446/dahnil-anzar-sebut-kuota-haji-indonesia-2026-capai-221-ribu</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -858,12 +858,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IHSG Sesi I Menguat ke Level 8.146</t>
+          <t>5 Jurusan Kuliah yang Cocok Bekerja di Kapal Pesiar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Market Update | Senin, 29 September 2025 12:28 WIB IHSG Sesi I Menguat ke Level 8.146</t>
+          <t>Kampus | Selasa, 30 September 2025 12:14 WIB 5 Jurusan Kuliah yang Cocok Bekerja di Kapal Pesiar</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/278/3173192/ihsg-sesi-i-menguat-ke-level-8-146</t>
+          <t>https://edukasi.okezone.com/read/2025/09/30/65/3173445/5-jurusan-kuliah-yang-cocok-bekerja-di-kapal-pesiar</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -884,12 +884,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fraksi PDIP Minta Pasal Larangan Jual Rokok di Perda KTR Dicoret, Ini Alasannya</t>
+          <t>Gubernur Puji Damkar: 13 Jam Melawan Kobaran Api, 12 Kucing pun Ikut Selamat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Megapolitan | Senin, 29 September 2025 12:19 WIB Fraksi PDIP Minta Pasal Larangan Jual Rokok di Perda KTR Dicoret, Ini Alasannya</t>
+          <t>Megapolitan | Selasa, 30 September 2025 12:08 WIB Gubernur Puji Damkar: 13 Jam Melawan Kobaran Api, 12 Kucing pun Ikut Selamat</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/338/3173191/fraksi-pdip-minta-pasal-larangan-jual-rokok-di-perda-ktr-dicoret-ini-alasannya</t>
+          <t>https://news.okezone.com/read/2025/09/30/338/3173444/gubernur-puji-damkar-13-jam-melawan-kobaran-api-12-kucing-pun-ikut-selamat</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -910,12 +910,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Soroti Ancaman Perang Dunia Ketiga, Prabowo: Kita Hidup Dalam Keadaan Ketidakpastian!</t>
+          <t>Cegah Aktivitas Ilegal, RI-Australia Gelar Patroli di Perairan Perbatasan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 12:05 WIB Soroti Ancaman Perang Dunia Ketiga, Prabowo: Kita Hidup Dalam Keadaan Ketidakpastian!</t>
+          <t>Hot Issue | Selasa, 30 September 2025 12:07 WIB Cegah Aktivitas Ilegal, RI-Australia Gelar Patroli di Perairan Perbatasan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/337/3173190/soroti-ancaman-perang-dunia-ketiga-prabowo-kita-hidup-dalam-keadaan-ketidakpastian</t>
+          <t>https://economy.okezone.com/read/2025/09/30/320/3173443/cegah-aktivitas-ilegal-ri-australia-gelar-patroli-di-perairan-perbatasan</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -936,12 +936,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Topan Bualoi Terjang Vietnam, Setidaknya 1 Orang Tewas dan 12 Lainnya Hilang</t>
+          <t>PSSI Tak Risau soal Alokasi Anggaran Pemerintah untuk Timnas Indonesia U-23 di SEA Games 2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>International | Senin, 29 September 2025 12:05 WIB Topan Bualoi Terjang Vietnam, Setidaknya 1 Orang Tewas dan 12 Lainnya Hilang</t>
+          <t>Sepakbola Dunia | Selasa, 30 September 2025 12:05 WIB PSSI Tak Risau soal Alokasi Anggaran Pemerintah untuk Timnas Indonesia U-23 di SEA Games 2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/18/3173189/topan-bualoi-terjang-vietnam-setidaknya-1-orang-tewas-dan-12-lainnya-hilang</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173442/pssi-tak-risau-soal-alokasi-anggaran-pemerintah-untuk-timnas-indonesia-u-23-di-sea-games-2025</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -962,12 +962,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lagi Viral Kombinasi Olahraga Padel dan Pilates, Tuai Pro Kontra Netizen</t>
+          <t>Tanggapan Keluarga Usai Tanggal Lahir Bing Slamet Jadi Hari Komedi Nasional</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Life | Senin, 29 September 2025 12:03 WIB Lagi Viral Kombinasi Olahraga Padel dan Pilates, Tuai Pro Kontra Netizen</t>
+          <t>Hot Gossip | Selasa, 30 September 2025 12:01 WIB Tanggapan Keluarga Usai Tanggal Lahir Bing Slamet Jadi Hari Komedi Nasional</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://women.okezone.com/read/2025/09/29/612/3173187/lagi-viral-kombinasi-olahraga-padel-dan-pilates-tuai-pro-kontra-netizen</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173360/tanggapan-keluarga-usai-tanggal-lahir-bing-slamet-jadi-hari-komedi-nasional</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -988,12 +988,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Indra Sjafri Diumumkan Jadi Pelatih Timnas Indonesia U-23 di SEA Games 2025 Hari Ini?</t>
+          <t>Prediksi Chelsea vs Benfica di Liga Champions 2025-2026: Kembalinya Jose Mourinho ke Stamford Bridge</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 12:03 WIB Indra Sjafri Diumumkan Jadi Pelatih Timnas Indonesia U-23 di SEA Games 2025 Hari Ini?</t>
+          <t>Liga Champion | Selasa, 30 September 2025 11:59 WIB Prediksi Chelsea vs Benfica di Liga Champions 2025-2026: Kembalinya Jose Mourinho ke Stamford Bridge</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173188/indra-sjafri-diumumkan-jadi-pelatih-timnas-indonesia-u-23-di-sea-games-2025-hari-ini</t>
+          <t>https://bola.okezone.com/read/2025/09/30/261/3173441/prediksi-chelsea-vs-benfica-di-liga-champions-2025-2026-kembalinya-jose-mourinho-ke-stamford-bridge</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -1014,12 +1014,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cara Mudah Melihat Tanggal Pembuatan Akun Facebook Kamu</t>
+          <t>BGN Nonaktifkan Sementara 56 SPPG Imbas Adanya Kasus Keracunan MBG</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Techno | Senin, 29 September 2025 12:01 WIB Cara Mudah Melihat Tanggal Pembuatan Akun Facebook Kamu</t>
+          <t>Nasional | Selasa, 30 September 2025 11:54 WIB BGN Nonaktifkan Sementara 56 SPPG Imbas Adanya Kasus Keracunan MBG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/29/16/3173185/cara-mudah-melihat-tanggal-pembuatan-akun-facebook-kamu</t>
+          <t>https://news.okezone.com/read/2025/09/30/337/3173440/bgn-nonaktifkan-sementara-56-sppg-imbas-adanya-kasus-keracunan-mbg</t>
         </is>
       </c>
       <c r="E23" t="b">
@@ -1040,12 +1040,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kisah Sedih Pebulu Tangkis Supercantik Pornpawee Chochuwong, Cedera saat Lawan An Se Young di Korea Open hingga Harus Mundur</t>
+          <t>Apa Saja Hadits tentang Palestina di Akhir Zaman?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Netting | Senin, 29 September 2025 12:01 WIB Kisah Sedih Pebulu Tangkis Supercantik Pornpawee Chochuwong, Cedera saat Lawan An Se Young di Korea Open hingga Harus Mundur</t>
+          <t>Serba-serbi | Selasa, 30 September 2025 11:48 WIB Apa Saja Hadits tentang Palestina di Akhir Zaman?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/29/40/3173186/kisah-sedih-pebulu-tangkis-supercantik-pornpawee-chochuwong-cedera-saat-lawan-an-se-young-di-korea-open-hingga-harus-mundur</t>
+          <t>https://muslim.okezone.com/read/2025/09/30/614/3173438/apa-saja-hadits-tentang-palestina-di-akhir-zaman</t>
         </is>
       </c>
       <c r="E24" t="b">
@@ -1066,12 +1066,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Surat Al-Alaq Ayat 1-5, Arab, Latin dan Terjemahan</t>
+          <t>5 Pemain Top Arab Saudi yang Wajib Diwaspadai Timnas Indonesia, Nomor 1  Rekan Setim Cristiano Ronaldo!</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Doa Harian | Senin, 29 September 2025 11:53 WIB Surat Al-Alaq Ayat 1-5, Arab, Latin dan Terjemahan</t>
+          <t>Sepakbola Dunia | Selasa, 30 September 2025 11:47 WIB 5 Pemain Top Arab Saudi yang Wajib Diwaspadai Timnas Indonesia, Nomor 1  Rekan Setim Cristiano Ronaldo!</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://muslim.okezone.com/read/2025/09/29/618/3173184/surat-al-alaq-ayat-1-5-arab-latin-dan-terjemahan</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173437/5-pemain-top-arab-saudi-yang-wajib-diwaspadai-timnas-indonesia-nomor-1-rekan-setim-cristiano-ronaldo</t>
         </is>
       </c>
       <c r="E25" t="b">
@@ -1092,12 +1092,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Wapres Gibran Tidak Hadir, Mediasi Gugatan Ijazah Ditunda</t>
+          <t>5 Pemain yang Berpotensi Dicoret Patrick Kluivert Jelang Timnas Indonesia Lawan Arab Saudi dan Irak, Nomor 1 Andalan Persib Bandung!</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 11:48 WIB Wapres Gibran Tidak Hadir, Mediasi Gugatan Ijazah Ditunda</t>
+          <t>Sepakbola Dunia | Selasa, 30 September 2025 11:46 WIB 5 Pemain yang Berpotensi Dicoret Patrick Kluivert Jelang Timnas Indonesia Lawan Arab Saudi dan Irak, Nomor 1 Andalan Persib Bandung!</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/337/3173183/wapres-gibran-tidak-hadir-mediasi-gugatan-ijazah-ditunda</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173436/5-pemain-yang-berpotensi-dicoret-patrick-kluivert-jelang-timnas-indonesia-lawan-arab-saudi-dan-irak-nomor-1-andalan-persib-bandung</t>
         </is>
       </c>
       <c r="E26" t="b">
@@ -1118,12 +1118,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Profil Kombes Budi Hermanto, Kabid Humas Polda Metro Penangkap Crazy Rich Surabaya Wahyu Kenzo</t>
+          <t>Ayah Arya Daru: Penyampaian Penyidik Polda Metro Belum Bisa Menenangkan Kami</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Megapolitan | Senin, 29 September 2025 11:48 WIB Profil Kombes Budi Hermanto, Kabid Humas Polda Metro Penangkap Crazy Rich Surabaya Wahyu Kenzo</t>
+          <t>Megapolitan | Selasa, 30 September 2025 11:44 WIB Ayah Arya Daru: Penyampaian Penyidik Polda Metro Belum Bisa Menenangkan Kami</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/338/3173182/profil-kombes-budi-hermanto-kabid-humas-polda-metro-penangkap-crazy-rich-surabaya-wahyu-kenzo</t>
+          <t>https://news.okezone.com/read/2025/09/30/338/3173435/ayah-arya-daru-penyampaian-penyidik-polda-metro-belum-bisa-menenangkan-kami</t>
         </is>
       </c>
       <c r="E27" t="b">
@@ -1144,12 +1144,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Baru Meluncur, Seri Xiaomi 17 Dilaporkan Pecahkan Rekor Penjualan</t>
+          <t>Bantah Ada Tunggakan Subsidi BUMN 2024, Purbaya Minta Data Segera Dibereskan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Techno | Senin, 29 September 2025 11:43 WIB Baru Meluncur, Seri Xiaomi 17 Dilaporkan Pecahkan Rekor Penjualan</t>
+          <t>Hot Issue | Selasa, 30 September 2025 11:44 WIB Bantah Ada Tunggakan Subsidi BUMN 2024, Purbaya Minta Data Segera Dibereskan</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/29/16/3173177/baru-meluncur-seri-xiaomi-17-dilaporkan-pecahkan-rekor-penjualan</t>
+          <t>https://economy.okezone.com/read/2025/09/30/320/3173434/bantah-ada-tunggakan-subsidi-bumn-2024-purbaya-minta-data-segera-dibereskan</t>
         </is>
       </c>
       <c r="E28" t="b">
@@ -1170,12 +1170,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Angka Kematian Pasien Cuci Darah Setelah 5 Tahun Tinggi, Ini Kata Dokter</t>
+          <t>NOC Indonesia Ingatkan Jangan Terpancing Isu Sanksi FIFA untuk Malaysia</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Health | Senin, 29 September 2025 11:42 WIB Angka Kematian Pasien Cuci Darah Setelah 5 Tahun Tinggi, Ini Kata Dokter</t>
+          <t>Sport Lain | Selasa, 30 September 2025 11:36 WIB NOC Indonesia Ingatkan Jangan Terpancing Isu Sanksi FIFA untuk Malaysia</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://women.okezone.com/read/2025/09/29/482/3173181/angka-kematian-pasien-cuci-darah-setelah-5-tahun-tinggi-ini-kata-dokter</t>
+          <t>https://sports.okezone.com/read/2025/09/30/43/3173433/noc-indonesia-ingatkan-jangan-terpancing-isu-sanksi-fifa-untuk-malaysia</t>
         </is>
       </c>
       <c r="E29" t="b">
@@ -1196,12 +1196,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Menanti Aksi Juara MotoGP 2025 Marc Marquez di Sirkuit Mandalika pada 3-5 Oktober 2025!</t>
+          <t>KPK kembali Panggil Ilham Akbar Habibie terkait Kasus Pengadaan Iklan BJB</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MotoGP | Senin, 29 September 2025 11:37 WIB Menanti Aksi Juara MotoGP 2025 Marc Marquez di Sirkuit Mandalika pada 3-5 Oktober 2025!</t>
+          <t>Nasional | Selasa, 30 September 2025 11:31 WIB KPK kembali Panggil Ilham Akbar Habibie terkait Kasus Pengadaan Iklan BJB</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/29/38/3173180/menanti-aksi-juara-motogp-2025-marc-marquez-di-sirkuit-mandalika-pada-3-5-oktober-2025</t>
+          <t>https://news.okezone.com/read/2025/09/30/337/3173432/kpk-kembali-panggil-ilham-akbar-habibie-terkait-kasus-pengadaan-iklan-bjb</t>
         </is>
       </c>
       <c r="E30" t="b">
@@ -1222,12 +1222,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Prabowo Sebut Penghasilan Wartawan Sedikit, yang Banyak Bosnya</t>
+          <t>Paul Pogba hingga PSSI-nya Turki Desak FIFA dan UEFA untuk Boikot Israel</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 11:34 WIB Prabowo Sebut Penghasilan Wartawan Sedikit, yang Banyak Bosnya</t>
+          <t>Sepakbola Dunia | Selasa, 30 September 2025 11:23 WIB Paul Pogba hingga PSSI-nya Turki Desak FIFA dan UEFA untuk Boikot Israel</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173179/prabowo-sebut-penghasilan-wartawan-sedikit-yang-banyak-bosnya</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173431/paul-pogba-hingga-pssi-nya-turki-desak-fifa-dan-uefa-untuk-boikot-israel</t>
         </is>
       </c>
       <c r="E31" t="b">
@@ -1248,12 +1248,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PO Bus yang Layani Rute Terjauh di Indonesia</t>
+          <t>DPRD DKI Minta Ranpergub Kawasan Tanpa Rokok Segera Disiapkan</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Autos | Senin, 29 September 2025 11:32 WIB PO Bus yang Layani Rute Terjauh di Indonesia</t>
+          <t>Megapolitan | Selasa, 30 September 2025 11:19 WIB DPRD DKI Minta Ranpergub Kawasan Tanpa Rokok Segera Disiapkan</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/29/15/3173178/po-bus-yang-layani-rute-terjauh-di-indonesia</t>
+          <t>https://news.okezone.com/read/2025/09/30/338/3173430/dprd-dki-minta-ranpergub-kawasan-tanpa-rokok-segera-disiapkan</t>
         </is>
       </c>
       <c r="E32" t="b">
@@ -1274,12 +1274,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dibocorkan Fabrizio Romano, Pelatih Top Ini Siap Gantikan Ruben Amorim di Manchester United</t>
+          <t>Indonesia Sambut Baik Proposal Perdamaian Gaza Trump, Siap Kerja Sama dengan AS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Liga Inggris | Senin, 29 September 2025 11:23 WIB Dibocorkan Fabrizio Romano, Pelatih Top Ini Siap Gantikan Ruben Amorim di Manchester United</t>
+          <t>International | Selasa, 30 September 2025 11:12 WIB Indonesia Sambut Baik Proposal Perdamaian Gaza Trump, Siap Kerja Sama dengan AS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/45/3173176/dibocorkan-fabrizio-romano-pelatih-top-ini-siap-gantikan-ruben-amorim-di-manchester-united</t>
+          <t>https://news.okezone.com/read/2025/09/30/18/3173429/indonesia-sambut-baik-proposal-perdamaian-gaza-trump-siap-kerja-sama-dengan-as</t>
         </is>
       </c>
       <c r="E33" t="b">
@@ -1300,12 +1300,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ketum Kadin Ajak Generasi Muda Jadi Motor Penggerak Ekonomi RI</t>
+          <t>Suzuki Siap Luncurkan Motor Listrik di Indonesia Tahun Depan, e-Access?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 11:21 WIB Ketum Kadin Ajak Generasi Muda Jadi Motor Penggerak Ekonomi RI</t>
+          <t>Autos | Selasa, 30 September 2025 11:10 WIB Suzuki Siap Luncurkan Motor Listrik di Indonesia Tahun Depan, e-Access?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1315,27 +1315,23 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173175/ketum-kadin-ajak-generasi-muda-jadi-motor-penggerak-ekonomi-ri-nbsp</t>
+          <t>https://ototekno.okezone.com/read/2025/09/30/15/3173428/suzuki-siap-luncurkan-motor-listrik-di-indonesia-tahun-depan-e-access</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>ekonomi</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mutasi Polri, Kapolri Tunjuk Kombes Budi Hermanto Jadi Kabid Humas Polda Metro Jaya</t>
+          <t>Polda Metro Musnahkan 1,14 Ton Narkoba Senilai Rp1 Triliun</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nasional | Senin, 29 September 2025 11:14 WIB Mutasi Polri, Kapolri Tunjuk Kombes Budi Hermanto Jadi Kabid Humas Polda Metro Jaya</t>
+          <t>Megapolitan | Selasa, 30 September 2025 11:09 WIB Polda Metro Musnahkan 1,14 Ton Narkoba Senilai Rp1 Triliun</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1345,7 +1341,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/337/3173174/mutasi-polri-nbsp-kapolri-tunjuk-kombes-budi-hermanto-jadi-kabid-humas-polda-metro-jaya</t>
+          <t>https://news.okezone.com/read/2025/09/30/338/3173427/polda-metro-musnahkan-1-14-ton-narkoba-senilai-rp1-triliun</t>
         </is>
       </c>
       <c r="E35" t="b">
@@ -1356,12 +1352,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Patrick Kluivert Coret 5 Pemain Timnas Indonesia Jelang Lawan Arab Saudi di Babak 4 Kualifikasi Piala Dunia 2026 Zona Asia</t>
+          <t>Wakasau Pimpin Inspeksi Pengadaan 6 Jet Tempur T-50i, 2 Unit Tiba di Indonesia November</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 11:08 WIB Patrick Kluivert Coret 5 Pemain Timnas Indonesia Jelang Lawan Arab Saudi di Babak 4 Kualifikasi Piala Dunia 2026 Zona Asia</t>
+          <t>Nasional | Selasa, 30 September 2025 11:06 WIB Wakasau Pimpin Inspeksi Pengadaan 6 Jet Tempur T-50i, 2 Unit Tiba di Indonesia November</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1371,7 +1367,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173173/patrick-kluivert-coret-5-pemain-timnas-indonesia-jelang-lawan-arab-saudi-di-babak-4-kualifikasi-piala-dunia-2026-zona-asia</t>
+          <t>https://news.okezone.com/read/2025/09/30/337/3173426/wakasau-pimpin-inspeksi-pengadaan-6-jet-tempur-t-50i-2-unit-tiba-di-indonesia-november</t>
         </is>
       </c>
       <c r="E36" t="b">
@@ -1382,12 +1378,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Viral Anak SD Keracunan Ikan Hiu Goreng, Dokter Merkurinya Tinggi!</t>
+          <t>Update Ranking FIFA Timnas Indonesia jika Menang atas Arab Saudi dan Irak di Kualifikasi Piala Dunia 2026: Melesat Tajam!</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Food | Senin, 29 September 2025 10:59 WIB Viral Anak SD Keracunan Ikan Hiu Goreng, Dokter Merkurinya Tinggi!</t>
+          <t>Sepakbola Dunia | Selasa, 30 September 2025 11:04 WIB Update Ranking FIFA Timnas Indonesia jika Menang atas Arab Saudi dan Irak di Kualifikasi Piala Dunia 2026: Melesat Tajam!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1397,7 +1393,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://women.okezone.com/read/2025/09/29/298/3173171/viral-anak-sd-keracunan-ikan-hiu-goreng-dokter-merkurinya-tinggi</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173425/update-ranking-fifa-timnas-indonesia-jika-menang-atas-arab-saudi-dan-irak-di-kualifikasi-piala-dunia-2026-melesat-tajam</t>
         </is>
       </c>
       <c r="E37" t="b">
@@ -1408,12 +1404,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5 Waktu yang Diharamkan untuk Sholat</t>
+          <t>10 Perkara yang Membatalkan Sholat</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tausyiah | Senin, 29 September 2025 10:55 WIB 5 Waktu yang Diharamkan untuk Sholat</t>
+          <t>Serba-serbi | Selasa, 30 September 2025 10:55 WIB 10 Perkara yang Membatalkan Sholat</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1423,7 +1419,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://muslim.okezone.com/read/2025/09/29/330/3173170/5-waktu-yang-diharamkan-untuk-sholat</t>
+          <t>https://muslim.okezone.com/read/2025/09/30/614/3173424/10-perkara-yang-membatalkan-sholat</t>
         </is>
       </c>
       <c r="E38" t="b">
@@ -1434,12 +1430,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kisah Pebulu Tangkis Kunlavut Vitidsarn, Dipromosikan Jadi Polisi Usai Raih Medali Olimpiade Paris 2024</t>
+          <t>Komedian Bedu Hadiri Sidang Cerai Perdana dengan Irma di PA Jaksel Hari Ini</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Netting | Senin, 29 September 2025 10:47 WIB Kisah Pebulu Tangkis Kunlavut Vitidsarn, Dipromosikan Jadi Polisi Usai Raih Medali Olimpiade Paris 2024</t>
+          <t>Hot Gossip | Selasa, 30 September 2025 10:51 WIB Komedian Bedu Hadiri Sidang Cerai Perdana dengan Irma di PA Jaksel Hari Ini</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1449,7 +1445,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/29/40/3173167/kisah-pebulu-tangkis-kunlavut-vitidsarn-dipromosikan-jadi-polisi-usai-raih-medali-olimpiade-paris-2024</t>
+          <t>https://celebrity.okezone.com/read/2025/09/30/33/3173423/komedian-bedu-hadiri-sidang-cerai-perdana-dengan-irma-di-pa-jaksel-hari-ini</t>
         </is>
       </c>
       <c r="E39" t="b">
@@ -1460,12 +1456,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Gerbang Tol Pejompongan Masih Ditutup, Lalu Lintas di Jalan Gatot Subroto Arah Semanggi Lancar</t>
+          <t>Prediksi Kairat Almaty vs Real Madrid di Liga Champions 2025-2026: Si Anak Bawang Jadi Korban Pelampiasan?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Megapolitan | Senin, 29 September 2025 10:46 WIB Gerbang Tol Pejompongan Masih Ditutup, Lalu Lintas di Jalan Gatot Subroto Arah Semanggi Lancar</t>
+          <t>Liga Champion | Selasa, 30 September 2025 10:51 WIB Prediksi Kairat Almaty vs Real Madrid di Liga Champions 2025-2026: Si Anak Bawang Jadi Korban Pelampiasan?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1475,7 +1471,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/338/3173168/gerbang-tol-pejompongan-masih-ditutup-lalu-lintas-di-jalan-gatot-subroto-arah-semanggi-lancar</t>
+          <t>https://bola.okezone.com/read/2025/09/30/261/3173422/prediksi-kairat-almaty-vs-real-madrid-di-liga-champions-2025-2026-si-anak-bawang-jadi-korban-pelampiasan</t>
         </is>
       </c>
       <c r="E40" t="b">
@@ -1486,12 +1482,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Penyebab Zinedine Zidane Tolak Latih Manchester United Gantikan Ruben Amorim</t>
+          <t>Valentino Rossi dan Marc Marquez Kompak Barengan Ada di Jakarta Jelang MotoGP Mandalika 2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Liga Inggris | Senin, 29 September 2025 10:41 WIB Penyebab Zinedine Zidane Tolak Latih Manchester United Gantikan Ruben Amorim</t>
+          <t>MotoGP | Selasa, 30 September 2025 10:46 WIB Valentino Rossi dan Marc Marquez Kompak Barengan Ada di Jakarta Jelang MotoGP Mandalika 2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1501,7 +1497,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/45/3173166/penyebab-zinedine-zidane-tolak-latih-manchester-united-gantikan-ruben-amorim</t>
+          <t>https://sports.okezone.com/read/2025/09/30/38/3173420/valentino-rossi-dan-marc-marquez-kompak-barengan-ada-di-jakarta-jelang-motogp-mandalika-2025</t>
         </is>
       </c>
       <c r="E41" t="b">
@@ -1512,12 +1508,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Daftar Motor Terbaik di IMOS 2025, Honda ADV hingga Harley-Davidson</t>
+          <t>Trump dan Netanyahu Sepakati Rencana Perdamaian Gaza, Ini Isinya</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Autos | Senin, 29 September 2025 10:39 WIB Daftar Motor Terbaik di IMOS 2025, Honda ADV hingga Harley-Davidson</t>
+          <t>International | Selasa, 30 September 2025 10:43 WIB Trump dan Netanyahu Sepakati Rencana Perdamaian Gaza, Ini Isinya</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1527,7 +1523,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/29/15/3173165/daftar-motor-terbaik-di-imos-2025-honda-adv-hingga-harley-davidson</t>
+          <t>https://news.okezone.com/read/2025/09/30/18/3173419/trump-dan-netanyahu-sepakati-rencana-perdamaian-gaza-ini-isinya</t>
         </is>
       </c>
       <c r="E42" t="b">
@@ -1538,12 +1534,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Penembakan Massal di Gereja Michigan Tewaskan Setidaknya Empat Orang</t>
+          <t>Butuh Obat Mujarab Kembalikan Penjualan Mobil Jadi 1 Juta Unit</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>International | Senin, 29 September 2025 10:31 WIB Penembakan Massal di Gereja Michigan Tewaskan Setidaknya Empat Orang</t>
+          <t>Autos | Selasa, 30 September 2025 10:38 WIB Butuh Obat Mujarab Kembalikan Penjualan Mobil Jadi 1 Juta Unit</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1553,7 +1549,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/18/3173164/penembakan-massal-di-gereja-michigan-tewaskan-setidaknya-empat-orang</t>
+          <t>https://ototekno.okezone.com/read/2025/09/30/15/3173417/butuh-obat-mujarab-kembalikan-penjualan-mobil-jadi-1-juta-unit</t>
         </is>
       </c>
       <c r="E43" t="b">
@@ -1564,12 +1560,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Shell Lepas Bisnis SPBU di Indonesia Mulai 2026</t>
+          <t>Jadwal Siaran Langsung Timnas Indonesia di Babak 4 Kualifikasi Piala Dunia 2026 Zona Asia, Live di RCTI!</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 10:10 WIB Shell Lepas Bisnis SPBU di Indonesia Mulai 2026</t>
+          <t>Sepakbola Dunia | Selasa, 30 September 2025 10:37 WIB Jadwal Siaran Langsung Timnas Indonesia di Babak 4 Kualifikasi Piala Dunia 2026 Zona Asia, Live di RCTI!</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1579,27 +1575,23 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173163/shell-lepas-bisnis-spbu-di-indonesia-mulai-2026</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173416/jadwal-siaran-langsung-timnas-indonesia-di-babak-4-kualifikasi-piala-dunia-2026-zona-asia-live-di-rcti</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>bisnis</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aktor Lee Dong Gun Divonis Idap Penyakit Langka, Hanya Menyerang 1 Persen Orang Korea</t>
+          <t>PLN Buka Lowongan Kerja 2025 untuk Lulusan D3-S2, Ini Cara Daftarnya</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hot Gossip | Senin, 29 September 2025 10:10 WIB Aktor Lee Dong Gun Divonis Idap Penyakit Langka, Hanya Menyerang 1 Persen Orang Korea</t>
+          <t>Smart Money | Selasa, 30 September 2025 10:34 WIB PLN Buka Lowongan Kerja 2025 untuk Lulusan D3-S2, Ini Cara Daftarnya</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1609,7 +1601,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173172/aktor-lee-dong-gun-divonis-idap-penyakit-langka-hanya-menyerang-1-persen-orang-korea</t>
+          <t>https://economy.okezone.com/read/2025/09/30/622/3173415/pln-buka-lowongan-kerja-2025-untuk-lulusan-d3-s2-ini-cara-daftarnya</t>
         </is>
       </c>
       <c r="E45" t="b">
@@ -1620,12 +1612,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ayah Bantah Nissa Sabyan Tengah Hamil Anak Pertama</t>
+          <t>Pramono: Api Cepat Membakar Rumah di Taman Sari Akibat Angin Kencang</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hot Gossip | Senin, 29 September 2025 10:10 WIB Ayah Bantah Nissa Sabyan Tengah Hamil Anak Pertama</t>
+          <t>Megapolitan | Selasa, 30 September 2025 10:32 WIB Pramono: Api Cepat Membakar Rumah di Taman Sari Akibat Angin Kencang</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1635,7 +1627,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173162/ayah-bantah-nissa-sabyan-tengah-hamil-anak-pertama</t>
+          <t>https://news.okezone.com/read/2025/09/30/338/3173414/pramono-api-cepat-membakar-rumah-di-taman-sari-akibat-angin-kencang</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -1646,12 +1638,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Trump Sangat Percaya Diri Perang Gaza Segera Berakhir</t>
+          <t>Herti Sastra Perjuangkan BPJS hingga Kesejahteraan Guru Ngaji di Deli Serdang Sumut</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>International | Senin, 29 September 2025 09:57 WIB Trump Sangat Percaya Diri Perang Gaza Segera Berakhir</t>
+          <t>Nusantara | Selasa, 30 September 2025 10:27 WIB Herti Sastra Perjuangkan BPJS hingga Kesejahteraan Guru Ngaji di Deli Serdang Sumut</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1661,7 +1653,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/18/3173160/trump-sangat-percaya-diri-perang-gaza-segera-berakhir</t>
+          <t>https://news.okezone.com/read/2025/09/30/340/3173413/herti-sastra-perjuangkan-bpjs-hingga-kesejahteraan-guru-ngaji-di-deli-serdang-sumut</t>
         </is>
       </c>
       <c r="E47" t="b">
@@ -1672,12 +1664,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intip Statistik Mentereng Jay Idzes saat Sassuolo Menang 3-1 atas Udinese di Liga Italia 2025-2026</t>
+          <t>Erick Thohir Jawab Tuduhan Intervensi FIFA hingga Bikin Malaysia Dihukum</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Liga Italia | Senin, 29 September 2025 09:47 WIB Intip Statistik Mentereng Jay Idzes saat Sassuolo Menang 3-1 atas Udinese di Liga Italia 2025-2026</t>
+          <t>Sepakbola Dunia | Selasa, 30 September 2025 10:21 WIB Erick Thohir Jawab Tuduhan Intervensi FIFA hingga Bikin Malaysia Dihukum</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1687,7 +1679,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/47/3173159/intip-statistik-mentereng-jay-idzes-saat-sassuolo-menang-3-1-atas-udinese-di-liga-italia-2025-2026</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173412/erick-thohir-jawab-tuduhan-intervensi-fifa-hingga-bikin-malaysia-dihukum</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -1698,12 +1690,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jadwal Siaran Langsung Bangkok United vs Persib Bandung di AFC Champions League 2 2025-2026: Bikin Kejutan, Maung Bandung?</t>
+          <t>Pramono Janji Dampingi Pengurusan Surat HGB-SHM Korban Kebakaran Taman Sari</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Liga Champion | Senin, 29 September 2025 09:46 WIB Jadwal Siaran Langsung Bangkok United vs Persib Bandung di AFC Champions League 2 2025-2026: Bikin Kejutan, Maung Bandung?</t>
+          <t>Megapolitan | Selasa, 30 September 2025 10:20 WIB Pramono Janji Dampingi Pengurusan Surat HGB-SHM Korban Kebakaran Taman Sari</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1713,7 +1705,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/261/3173158/jadwal-siaran-langsung-bangkok-united-vs-persib-bandung-di-afc-champions-league-2-2025-2026-bikin-kejutan-maung-bandung</t>
+          <t>https://news.okezone.com/read/2025/09/30/338/3173411/pramono-janji-dampingi-pengurusan-surat-hgb-shm-korban-kebakaran-taman-sari</t>
         </is>
       </c>
       <c r="E49" t="b">
@@ -1724,12 +1716,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Tasya Farasya Tenteng Tas Hermes Seharga Rp2,9 Miliar</t>
+          <t>KPPU Denda TikTok Rp15 Miliar Imbas Telat Lapor Akuisisi Tokopedia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fashion | Senin, 29 September 2025 09:41 WIB Tasya Farasya Tenteng Tas Hermes Seharga Rp2,9 Miliar</t>
+          <t>Hot Issue | Selasa, 30 September 2025 10:11 WIB KPPU Denda TikTok Rp15 Miliar Imbas Telat Lapor Akuisisi Tokopedia</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1739,7 +1731,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://women.okezone.com/read/2025/09/29/194/3173155/tasya-farasya-tenteng-tas-hermes-seharga-rp2-9-miliar</t>
+          <t>https://economy.okezone.com/read/2025/09/30/320/3173410/kppu-denda-tiktok-rp15-miliar-imbas-telat-lapor-akuisisi-tokopedia</t>
         </is>
       </c>
       <c r="E50" t="b">
@@ -1750,12 +1742,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Purbaya Usul ke Prabowo Tak Tambah Wamen Lagi Usai Anggito Jadi Ketua LPS</t>
+          <t>Timnas Malaysia Kalah WO 0-3 dari Vietnam dan Nepal di Kualifikasi Piala Asia 2027 Setelah Mainkan Pemain Ilegal?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 09:36 WIB Purbaya Usul ke Prabowo Tak Tambah Wamen Lagi Usai Anggito Jadi Ketua LPS</t>
+          <t>Sepakbola Dunia | Selasa, 30 September 2025 10:09 WIB Timnas Malaysia Kalah WO 0-3 dari Vietnam dan Nepal di Kualifikasi Piala Asia 2027 Setelah Mainkan Pemain Ilegal?</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1765,7 +1757,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173157/purbaya-usul-ke-prabowo-tak-tambah-wamen-lagi-usai-anggito-jadi-ketua-lps</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173409/timnas-malaysia-kalah-wo-0-3-dari-vietnam-dan-nepal-di-kualifikasi-piala-asia-2027-setelah-mainkan-pemain-ilegal</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -1776,12 +1768,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Vonis Mati Mantan Menteri Pertanian Tang Renjian karena Terima Suap Rp627 Miliar</t>
+          <t>Akses Produksi Pertanian Nagekeo Sempat Terputus, Kosmas Lawa Bagho Sigap Perbaiki Bersama Warga NTT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>International | Senin, 29 September 2025 09:32 WIB Vonis Mati Mantan Menteri Pertanian Tang Renjian karena Terima Suap Rp627 Miliar</t>
+          <t>Nusantara | Selasa, 30 September 2025 10:06 WIB Akses Produksi Pertanian Nagekeo Sempat Terputus, Kosmas Lawa Bagho Sigap Perbaiki Bersama Warga NTT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1791,7 +1783,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/18/3173156/vonis-mati-mantan-menteri-pertanian-tang-renjian-karena-terima-suap-rp627-miliar</t>
+          <t>https://news.okezone.com/read/2025/09/30/340/3173408/akses-produksi-pertanian-nagekeo-sempat-terputus-kosmas-lawa-bagho-sigap-perbaiki-bersama-warga-ntt</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -1802,12 +1794,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IHSG Dibuka Menguat ke 8.139, Saham-Saham Ini Cuan</t>
+          <t>Nunung Akui Serakah soal Makanan Sebelum Idap Kanker</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Market Update | Senin, 29 September 2025 09:21 WIB IHSG Dibuka Menguat ke 8.139, Saham-Saham Ini Cuan</t>
+          <t>Hot Gossip | Selasa, 30 September 2025 10:03 WIB Nunung Akui Serakah soal Makanan Sebelum Idap Kanker</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1817,27 +1809,23 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/278/3173154/ihsg-dibuka-menguat-ke-8-139-saham-saham-ini-cuan</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173359/nunung-akui-serakah-soal-makanan-sebelum-idap-kanker</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>saham</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Penyebab Kapten Timnas Indonesia Jay Idzes Tolak Ajakan Nemanja Matic untuk Selebrasi Gol di Laga Sassuolo vs Udinese</t>
+          <t>Hadir di Tengah Pertemuan Baim Wong dan Paula Verhoeven, Kimberly Ryder Bongkar Fakta Ini</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Liga Italia | Senin, 29 September 2025 09:13 WIB Penyebab Kapten Timnas Indonesia Jay Idzes Tolak Ajakan Nemanja Matic untuk Selebrasi Gol di Laga Sassuolo vs Udinese</t>
+          <t>Hot Gossip | Selasa, 30 September 2025 10:02 WIB Hadir di Tengah Pertemuan Baim Wong dan Paula Verhoeven, Kimberly Ryder Bongkar Fakta Ini</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1847,7 +1835,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/47/3173153/penyebab-kapten-timnas-indonesia-jay-idzes-tolak-ajakan-nemanja-matic-untuk-selebrasi-gol-di-laga-sassuolo-vs-udinese</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173356/hadir-di-tengah-pertemuan-baim-wong-dan-paula-verhoeven-kimberly-ryder-bongkar-fakta-ini</t>
         </is>
       </c>
       <c r="E54" t="b">
@@ -1858,12 +1846,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Shell Buka Suara soal Isu PHK Massal Imbas Kebijakan Impor BBM</t>
+          <t>8 Santri Tertimbun Puing Mushola Ponpes di Sidoarjo Berhasil Dievakuasi</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 09:10 WIB Shell Buka Suara soal Isu PHK Massal Imbas Kebijakan Impor BBM</t>
+          <t>Nusantara | Selasa, 30 September 2025 10:00 WIB 8 Santri Tertimbun Puing Mushola Ponpes di Sidoarjo Berhasil Dievakuasi</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1873,7 +1861,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173152/shell-buka-suara-soal-isu-phk-massal-imbas-kebijakan-impor-bbm</t>
+          <t>https://news.okezone.com/read/2025/09/30/340/3173406/8-santri-tertimbun-puing-mushola-ponpes-di-sidoarjo-berhasil-dievakuasi</t>
         </is>
       </c>
       <c r="E55" t="b">
@@ -1884,12 +1872,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kebakaran Hebat di Taman Sari akibat Kipas Angin</t>
+          <t>Sabrina Hapus Nama Deddy Corbuzier di Medsos, Ada Apa?</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Megapolitan | Senin, 29 September 2025 09:04 WIB Kebakaran Hebat di Taman Sari akibat Kipas Angin</t>
+          <t>Life | Selasa, 30 September 2025 09:53 WIB Sabrina Hapus Nama Deddy Corbuzier di Medsos, Ada Apa?</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1899,7 +1887,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/338/3173151/kebakaran-hebat-di-taman-sari-akibat-kipas-angin</t>
+          <t>https://women.okezone.com/read/2025/09/30/612/3173407/sabrina-hapus-nama-deddy-corbuzier-di-medsos-ada-apa</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -1910,12 +1898,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCA Mobile Berangsur Normal Usai Error, Ini Instruksi BCA ke Nasabah</t>
+          <t>Purbaya Siap Buka-bukaan Subsidi BBM hingga Listrik di DPR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 08:58 WIB BCA Mobile Berangsur Normal Usai Error, Ini Instruksi BCA ke Nasabah</t>
+          <t>Hot Issue | Selasa, 30 September 2025 09:52 WIB Purbaya Siap Buka-bukaan Subsidi BBM hingga Listrik di DPR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1925,7 +1913,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173150/bca-mobile-berangsur-normal-usai-error-ini-instruksi-bca-ke-nasabah</t>
+          <t>https://economy.okezone.com/read/2025/09/30/320/3173405/purbaya-siap-buka-bukaan-subsidi-bbm-hingga-listrik-di-dpr</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -1936,12 +1924,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Media Belanda Sebut Bintang Timnas Indonesia Mees Hilgers Cocok Bela Ajax Amsterdam, Ini Alasannya!</t>
+          <t>5 Atlet Bulu Tangkis Dunia yang Suka Kuliner Khas Indonesia, Nomor 1 Doyan Bakso!</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 08:54 WIB Media Belanda Sebut Bintang Timnas Indonesia Mees Hilgers Cocok Bela Ajax Amsterdam, Ini Alasannya!</t>
+          <t>Netting | Selasa, 30 September 2025 09:44 WIB 5 Atlet Bulu Tangkis Dunia yang Suka Kuliner Khas Indonesia, Nomor 1 Doyan Bakso!</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1951,7 +1939,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173149/media-belanda-sebut-bintang-timnas-indonesia-mees-hilgers-cocok-bela-ajax-amsterdam-ini-alasannya</t>
+          <t>https://sports.okezone.com/read/2025/09/30/40/3173404/5-atlet-bulu-tangkis-dunia-yang-suka-kuliner-khas-indonesia-nomor-1-doyan-bakso</t>
         </is>
       </c>
       <c r="E58" t="b">
@@ -1962,12 +1950,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>50 Kapal Aktivis Flotilla yang Akan Menembus Blokade Israel Mulai Dekati Jalur Gaza</t>
+          <t>IHSG Dibuka Menguat ke 8.150, Dekati Rekor Tertinggi</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>International | Senin, 29 September 2025 08:50 WIB 50 Kapal Aktivis Flotilla yang Akan Menembus Blokade Israel Mulai Dekati Jalur Gaza</t>
+          <t>Market Update | Selasa, 30 September 2025 09:40 WIB IHSG Dibuka Menguat ke 8.150, Dekati Rekor Tertinggi</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1977,7 +1965,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/18/3173147/50-kapal-aktivis-flotilla-yang-akan-menembus-blokade-israel-mulai-dekati-jalur-gaza-nbsp</t>
+          <t>https://economy.okezone.com/read/2025/09/30/278/3173402/ihsg-dibuka-menguat-ke-nbsp-8-150-dekati-rekor-tertinggi-nbsp</t>
         </is>
       </c>
       <c r="E59" t="b">
@@ -1988,12 +1976,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Pesan Haru Alex Marquez untuk Marc Marquez: Juara MotoGP 2025 Setelah Apa yang Dilalui 5 Tahun Terakhir!</t>
+          <t>Waspada! Obesitas Tingkatkan Risiko Penyakit Jantung</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MotoGP | Senin, 29 September 2025 08:48 WIB Pesan Haru Alex Marquez untuk Marc Marquez: Juara MotoGP 2025 Setelah Apa yang Dilalui 5 Tahun Terakhir!</t>
+          <t>Health | Selasa, 30 September 2025 09:37 WIB Waspada! Obesitas Tingkatkan Risiko Penyakit Jantung</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2003,7 +1991,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/29/38/3173146/pesan-haru-alex-marquez-untuk-marc-marquez-juara-motogp-2025-setelah-apa-yang-dilalui-5-tahun-terakhir</t>
+          <t>https://women.okezone.com/read/2025/09/30/482/3173401/waspada-obesitas-tingkatkan-risiko-penyakit-jantung</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -2014,12 +2002,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Harga Emas Antam Terbaru Hari Ini, Kembali Cetak Rekor Tertinggi Jadi Rp2.198.000 per Gram</t>
+          <t>Pramono Tinjau Lokasi Kebakaran di Taman Sari, Warga Butuh Popok dan Urus Surat Berharga</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 08:46 WIB Harga Emas Antam Terbaru Hari Ini, Kembali Cetak Rekor Tertinggi Jadi Rp2.198.000 per Gram</t>
+          <t>Megapolitan | Selasa, 30 September 2025 09:32 WIB Pramono Tinjau Lokasi Kebakaran di Taman Sari, Warga Butuh Popok dan Urus Surat Berharga</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2029,7 +2017,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173145/harga-emas-antam-terbaru-hari-ini-kembali-cetak-rekor-tertinggi-jadi-rp2-198-000-per-gram</t>
+          <t>https://news.okezone.com/read/2025/09/30/338/3173400/pramono-tinjau-lokasi-kebakaran-di-taman-sari-warga-butuh-popok-dan-urus-surat-berharga</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -2040,12 +2028,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BGN: Korban Keracunan MBG Tanggung Jawab Pemerintah, Tak Perlu Bayar Rumah Sakit</t>
+          <t>4 Negara yang Pernah Terseret Skandal Naturalisasi, Nomor 1 Tetangga Indonesia!</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 08:34 WIB BGN: Korban Keracunan MBG Tanggung Jawab Pemerintah, Tak Perlu Bayar Rumah Sakit</t>
+          <t>Sepakbola Dunia | Selasa, 30 September 2025 09:22 WIB 4 Negara yang Pernah Terseret Skandal Naturalisasi, Nomor 1 Tetangga Indonesia!</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2055,7 +2043,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173144/bgn-korban-keracunan-mbg-tanggung-jawab-pemerintah-tak-perlu-bayar-rumah-sakit</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173398/4-negara-yang-pernah-terseret-skandal-naturalisasi-nomor-1-tetangga-indonesia</t>
         </is>
       </c>
       <c r="E62" t="b">
@@ -2066,12 +2054,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Kekejaman Israel Terhadap Anak-Anak dan Perempuan di Gaza Terukir Selama Berabad-abad</t>
+          <t>Pelaku Pembakaran Kantor Polisi di Kediri Ditangkap!</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>International | Senin, 29 September 2025 08:23 WIB Kekejaman Israel Terhadap Anak-Anak dan Perempuan di Gaza Terukir Selama Berabad-abad</t>
+          <t>Nusantara | Selasa, 30 September 2025 09:16 WIB Pelaku Pembakaran Kantor Polisi di Kediri Ditangkap!</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2081,7 +2069,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/18/3173142/kekejaman-israel-terhadap-anak-anak-dan-perempuan-di-gaza-terukir-selama-berabad-abad</t>
+          <t>https://news.okezone.com/read/2025/09/30/340/3173397/pelaku-pembakaran-kantor-polisi-di-kediri-ditangkap</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -2092,12 +2080,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Penerima BSU September 2025 untuk Guru Cair Rp600.000, Kalau Pekerja?</t>
+          <t>Kenapa Ikan Hiu Mengandung Merkuri yang Tinggi?</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Smart Money | Senin, 29 September 2025 08:19 WIB Penerima BSU September 2025 untuk Guru Cair Rp600.000, Kalau Pekerja?</t>
+          <t>Food | Selasa, 30 September 2025 09:10 WIB Kenapa Ikan Hiu Mengandung Merkuri yang Tinggi?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2107,7 +2095,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/622/3173141/penerima-bsu-september-2025-untuk-guru-cair-rp600-000-kalau-pekerja</t>
+          <t>https://women.okezone.com/read/2025/09/29/298/3173305/kenapa-ikan-hiu-mengandung-merkuri-yang-tinggi</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -2118,12 +2106,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nunung Ungkap Hikmah usai Divonis Idap Kanker Payudara</t>
+          <t>Billy Syahputra dan Vika Kolesnaya Dikaruniai Anak Pertama Setelah Menikah</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hot Gossip | Senin, 29 September 2025 08:10 WIB Nunung Ungkap Hikmah usai Divonis Idap Kanker Payudara</t>
+          <t>Hot Gossip | Selasa, 30 September 2025 09:01 WIB Billy Syahputra dan Vika Kolesnaya Dikaruniai Anak Pertama Setelah Menikah</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2133,7 +2121,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173148/nunung-ungkap-hikmah-usai-divonis-idap-kanker-payudara-nbsp</t>
+          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173354/billy-syahputra-dan-vika-kolesnaya-dikaruniai-anak-pertama-setelah-menikah-nbsp</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -2144,12 +2132,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Alasan Makanan Pabrikan Dilarang di MBG</t>
+          <t>5 Fakta Mushola Roboh di Ponpes Sidoarjo, 1 Orang Tewas dan 79 Terluka</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 08:02 WIB Alasan Makanan Pabrikan Dilarang di MBG</t>
+          <t>Nasional | Selasa, 30 September 2025 08:59 WIB 5 Fakta Mushola Roboh di Ponpes Sidoarjo, 1 Orang Tewas dan 79 Terluka</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2159,7 +2147,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/28/320/3173004/alasan-makanan-pabrikan-dilarang-di-mbg</t>
+          <t>https://news.okezone.com/read/2025/09/30/337/3173395/5-fakta-mushola-roboh-di-ponpes-sidoarjo-1-orang-tewas-dan-79-terluka</t>
         </is>
       </c>
       <c r="E66" t="b">
@@ -2170,12 +2158,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCA Mobile dan MyBCA Error Hari Ini, BCA Minta Maaf</t>
+          <t>Harga Emas Antam Hari Ini Cetak Rekor Lagi, Tembus Rp2,2 Juta per Gram!</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 07:58 WIB BCA Mobile dan MyBCA Error Hari Ini, BCA Minta Maaf</t>
+          <t>Hot Issue | Selasa, 30 September 2025 08:57 WIB Harga Emas Antam Hari Ini Cetak Rekor Lagi, Tembus Rp2,2 Juta per Gram!</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2185,7 +2173,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173140/bca-mobile-dan-mybca-error-hari-ini-bca-minta-maaf</t>
+          <t>https://economy.okezone.com/read/2025/09/30/320/3173394/harga-emas-antam-hari-ini-cetak-rekor-lagi-tembus-rp2-2-juta-per-gram</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -2196,12 +2184,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jadwal Siaran Langsung Timnas Indonesia di Babak Keempat Kualifikasi Piala Dunia 2026 Zona Asia, Live di RCTI!</t>
+          <t>Baru Jadi Juara Dunia MotoGP 2025, Marc Marquez Langsung Ditantang Taklukkan Sirkuit Mandalika!</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 07:58 WIB Jadwal Siaran Langsung Timnas Indonesia di Babak Keempat Kualifikasi Piala Dunia 2026 Zona Asia, Live di RCTI!</t>
+          <t>MotoGP | Selasa, 30 September 2025 08:50 WIB Baru Jadi Juara Dunia MotoGP 2025, Marc Marquez Langsung Ditantang Taklukkan Sirkuit Mandalika!</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2211,7 +2199,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173139/jadwal-siaran-langsung-timnas-indonesia-di-babak-keempat-kualifikasi-piala-dunia-2026-zona-asia-live-di-rcti</t>
+          <t>https://sports.okezone.com/read/2025/09/30/38/3173393/baru-jadi-juara-dunia-motogp-2025-marc-marquez-langsung-ditantang-taklukkan-sirkuit-mandalika</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -2222,12 +2210,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Cek Bansos PKH dan BPNT September 2025, dari Jadwal hingga Besarannya</t>
+          <t>Sinopsis Series Vision+ Cinta di Balik Awan Episode 2, Hanya di RCTI</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Smart Money | Senin, 29 September 2025 07:46 WIB Cek Bansos PKH dan BPNT September 2025, dari Jadwal hingga Besarannya</t>
+          <t>TV Scoop | Selasa, 30 September 2025 08:30 WIB Sinopsis Series Vision+ Cinta di Balik Awan Episode 2, Hanya di RCTI</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2237,7 +2225,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/622/3173138/cek-bansos-pkh-dan-bpnt-september-2025-dari-jadwal-hingga-besarannya</t>
+          <t>https://celebrity.okezone.com/read/2025/09/30/598/3173399/sinopsis-series-vision-cinta-di-balik-awan-episode-2-hanya-di-rcti</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -2248,12 +2236,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Dihukum FIFA, FAM Ngaku Ada Kesalahan Teknis saat Kirim Berkas 7 Pemain Naturalisasi Timnas Malaysia</t>
+          <t>Raperda Kawasan Tanpa Rokok Dikebut DPRD, Ini Kata Orang Dekat Pramono</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 07:45 WIB Dihukum FIFA, FAM Ngaku Ada Kesalahan Teknis saat Kirim Berkas 7 Pemain Naturalisasi Timnas Malaysia</t>
+          <t>Megapolitan | Selasa, 30 September 2025 08:10 WIB Raperda Kawasan Tanpa Rokok Dikebut DPRD, Ini Kata Orang Dekat Pramono</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2263,7 +2251,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173137/dihukum-fifa-fam-ngaku-ada-kesalahan-teknis-saat-kirim-berkas-7-pemain-naturalisasi-timnas-malaysia</t>
+          <t>https://news.okezone.com/read/2025/09/30/338/3173392/raperda-kawasan-tanpa-rokok-dikebut-dprd-ini-kata-orang-dekat-pramono</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -2274,12 +2262,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Pasokan Gas untuk PLTMG Bangkanai Diperkuat, Topang Kelistrikan Kalimantan</t>
+          <t>Potret Ruben Onsu Cium Hajar Aswad</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hot Issue | Senin, 29 September 2025 07:41 WIB Pasokan Gas untuk PLTMG Bangkanai Diperkuat, Topang Kelistrikan Kalimantan</t>
+          <t>Life | Selasa, 30 September 2025 08:10 WIB Potret Ruben Onsu Cium Hajar Aswad</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2289,7 +2277,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/29/320/3173136/pasokan-gas-untuk-pltmg-bangkanai-diperkuat-topang-kelistrikan-kalimantan</t>
+          <t>https://women.okezone.com/read/2025/09/29/612/3173301/potret-ruben-onsu-cium-hajar-aswad</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -2300,12 +2288,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Update Kebakaran Taman Sari: 6 Korban Luka Ringan dan 225 Jiwa Mengungsi</t>
+          <t>PSSI: Gerald Vanenburg Tetap Pelatih Timnas Indonesia U-23, Indra Sjafri Hanya untuk SEA Games 2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Megapolitan | Senin, 29 September 2025 07:33 WIB Update Kebakaran Taman Sari: 6 Korban Luka Ringan dan 225 Jiwa Mengungsi</t>
+          <t>Sepakbola Dunia | Selasa, 30 September 2025 08:06 WIB PSSI: Gerald Vanenburg Tetap Pelatih Timnas Indonesia U-23, Indra Sjafri Hanya untuk SEA Games 2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2315,7 +2303,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/29/338/3173135/update-kebakaran-taman-sari-6-korban-luka-ringan-dan-225-jiwa-mengungsi</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173391/pssi-gerald-vanenburg-tetap-pelatih-timnas-indonesia-u-23-indra-sjafri-hanya-untuk-sea-games-2025</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -2326,12 +2314,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pemain Timnas Indonesia Calvin Verdonk Tabrak Juara Piala Dunia 2022 di Laga LOSC Lille vs Lyon, Berujung Adu Kepala dengan Malick Fofana!</t>
+          <t>Zulhas Sebut Tak Perlu Semua Masalah Dibawa ke Prabowo</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Senin, 29 September 2025 07:18 WIB Pemain Timnas Indonesia Calvin Verdonk Tabrak Juara Piala Dunia 2022 di Laga LOSC Lille vs Lyon, Berujung Adu Kepala dengan Malick Fofana!</t>
+          <t>Hot Issue | Selasa, 30 September 2025 08:02 WIB Zulhas Sebut Tak Perlu Semua Masalah Dibawa ke Prabowo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2341,7 +2329,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/29/51/3173134/pemain-timnas-indonesia-calvin-verdonk-tabrak-juara-piala-dunia-2022-di-laga-losc-lille-vs-lyon-berujung-adu-kepala-dengan-malick-fofana</t>
+          <t>https://economy.okezone.com/read/2025/09/30/320/3173390/zulhas-sebut-tak-perlu-semua-masalah-dibawa-ke-prabowo</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -2352,12 +2340,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bedu Bongkar Alasan Ceraikan Istri, Bantah karena Masalah Ekonomi</t>
+          <t>3 Pembalap MotoGP yang Pernah Menang di Sirkuit Mandalika, Nomor 1 Namanya Terukir dalam Sejarah!</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hot Gossip | Senin, 29 September 2025 07:12 WIB Bedu Bongkar Alasan Ceraikan Istri, Bantah karena Masalah Ekonomi</t>
+          <t>MotoGP | Selasa, 30 September 2025 07:55 WIB 3 Pembalap MotoGP yang Pernah Menang di Sirkuit Mandalika, Nomor 1 Namanya Terukir dalam Sejarah!</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2367,27 +2355,23 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173133/bedu-bongkar-alasan-ceraikan-istri-bantah-karena-masalah-ekonomi</t>
+          <t>https://sports.okezone.com/read/2025/09/30/38/3173389/3-pembalap-motogp-yang-pernah-menang-di-sirkuit-mandalika-nomor-1-namanya-terukir-dalam-sejarah</t>
         </is>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>ekonomi</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Duo Maia Batal Tampil di Synchronize 2025, Pinkan Mambo Siap Naik Panggung</t>
+          <t>Patrick Kluivert Panggil Cyrus Margono untuk Laga Timnas Indonesia vs Arab Saudi dan Irak karena Emil Audero Cedera?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hot Gossip | Senin, 29 September 2025 07:10 WIB Duo Maia Batal Tampil di Synchronize 2025, Pinkan Mambo Siap Naik Panggung</t>
+          <t>Sepakbola Dunia | Selasa, 30 September 2025 07:38 WIB Patrick Kluivert Panggil Cyrus Margono untuk Laga Timnas Indonesia vs Arab Saudi dan Irak karena Emil Audero Cedera?</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2397,7 +2381,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173143/duo-maia-batal-tampil-di-synchronize-2025-pinkan-mambo-siap-naik-panggung</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173388/patrick-kluivert-panggil-cyrus-margono-untuk-laga-timnas-indonesia-vs-arab-saudi-dan-irak-karena-emil-audero-cedera</t>
         </is>
       </c>
       <c r="E75" t="b">

--- a/daftar_berita/okezone.xlsx
+++ b/daftar_berita/okezone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Menkomdigi Resmikan 1.194 Titik Kampung Internet, Wagub Sumut: Selaras dengan PHTC</t>
+          <t>Kisah Nozomi Okuhara, Pebulu Tangkis Cantik Jepang yang Nekat Ganti Baju di Lapangan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nusantara | Selasa, 30 September 2025 13:47 WIB Menkomdigi Resmikan 1.194 Titik Kampung Internet, Wagub Sumut: Selaras dengan PHTC</t>
+          <t>Netting | Rabu, 01 Oktober 2025 08:44 WIB Kisah Nozomi Okuhara, Pebulu Tangkis Cantik Jepang yang Nekat Ganti Baju di Lapangan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/340/3173459/menkomdigi-resmikan-1-194-titik-kampung-internet-wagub-sumut-selaras-dengan-phtc</t>
+          <t>https://sports.okezone.com/read/2025/10/01/40/3173650/kisah-nozomi-okuhara-pebulu-tangkis-cantik-jepang-yang-nekat-ganti-baju-di-lapangan</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -494,12 +494,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bright hingga Siti Nurhaliza Bakal Meriahkan Indonesian Television Awards 2025</t>
+          <t>Cetak Rekor! Harga Emas Antam Naik Lagi Jadi Rp2.237.000 per Gram, Buyback Rp2.084.000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TV Scoop | Selasa, 30 September 2025 13:30 WIB Bright hingga Siti Nurhaliza Bakal Meriahkan Indonesian Television Awards 2025</t>
+          <t>Hot Issue | Rabu, 01 Oktober 2025 08:43 WIB Cetak Rekor! Harga Emas Antam Naik Lagi Jadi Rp2.237.000 per Gram, Buyback Rp2.084.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/30/598/3173403/bright-hingga-siti-nurhaliza-bakal-meriahkan-indonesian-television-awards-2025</t>
+          <t>https://economy.okezone.com/read/2025/10/01/320/3173649/cetak-rekor-harga-emas-antam-naik-lagi-jadi-rp2-237-000-per-gram-buyback-rp2-084-000</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -520,12 +520,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Orange Bond Oversubscribed, PNM Raih Dana Rp16 Triliun</t>
+          <t>20 Siswa SDN Pasar Rebo Keracunan MBG, Pramono: Saya Baru Mendengar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hot Issue | Selasa, 30 September 2025 13:27 WIB Orange Bond Oversubscribed, PNM Raih Dana Rp16 Triliun</t>
+          <t>Megapolitan | Rabu, 01 Oktober 2025 08:32 WIB 20 Siswa SDN Pasar Rebo Keracunan MBG, Pramono: Saya Baru Mendengar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/30/320/3173458/orange-bond-oversubscribed-pnm-raih-dana-rp16-triliun</t>
+          <t>https://news.okezone.com/read/2025/10/01/338/3173648/20-siswa-sdn-pasar-rebo-keracunan-mbg-pramono-saya-baru-mendengar</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -546,12 +546,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Purbaya Alokasikan Rp479 Triliun untuk Subsidi Energi dan Kompensasi 2025</t>
+          <t>Istri Billy Syahputra Melahirkan Anak Pertama, Mak Vera: Ganteng kayak Bule</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hot Issue | Selasa, 30 September 2025 13:10 WIB Purbaya Alokasikan Rp479 Triliun untuk Subsidi Energi dan Kompensasi 2025</t>
+          <t>Hot Gossip | Rabu, 01 Oktober 2025 08:30 WIB Istri Billy Syahputra Melahirkan Anak Pertama, Mak Vera: Ganteng kayak Bule</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/30/320/3173457/purbaya-alokasikan-rp479-triliun-untuk-subsidi-energi-dan-kompensasi-2025</t>
+          <t>https://celebrity.okezone.com/read/2025/10/01/33/3173645/istri-billy-syahputra-melahirkan-anak-pertama-mak-vera-ganteng-kayak-bule</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -572,12 +572,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Patrick Kluivert Bahagia, Mathew Baker Resmi Dikontrak Melbourne City hingga 2028!</t>
+          <t>Alasan Melbourne City Beri Pemain Keturunan Indonesia Mathew Baker Kontrak Profesional</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Selasa, 30 September 2025 13:03 WIB Patrick Kluivert Bahagia, Mathew Baker Resmi Dikontrak Melbourne City hingga 2028!</t>
+          <t>Sepakbola Dunia | Rabu, 01 Oktober 2025 08:20 WIB Alasan Melbourne City Beri Pemain Keturunan Indonesia Mathew Baker Kontrak Profesional</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/51/3173455/patrick-kluivert-bahagia-mathew-baker-resmi-dikontrak-melbourne-city-hingga-2028</t>
+          <t>https://bola.okezone.com/read/2025/10/01/51/3173647/alasan-melbourne-city-beri-pemain-keturunan-indonesia-mathew-baker-kontrak-profesional</t>
         </is>
       </c>
       <c r="E6" t="b">
@@ -598,12 +598,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kondisi Terkini Vika Kolesnaya Usai Melahirkan, Masih Dirawat dan Pemulihan</t>
+          <t>Prabowo Pimpin Upacara Peringatan Hari Kesaktian Pancasila 2025 di Lubang Buaya</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hot Gossip | Selasa, 30 September 2025 13:02 WIB Kondisi Terkini Vika Kolesnaya Usai Melahirkan, Masih Dirawat dan Pemulihan</t>
+          <t>Nasional | Rabu, 01 Oktober 2025 08:19 WIB Prabowo Pimpin Upacara Peringatan Hari Kesaktian Pancasila 2025 di Lubang Buaya</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/30/33/3173418/kondisi-terkini-vika-kolesnaya-usai-melahirkan-masih-dirawat-dan-pemulihan</t>
+          <t>https://news.okezone.com/read/2025/10/01/337/3173646/prabowo-pimpin-upacara-peringatan-hari-kesaktian-pancasila-2025-di-lubang-buaya</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -624,12 +624,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ini Cara dan Download Cheat Harvest Moon: Back to Nature untuk Android</t>
+          <t>Camilan Enak yang Aman untuk Jantung, Bukan Seblak dan Gorengan Ya!</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Techno | Selasa, 30 September 2025 12:52 WIB Ini Cara dan Download Cheat Harvest Moon: Back to Nature untuk Android</t>
+          <t>Health | Rabu, 01 Oktober 2025 08:11 WIB Camilan Enak yang Aman untuk Jantung, Bukan Seblak dan Gorengan Ya!</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/30/16/3173454/ini-cara-dan-download-cheat-harvest-moon-back-to-nature-untuk-android</t>
+          <t>https://women.okezone.com/read/2025/10/01/482/3173635/camilan-enak-yang-aman-untuk-jantung-bukan-seblak-dan-gorengan-ya</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -650,12 +650,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Warga NTB Dapat Diskon Tiket untuk MotoGP Mandalika 2025, 2 Kategori Termahal Sudah Ludes!</t>
+          <t>Xiaomi 15T Series Resmi Hadir di Indonesia, Bawa Fotografi Profesional dengan Kamera Leica</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MotoGP | Selasa, 30 September 2025 12:44 WIB Warga NTB Dapat Diskon Tiket untuk MotoGP Mandalika 2025, 2 Kategori Termahal Sudah Ludes!</t>
+          <t>Techno | Rabu, 01 Oktober 2025 08:05 WIB Xiaomi 15T Series Resmi Hadir di Indonesia, Bawa Fotografi Profesional dengan Kamera Leica</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/30/38/3173452/warga-ntb-dapat-diskon-tiket-untuk-motogp-mandalika-2025-2-kategori-termahal-sudah-ludes</t>
+          <t>https://ototekno.okezone.com/read/2025/10/01/16/3173629/xiaomi-15t-series-resmi-hadir-di-indonesia-bawa-fotografi-profesional-dengan-kamera-leica</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -676,12 +676,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tampil Bak Pejabat, Bedu Akui Pinjam Kemeja Sang Kakak saat Hadir di PA Jaksel</t>
+          <t>Valentino Rossi Menyesal Tak Sempat Balapan di MotoGP Mandalika</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hot Gossip | Selasa, 30 September 2025 12:41 WIB Tampil Bak Pejabat, Bedu Akui Pinjam Kemeja Sang Kakak saat Hadir di PA Jaksel</t>
+          <t>MotoGP | Rabu, 01 Oktober 2025 07:56 WIB Valentino Rossi Menyesal Tak Sempat Balapan di MotoGP Mandalika</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/30/33/3173451/tampil-bak-pejabat-bedu-akui-pinjam-kemeja-sang-kakak-saat-hadir-di-pa-jaksel</t>
+          <t>https://sports.okezone.com/read/2025/10/01/38/3173644/valentino-rossi-menyesal-tak-sempat-balapan-di-motogp-mandalika</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -702,12 +702,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Live di RCTI! Ini Jadwal Siaran Langsung Persib Bandung vs Bangkok United di AFC Champions League 2 2025-2026</t>
+          <t>Harga BBM Shell dan BP Naik Mulai 1 Oktober 2025 di Tengah Kelangkaan, Ini Rinciannya</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liga Champion | Selasa, 30 September 2025 12:34 WIB Live di RCTI! Ini Jadwal Siaran Langsung Persib Bandung vs Bangkok United di AFC Champions League 2 2025-2026</t>
+          <t>Hot Issue | Rabu, 01 Oktober 2025 07:55 WIB Harga BBM Shell dan BP Naik Mulai 1 Oktober 2025 di Tengah Kelangkaan, Ini Rinciannya</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/261/3173450/live-di-rcti-ini-jadwal-siaran-langsung-persib-bandung-vs-bangkok-united-di-afc-champions-league-2-2025-2026</t>
+          <t>https://economy.okezone.com/read/2025/10/01/320/3173643/harga-bbm-shell-dan-bp-naik-mulai-1-oktober-2025-di-tengah-kelangkaan-ini-rinciannya</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -728,12 +728,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Azizah Salsha Pilih Main Padel saat Pratama Arhan Ucap Ikrar Talak</t>
+          <t>Kesaksian Mencekam Gempa Dahsyat Filipina, Syok dan Panik Melihat Gereja Roboh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hot Gossip | Selasa, 30 September 2025 12:30 WIB Azizah Salsha Pilih Main Padel saat Pratama Arhan Ucap Ikrar Talak</t>
+          <t>International | Rabu, 01 Oktober 2025 07:45 WIB Kesaksian Mencekam Gempa Dahsyat Filipina, Syok dan Panik Melihat Gereja Roboh</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/30/33/3173396/azizah-salsha-pilih-main-padel-saat-pratama-arhan-ucap-ikrar-talak</t>
+          <t>https://news.okezone.com/read/2025/10/01/18/3173641/kesaksian-mencekam-gempa-dahsyat-filipina-syok-dan-panik-melihat-gereja-roboh</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -754,12 +754,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IHSG Sesi I Turun ke Level 8.096</t>
+          <t>Baim Wong dan Paula Verhoeven sudah Saling Move On usai Bercerai</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Market Update | Selasa, 30 September 2025 12:28 WIB IHSG Sesi I Turun ke Level 8.096</t>
+          <t>Hot Gossip | Rabu, 01 Oktober 2025 07:30 WIB Baim Wong dan Paula Verhoeven sudah Saling Move On usai Bercerai</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/30/278/3173449/ihsg-sesi-i-turun-ke-level-8-096</t>
+          <t>https://celebrity.okezone.com/read/2025/10/01/33/3173636/baim-wong-dan-paula-verhoeven-sudah-saling-move-on-usai-bercerai</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -780,12 +780,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>China Vonis Mati 11 Anggota Mafia Penguasa Pusat Penipuan Myanmar</t>
+          <t>Breaking News! Gempa Dahsyat M6,9 Guncang Filipina, Sedikitnya 19 Orang Tewas</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>International | Selasa, 30 September 2025 12:25 WIB China Vonis Mati 11 Anggota Mafia Penguasa Pusat Penipuan Myanmar</t>
+          <t>International | Rabu, 01 Oktober 2025 07:24 WIB Breaking News! Gempa Dahsyat M6,9 Guncang Filipina, Sedikitnya 19 Orang Tewas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/18/3173448/china-vonis-mati-11-anggota-mafia-penguasa-pusat-penipuan-myanmar</t>
+          <t>https://news.okezone.com/read/2025/10/01/18/3173639/breaking-news-gempa-dahsyat-m6-9-guncang-filipina-sedikitnya-19-orang-tewas</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -806,12 +806,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Besaran Insentif Mobil Diusulkan Berdasarkan TKDN</t>
+          <t>Daftar Terbaru Harga BBM Pertamina 1 Oktober, dari Pertalite, Pertamax hingga Dexlite</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Autos | Selasa, 30 September 2025 12:18 WIB Besaran Insentif Mobil Diusulkan Berdasarkan TKDN</t>
+          <t>Hot Issue | Rabu, 01 Oktober 2025 07:21 WIB Daftar Terbaru Harga BBM Pertamina 1 Oktober, dari Pertalite, Pertamax hingga Dexlite</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/30/15/3173447/besaran-insentif-mobil-diusulkan-berdasarkan-tkdn</t>
+          <t>https://economy.okezone.com/read/2025/10/01/320/3173638/daftar-terbaru-harga-bbm-pertamina-1-oktober-dari-pertalite-pertamax-hingga-dexlite</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -832,12 +832,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dahnil Anzar Sebut Kuota Haji Indonesia 2026 Capai 221 Ribu</t>
+          <t>Viral, Kunci Motor Nyangkut di Gigi Seorang Siswa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Haji &amp; Umroh | Selasa, 30 September 2025 12:14 WIB Dahnil Anzar Sebut Kuota Haji Indonesia 2026 Capai 221 Ribu</t>
+          <t>Sekolah | Rabu, 01 Oktober 2025 07:20 WIB Viral, Kunci Motor Nyangkut di Gigi Seorang Siswa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://muslim.okezone.com/read/2025/09/30/398/3173446/dahnil-anzar-sebut-kuota-haji-indonesia-2026-capai-221-ribu</t>
+          <t>https://edukasi.okezone.com/read/2025/09/30/624/3173517/viral-kunci-motor-nyangkut-di-gigi-seorang-siswa</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -858,12 +858,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5 Jurusan Kuliah yang Cocok Bekerja di Kapal Pesiar</t>
+          <t>Pratama Arhan Harap Banyak Pemain Timnas Indonesia Susul Dirinya Main di Liga Thailand</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kampus | Selasa, 30 September 2025 12:14 WIB 5 Jurusan Kuliah yang Cocok Bekerja di Kapal Pesiar</t>
+          <t>Sepakbola Dunia | Rabu, 01 Oktober 2025 07:17 WIB Pratama Arhan Harap Banyak Pemain Timnas Indonesia Susul Dirinya Main di Liga Thailand</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://edukasi.okezone.com/read/2025/09/30/65/3173445/5-jurusan-kuliah-yang-cocok-bekerja-di-kapal-pesiar</t>
+          <t>https://bola.okezone.com/read/2025/10/01/51/3173637/pratama-arhan-harap-banyak-pemain-timnas-indonesia-susul-dirinya-main-di-liga-thailand</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -884,12 +884,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gubernur Puji Damkar: 13 Jam Melawan Kobaran Api, 12 Kucing pun Ikut Selamat</t>
+          <t>Tarif Listrik PLN per kWh Oktober 2025 untuk Semua Pelanggan, Ada Diskon Lagi?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Megapolitan | Selasa, 30 September 2025 12:08 WIB Gubernur Puji Damkar: 13 Jam Melawan Kobaran Api, 12 Kucing pun Ikut Selamat</t>
+          <t>Hot Issue | Rabu, 01 Oktober 2025 07:15 WIB Tarif Listrik PLN per kWh Oktober 2025 untuk Semua Pelanggan, Ada Diskon Lagi?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/338/3173444/gubernur-puji-damkar-13-jam-melawan-kobaran-api-12-kucing-pun-ikut-selamat</t>
+          <t>https://economy.okezone.com/read/2025/09/30/320/3173553/tarif-listrik-pln-per-kwh-oktober-2025-untuk-semua-pelanggan-ada-diskon-lagi</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -910,12 +910,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cegah Aktivitas Ilegal, RI-Australia Gelar Patroli di Perairan Perbatasan</t>
+          <t>Usul Pembagian Kuota Haji ke Provinsi Didasari Daftar Tunggu, Antrean Sama 26,4 Tahun</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hot Issue | Selasa, 30 September 2025 12:07 WIB Cegah Aktivitas Ilegal, RI-Australia Gelar Patroli di Perairan Perbatasan</t>
+          <t>Nasional | Rabu, 01 Oktober 2025 07:11 WIB Usul Pembagian Kuota Haji ke Provinsi Didasari Daftar Tunggu, Antrean Sama 26,4 Tahun</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/30/320/3173443/cegah-aktivitas-ilegal-ri-australia-gelar-patroli-di-perairan-perbatasan</t>
+          <t>https://news.okezone.com/read/2025/10/01/337/3173634/usul-pembagian-kuota-haji-ke-provinsi-didasari-daftar-tunggu-antrean-sama-26-4-tahun</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -936,12 +936,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PSSI Tak Risau soal Alokasi Anggaran Pemerintah untuk Timnas Indonesia U-23 di SEA Games 2025</t>
+          <t>Berapa Uang Pensiun Sri Mulyani? Ternyata Segini Besarannya</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Selasa, 30 September 2025 12:05 WIB PSSI Tak Risau soal Alokasi Anggaran Pemerintah untuk Timnas Indonesia U-23 di SEA Games 2025</t>
+          <t>Smart Money | Rabu, 01 Oktober 2025 07:10 WIB Berapa Uang Pensiun Sri Mulyani? Ternyata Segini Besarannya</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/51/3173442/pssi-tak-risau-soal-alokasi-anggaran-pemerintah-untuk-timnas-indonesia-u-23-di-sea-games-2025</t>
+          <t>https://economy.okezone.com/read/2025/10/01/622/3173633/berapa-uang-pensiun-sri-mulyani-ternyata-segini-besarannya</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -962,12 +962,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tanggapan Keluarga Usai Tanggal Lahir Bing Slamet Jadi Hari Komedi Nasional</t>
+          <t>Firasat Minyak Wangi Tumpah dan Telefon Misterius Sebelum Malam Jahanam di Rumah Jenderal Yani</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hot Gossip | Selasa, 30 September 2025 12:01 WIB Tanggapan Keluarga Usai Tanggal Lahir Bing Slamet Jadi Hari Komedi Nasional</t>
+          <t>Nasional | Rabu, 01 Oktober 2025 07:05 WIB Firasat Minyak Wangi Tumpah dan Telefon Misterius Sebelum Malam Jahanam di Rumah Jenderal Yani</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173360/tanggapan-keluarga-usai-tanggal-lahir-bing-slamet-jadi-hari-komedi-nasional</t>
+          <t>https://news.okezone.com/read/2025/09/30/337/3173567/firasat-minyak-wangi-tumpah-dan-telefon-misterius-sebelum-malam-jahanam-di-rumah-jenderal-yani</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -988,12 +988,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Prediksi Chelsea vs Benfica di Liga Champions 2025-2026: Kembalinya Jose Mourinho ke Stamford Bridge</t>
+          <t>5 Tanda Anak Alami Trauma dan Cara Menanganinya</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liga Champion | Selasa, 30 September 2025 11:59 WIB Prediksi Chelsea vs Benfica di Liga Champions 2025-2026: Kembalinya Jose Mourinho ke Stamford Bridge</t>
+          <t>Mom And Kids | Rabu, 01 Oktober 2025 07:03 WIB 5 Tanda Anak Alami Trauma dan Cara Menanganinya</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/261/3173441/prediksi-chelsea-vs-benfica-di-liga-champions-2025-2026-kembalinya-jose-mourinho-ke-stamford-bridge</t>
+          <t>https://women.okezone.com/read/2025/10/01/629/3173632/5-tanda-anak-alami-trauma-dan-cara-menanganinya</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -1014,12 +1014,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BGN Nonaktifkan Sementara 56 SPPG Imbas Adanya Kasus Keracunan MBG</t>
+          <t>Legenda MotoGP Valentino Rossi Akui Bangga Jadi Idola Masyarakat Indonesia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nasional | Selasa, 30 September 2025 11:54 WIB BGN Nonaktifkan Sementara 56 SPPG Imbas Adanya Kasus Keracunan MBG</t>
+          <t>MotoGP | Rabu, 01 Oktober 2025 06:55 WIB Legenda MotoGP Valentino Rossi Akui Bangga Jadi Idola Masyarakat Indonesia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/337/3173440/bgn-nonaktifkan-sementara-56-sppg-imbas-adanya-kasus-keracunan-mbg</t>
+          <t>https://sports.okezone.com/read/2025/10/01/38/3173631/legenda-motogp-valentino-rossi-akui-bangga-jadi-idola-masyarakat-indonesia</t>
         </is>
       </c>
       <c r="E23" t="b">
@@ -1040,12 +1040,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Apa Saja Hadits tentang Palestina di Akhir Zaman?</t>
+          <t>Pratama Arhan Optimistis Bawa Bangkok United Menang atas Persib Bandung di AFC Champions League 2 2025-2026, Begini Katanya!</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Serba-serbi | Selasa, 30 September 2025 11:48 WIB Apa Saja Hadits tentang Palestina di Akhir Zaman?</t>
+          <t>Liga Champion | Rabu, 01 Oktober 2025 06:52 WIB Pratama Arhan Optimistis Bawa Bangkok United Menang atas Persib Bandung di AFC Champions League 2 2025-2026, Begini Katanya!</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://muslim.okezone.com/read/2025/09/30/614/3173438/apa-saja-hadits-tentang-palestina-di-akhir-zaman</t>
+          <t>https://bola.okezone.com/read/2025/10/01/261/3173628/pratama-arhan-optimistis-bawa-bangkok-united-menang-atas-persib-bandung-di-afc-champions-league-2-2025-2026-begini-katanya</t>
         </is>
       </c>
       <c r="E24" t="b">
@@ -1066,12 +1066,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5 Pemain Top Arab Saudi yang Wajib Diwaspadai Timnas Indonesia, Nomor 1  Rekan Setim Cristiano Ronaldo!</t>
+          <t>Harga BBM Pertamina Naik Mulai Hari Ini 1 Oktober 2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Selasa, 30 September 2025 11:47 WIB 5 Pemain Top Arab Saudi yang Wajib Diwaspadai Timnas Indonesia, Nomor 1  Rekan Setim Cristiano Ronaldo!</t>
+          <t>Hot Issue | Rabu, 01 Oktober 2025 06:47 WIB Harga BBM Pertamina Naik Mulai Hari Ini 1 Oktober 2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/51/3173437/5-pemain-top-arab-saudi-yang-wajib-diwaspadai-timnas-indonesia-nomor-1-rekan-setim-cristiano-ronaldo</t>
+          <t>https://economy.okezone.com/read/2025/10/01/320/3173630/harga-bbm-pertamina-naik-mulai-hari-ini-1-oktober-2025</t>
         </is>
       </c>
       <c r="E25" t="b">
@@ -1092,12 +1092,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5 Pemain yang Berpotensi Dicoret Patrick Kluivert Jelang Timnas Indonesia Lawan Arab Saudi dan Irak, Nomor 1 Andalan Persib Bandung!</t>
+          <t>Patrick Kluivert Tiba di Arab Saudi, Pamer Venue Laga Timnas Indonesia di Babak 4 Kualifikasi Piala Dunia 2026 Zona Asia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Selasa, 30 September 2025 11:46 WIB 5 Pemain yang Berpotensi Dicoret Patrick Kluivert Jelang Timnas Indonesia Lawan Arab Saudi dan Irak, Nomor 1 Andalan Persib Bandung!</t>
+          <t>Sepakbola Dunia | Rabu, 01 Oktober 2025 06:40 WIB Patrick Kluivert Tiba di Arab Saudi, Pamer Venue Laga Timnas Indonesia di Babak 4 Kualifikasi Piala Dunia 2026 Zona Asia</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/51/3173436/5-pemain-yang-berpotensi-dicoret-patrick-kluivert-jelang-timnas-indonesia-lawan-arab-saudi-dan-irak-nomor-1-andalan-persib-bandung</t>
+          <t>https://bola.okezone.com/read/2025/10/01/51/3173627/patrick-kluivert-tiba-di-arab-saudi-pamer-venue-laga-timnas-indonesia-di-babak-4-kualifikasi-piala-dunia-2026-zona-asia</t>
         </is>
       </c>
       <c r="E26" t="b">
@@ -1118,12 +1118,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ayah Arya Daru: Penyampaian Penyidik Polda Metro Belum Bisa Menenangkan Kami</t>
+          <t>Bedu Akui sudah Pisah Rumah dengan Istri, Pilih Ngungsi ke Rumah Kakak</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Megapolitan | Selasa, 30 September 2025 11:44 WIB Ayah Arya Daru: Penyampaian Penyidik Polda Metro Belum Bisa Menenangkan Kami</t>
+          <t>Hot Gossip | Rabu, 01 Oktober 2025 06:32 WIB Bedu Akui sudah Pisah Rumah dengan Istri, Pilih Ngungsi ke Rumah Kakak</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/338/3173435/ayah-arya-daru-penyampaian-penyidik-polda-metro-belum-bisa-menenangkan-kami</t>
+          <t>https://celebrity.okezone.com/read/2025/10/01/33/3173626/bedu-akui-sudah-pisah-rumah-dengan-istri-pilih-ngungsi-ke-rumah-kakak</t>
         </is>
       </c>
       <c r="E27" t="b">
@@ -1144,12 +1144,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bantah Ada Tunggakan Subsidi BUMN 2024, Purbaya Minta Data Segera Dibereskan</t>
+          <t>Joy Red Velvet Comeback Berakting setelah 3 Tahun Vakum</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hot Issue | Selasa, 30 September 2025 11:44 WIB Bantah Ada Tunggakan Subsidi BUMN 2024, Purbaya Minta Data Segera Dibereskan</t>
+          <t>Berita Film | Rabu, 01 Oktober 2025 06:30 WIB Joy Red Velvet Comeback Berakting setelah 3 Tahun Vakum</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/30/320/3173434/bantah-ada-tunggakan-subsidi-bumn-2024-purbaya-minta-data-segera-dibereskan</t>
+          <t>https://celebrity.okezone.com/read/2025/10/01/206/3173642/joy-red-velvet-comeback-berakting-setelah-3-tahun-vakum</t>
         </is>
       </c>
       <c r="E28" t="b">
@@ -1170,12 +1170,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NOC Indonesia Ingatkan Jangan Terpancing Isu Sanksi FIFA untuk Malaysia</t>
+          <t>BNPB Laporkan Sejumlah Rumah Rusak Imbas Gempa M6,5 Sumenep dan Pulau Sapudi</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sport Lain | Selasa, 30 September 2025 11:36 WIB NOC Indonesia Ingatkan Jangan Terpancing Isu Sanksi FIFA untuk Malaysia</t>
+          <t>Nusantara | Rabu, 01 Oktober 2025 06:20 WIB BNPB Laporkan Sejumlah Rumah Rusak Imbas Gempa M6,5 Sumenep dan Pulau Sapudi</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/30/43/3173433/noc-indonesia-ingatkan-jangan-terpancing-isu-sanksi-fifa-untuk-malaysia</t>
+          <t>https://news.okezone.com/read/2025/10/01/340/3173625/bnpb-laporkan-sejumlah-rumah-rusak-imbas-gempa-m6-5-sumenep-dan-pulau-sapudi</t>
         </is>
       </c>
       <c r="E29" t="b">
@@ -1196,12 +1196,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KPK kembali Panggil Ilham Akbar Habibie terkait Kasus Pengadaan Iklan BJB</t>
+          <t>Trump ke Hamas, Batas Waktu 4 Hari Merespons Proposal Gaza atau Akhir Menyedihkan</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nasional | Selasa, 30 September 2025 11:31 WIB KPK kembali Panggil Ilham Akbar Habibie terkait Kasus Pengadaan Iklan BJB</t>
+          <t>International | Rabu, 01 Oktober 2025 06:10 WIB Trump ke Hamas, Batas Waktu 4 Hari Merespons Proposal Gaza atau Akhir Menyedihkan</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/337/3173432/kpk-kembali-panggil-ilham-akbar-habibie-terkait-kasus-pengadaan-iklan-bjb</t>
+          <t>https://news.okezone.com/read/2025/10/01/18/3173624/trump-ke-hamas-batas-waktu-4-hari-merespons-proposal-gaza-atau-akhir-menyedihkan</t>
         </is>
       </c>
       <c r="E30" t="b">
@@ -1222,12 +1222,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Paul Pogba hingga PSSI-nya Turki Desak FIFA dan UEFA untuk Boikot Israel</t>
+          <t>Viral Anak SMA Kumpulkan dan Masak Tahu yang Ada di Menu MBG, Netizen: Daripada Gak Dimakan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Selasa, 30 September 2025 11:23 WIB Paul Pogba hingga PSSI-nya Turki Desak FIFA dan UEFA untuk Boikot Israel</t>
+          <t>Food | Rabu, 01 Oktober 2025 06:05 WIB Viral Anak SMA Kumpulkan dan Masak Tahu yang Ada di Menu MBG, Netizen: Daripada Gak Dimakan</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/51/3173431/paul-pogba-hingga-pssi-nya-turki-desak-fifa-dan-uefa-untuk-boikot-israel</t>
+          <t>https://women.okezone.com/read/2025/09/30/298/3173512/viral-anak-sma-kumpulkan-dan-masak-tahu-yang-ada-di-menu-mbg-netizen-daripada-gak-dimakan</t>
         </is>
       </c>
       <c r="E31" t="b">
@@ -1248,12 +1248,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DPRD DKI Minta Ranpergub Kawasan Tanpa Rokok Segera Disiapkan</t>
+          <t>Rokok Ilegal Dilarang Dijual Mulai Hari Ini!</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Megapolitan | Selasa, 30 September 2025 11:19 WIB DPRD DKI Minta Ranpergub Kawasan Tanpa Rokok Segera Disiapkan</t>
+          <t>Hot Issue | Rabu, 01 Oktober 2025 06:03 WIB Rokok Ilegal Dilarang Dijual Mulai Hari Ini!</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/338/3173430/dprd-dki-minta-ranpergub-kawasan-tanpa-rokok-segera-disiapkan</t>
+          <t>https://economy.okezone.com/read/2025/09/30/320/3173589/rokok-ilegal-dilarang-dijual-nbsp-mulai-hari-ini-nbsp</t>
         </is>
       </c>
       <c r="E32" t="b">
@@ -1274,12 +1274,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Indonesia Sambut Baik Proposal Perdamaian Gaza Trump, Siap Kerja Sama dengan AS</t>
+          <t>5 Pentolan PKI yang Tewas Secara Tragis, Nomor 1 Jasadnya Diarak Massa dan Dibakar</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>International | Selasa, 30 September 2025 11:12 WIB Indonesia Sambut Baik Proposal Perdamaian Gaza Trump, Siap Kerja Sama dengan AS</t>
+          <t>Nasional | Rabu, 01 Oktober 2025 06:01 WIB 5 Pentolan PKI yang Tewas Secara Tragis, Nomor 1 Jasadnya Diarak Massa dan Dibakar</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/18/3173429/indonesia-sambut-baik-proposal-perdamaian-gaza-trump-siap-kerja-sama-dengan-as</t>
+          <t>https://news.okezone.com/read/2025/09/30/337/3173558/5-pentolan-pki-yang-tewas-secara-tragis-nomor-1-jasadnya-diarak-massa-dan-dibakar</t>
         </is>
       </c>
       <c r="E33" t="b">
@@ -1300,12 +1300,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Suzuki Siap Luncurkan Motor Listrik di Indonesia Tahun Depan, e-Access?</t>
+          <t>Mengenal FIFPro Global Player Council, Dewan Terhormat yang Kini Diwakili Rizky Ridho dari Indonesia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Autos | Selasa, 30 September 2025 11:10 WIB Suzuki Siap Luncurkan Motor Listrik di Indonesia Tahun Depan, e-Access?</t>
+          <t>Sepakbola Dunia | Rabu, 01 Oktober 2025 05:54 WIB Mengenal FIFPro Global Player Council, Dewan Terhormat yang Kini Diwakili Rizky Ridho dari Indonesia</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/30/15/3173428/suzuki-siap-luncurkan-motor-listrik-di-indonesia-tahun-depan-e-access</t>
+          <t>https://bola.okezone.com/read/2025/10/01/51/3173622/mengenal-fifpro-global-player-council-dewan-terhormat-yang-kini-diwakili-rizky-ridho-dari-indonesia</t>
         </is>
       </c>
       <c r="E34" t="b">
@@ -1326,12 +1326,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Polda Metro Musnahkan 1,14 Ton Narkoba Senilai Rp1 Triliun</t>
+          <t>Waspada! Jabodetabek Diguyur Hujan Sedang-Lebat 1-2 Oktober 2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Megapolitan | Selasa, 30 September 2025 11:09 WIB Polda Metro Musnahkan 1,14 Ton Narkoba Senilai Rp1 Triliun</t>
+          <t>Megapolitan | Rabu, 01 Oktober 2025 05:41 WIB Waspada! Jabodetabek Diguyur Hujan Sedang-Lebat 1-2 Oktober 2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/338/3173427/polda-metro-musnahkan-1-14-ton-narkoba-senilai-rp1-triliun</t>
+          <t>https://news.okezone.com/read/2025/10/01/338/3173621/waspada-jabodetabek-diguyur-hujan-sedang-lebat-1-2-oktober-2025</t>
         </is>
       </c>
       <c r="E35" t="b">
@@ -1352,12 +1352,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Wakasau Pimpin Inspeksi Pengadaan 6 Jet Tempur T-50i, 2 Unit Tiba di Indonesia November</t>
+          <t>Presiden Prabowo Akan Pimpin Upacara Hari Kesaktian Pancasila 2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nasional | Selasa, 30 September 2025 11:06 WIB Wakasau Pimpin Inspeksi Pengadaan 6 Jet Tempur T-50i, 2 Unit Tiba di Indonesia November</t>
+          <t>Nasional | Rabu, 01 Oktober 2025 05:33 WIB Presiden Prabowo Akan Pimpin Upacara Hari Kesaktian Pancasila 2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/337/3173426/wakasau-pimpin-inspeksi-pengadaan-6-jet-tempur-t-50i-2-unit-tiba-di-indonesia-november</t>
+          <t>https://news.okezone.com/read/2025/10/01/337/3173620/presiden-prabowo-akan-pimpin-upacara-hari-kesaktian-pancasila-2025</t>
         </is>
       </c>
       <c r="E36" t="b">
@@ -1378,12 +1378,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Update Ranking FIFA Timnas Indonesia jika Menang atas Arab Saudi dan Irak di Kualifikasi Piala Dunia 2026: Melesat Tajam!</t>
+          <t>Visa Marselino Ferdinan Diurus, Dipanggil Patrick Kluivert untuk Laga Timnas Indonesia vs Arab Saudi dan Irak?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Selasa, 30 September 2025 11:04 WIB Update Ranking FIFA Timnas Indonesia jika Menang atas Arab Saudi dan Irak di Kualifikasi Piala Dunia 2026: Melesat Tajam!</t>
+          <t>Sepakbola Dunia | Rabu, 01 Oktober 2025 05:32 WIB Visa Marselino Ferdinan Diurus, Dipanggil Patrick Kluivert untuk Laga Timnas Indonesia vs Arab Saudi dan Irak?</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/51/3173425/update-ranking-fifa-timnas-indonesia-jika-menang-atas-arab-saudi-dan-irak-di-kualifikasi-piala-dunia-2026-melesat-tajam</t>
+          <t>https://bola.okezone.com/read/2025/10/01/51/3173619/visa-marselino-ferdinan-diurus-dipanggil-patrick-kluivert-untuk-laga-timnas-indonesia-vs-arab-saudi-dan-irak</t>
         </is>
       </c>
       <c r="E37" t="b">
@@ -1404,12 +1404,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10 Perkara yang Membatalkan Sholat</t>
+          <t>Uya Kuya Klaim Berhenti Jadi Breeder Kucing sejak Tahun 2015</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Serba-serbi | Selasa, 30 September 2025 10:55 WIB 10 Perkara yang Membatalkan Sholat</t>
+          <t>Hot Gossip | Rabu, 01 Oktober 2025 05:30 WIB Uya Kuya Klaim Berhenti Jadi Breeder Kucing sejak Tahun 2015</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://muslim.okezone.com/read/2025/09/30/614/3173424/10-perkara-yang-membatalkan-sholat</t>
+          <t>https://celebrity.okezone.com/read/2025/10/01/33/3173618/uya-kuya-klaim-berhenti-jadi-breeder-kucing-sejak-tahun-2015</t>
         </is>
       </c>
       <c r="E38" t="b">
@@ -1430,12 +1430,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Komedian Bedu Hadiri Sidang Cerai Perdana dengan Irma di PA Jaksel Hari Ini</t>
+          <t>Klasemen Liga Champions 2025-2026 di Matchday Kedua: Bayern Munich dan Real Madrid Berkuasa!</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hot Gossip | Selasa, 30 September 2025 10:51 WIB Komedian Bedu Hadiri Sidang Cerai Perdana dengan Irma di PA Jaksel Hari Ini</t>
+          <t>Liga Champion | Rabu, 01 Oktober 2025 05:24 WIB Klasemen Liga Champions 2025-2026 di Matchday Kedua: Bayern Munich dan Real Madrid Berkuasa!</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/30/33/3173423/komedian-bedu-hadiri-sidang-cerai-perdana-dengan-irma-di-pa-jaksel-hari-ini</t>
+          <t>https://bola.okezone.com/read/2025/10/01/261/3173617/klasemen-liga-champions-2025-2026-di-matchday-kedua-bayern-munich-dan-real-madrid-berkuasa</t>
         </is>
       </c>
       <c r="E39" t="b">
@@ -1456,12 +1456,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Prediksi Kairat Almaty vs Real Madrid di Liga Champions 2025-2026: Si Anak Bawang Jadi Korban Pelampiasan?</t>
+          <t>Kisah Mulyono, Dukun PKI Kebal Peluru dan Sakti yang Tewas Mengenaskan di Tangan Kopassus</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Liga Champion | Selasa, 30 September 2025 10:51 WIB Prediksi Kairat Almaty vs Real Madrid di Liga Champions 2025-2026: Si Anak Bawang Jadi Korban Pelampiasan?</t>
+          <t>Nasional | Rabu, 01 Oktober 2025 05:01 WIB Kisah Mulyono, Dukun PKI Kebal Peluru dan Sakti yang Tewas Mengenaskan di Tangan Kopassus</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/261/3173422/prediksi-kairat-almaty-vs-real-madrid-di-liga-champions-2025-2026-si-anak-bawang-jadi-korban-pelampiasan</t>
+          <t>https://news.okezone.com/read/2025/09/30/337/3173561/kisah-mulyono-dukun-pki-kebal-peluru-dan-sakti-yang-tewas-mengenaskan-di-tangan-kopassus</t>
         </is>
       </c>
       <c r="E40" t="b">
@@ -1482,12 +1482,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Valentino Rossi dan Marc Marquez Kompak Barengan Ada di Jakarta Jelang MotoGP Mandalika 2025</t>
+          <t>Pengamat Puji Keputusan PSSI Tunjuk Indra Sjafri Latih Timnas Indonesia U-23 di SEA Games 2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MotoGP | Selasa, 30 September 2025 10:46 WIB Valentino Rossi dan Marc Marquez Kompak Barengan Ada di Jakarta Jelang MotoGP Mandalika 2025</t>
+          <t>Sepakbola Dunia | Rabu, 01 Oktober 2025 04:56 WIB Pengamat Puji Keputusan PSSI Tunjuk Indra Sjafri Latih Timnas Indonesia U-23 di SEA Games 2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/30/38/3173420/valentino-rossi-dan-marc-marquez-kompak-barengan-ada-di-jakarta-jelang-motogp-mandalika-2025</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173487/pengamat-puji-keputusan-pssi-tunjuk-indra-sjafri-latih-timnas-indonesia-u-23-di-sea-games-2025</t>
         </is>
       </c>
       <c r="E41" t="b">
@@ -1508,12 +1508,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Trump dan Netanyahu Sepakati Rencana Perdamaian Gaza, Ini Isinya</t>
+          <t>Hasil Liga Champions 2025-2026: Liverpool Kalah dari Galatasaray, Real Madrid Pesta Gol di Markas Kairat Almaty!</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>International | Selasa, 30 September 2025 10:43 WIB Trump dan Netanyahu Sepakati Rencana Perdamaian Gaza, Ini Isinya</t>
+          <t>Liga Champion | Rabu, 01 Oktober 2025 04:43 WIB Hasil Liga Champions 2025-2026: Liverpool Kalah dari Galatasaray, Real Madrid Pesta Gol di Markas Kairat Almaty!</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/18/3173419/trump-dan-netanyahu-sepakati-rencana-perdamaian-gaza-ini-isinya</t>
+          <t>https://bola.okezone.com/read/2025/10/01/261/3173616/hasil-liga-champions-2025-2026-liverpool-kalah-dari-galatasaray-real-madrid-pesta-gol-di-markas-kairat-almaty</t>
         </is>
       </c>
       <c r="E42" t="b">
@@ -1534,12 +1534,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Butuh Obat Mujarab Kembalikan Penjualan Mobil Jadi 1 Juta Unit</t>
+          <t>Ombudsman Ungkap Realisasi MBG Tak Sesuai Kontrak: Beras Tak Premium hingga Sayuran Tak Segar</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Autos | Selasa, 30 September 2025 10:38 WIB Butuh Obat Mujarab Kembalikan Penjualan Mobil Jadi 1 Juta Unit</t>
+          <t>Nasional | Rabu, 01 Oktober 2025 04:05 WIB Ombudsman Ungkap Realisasi MBG Tak Sesuai Kontrak: Beras Tak Premium hingga Sayuran Tak Segar</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://ototekno.okezone.com/read/2025/09/30/15/3173417/butuh-obat-mujarab-kembalikan-penjualan-mobil-jadi-1-juta-unit</t>
+          <t>https://news.okezone.com/read/2025/09/30/337/3173611/ombudsman-ungkap-realisasi-mbg-tak-sesuai-kontrak-beras-tak-premium-hingga-sayuran-tak-segar</t>
         </is>
       </c>
       <c r="E43" t="b">
@@ -1560,12 +1560,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jadwal Siaran Langsung Timnas Indonesia di Babak 4 Kualifikasi Piala Dunia 2026 Zona Asia, Live di RCTI!</t>
+          <t>CdM Reda Manthovani Optimistis Indonesia Juara Umum ASEAN Para Games 2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Selasa, 30 September 2025 10:37 WIB Jadwal Siaran Langsung Timnas Indonesia di Babak 4 Kualifikasi Piala Dunia 2026 Zona Asia, Live di RCTI!</t>
+          <t>Sport Lain | Rabu, 01 Oktober 2025 04:01 WIB CdM Reda Manthovani Optimistis Indonesia Juara Umum ASEAN Para Games 2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/51/3173416/jadwal-siaran-langsung-timnas-indonesia-di-babak-4-kualifikasi-piala-dunia-2026-zona-asia-live-di-rcti</t>
+          <t>https://sports.okezone.com/read/2025/09/30/43/3173484/cdm-reda-manthovani-optimistis-indonesia-juara-umum-asean-para-games-2025</t>
         </is>
       </c>
       <c r="E44" t="b">
@@ -1586,12 +1586,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PLN Buka Lowongan Kerja 2025 untuk Lulusan D3-S2, Ini Cara Daftarnya</t>
+          <t>Alex Pastoor Pilih Realistis soal Peluang Timnas Indonesia Lolos Piala Dunia 2026</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Smart Money | Selasa, 30 September 2025 10:34 WIB PLN Buka Lowongan Kerja 2025 untuk Lulusan D3-S2, Ini Cara Daftarnya</t>
+          <t>Sepakbola Dunia | Rabu, 01 Oktober 2025 03:18 WIB Alex Pastoor Pilih Realistis soal Peluang Timnas Indonesia Lolos Piala Dunia 2026</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/30/622/3173415/pln-buka-lowongan-kerja-2025-untuk-lulusan-d3-s2-ini-cara-daftarnya</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173482/alex-pastoor-pilih-realistis-soal-peluang-timnas-indonesia-lolos-piala-dunia-2026</t>
         </is>
       </c>
       <c r="E45" t="b">
@@ -1612,12 +1612,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pramono: Api Cepat Membakar Rumah di Taman Sari Akibat Angin Kencang</t>
+          <t>Viral Foto Prabowo di Baliho Tel Aviv, Kemlu: Tak Ada Normalisasi dengan Israel</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Megapolitan | Selasa, 30 September 2025 10:32 WIB Pramono: Api Cepat Membakar Rumah di Taman Sari Akibat Angin Kencang</t>
+          <t>Nasional | Rabu, 01 Oktober 2025 03:05 WIB Viral Foto Prabowo di Baliho Tel Aviv, Kemlu: Tak Ada Normalisasi dengan Israel</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/338/3173414/pramono-api-cepat-membakar-rumah-di-taman-sari-akibat-angin-kencang</t>
+          <t>https://news.okezone.com/read/2025/09/30/337/3173606/viral-foto-prabowo-di-baliho-tel-aviv-kemlu-tak-ada-normalisasi-dengan-israel</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -1638,12 +1638,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Herti Sastra Perjuangkan BPJS hingga Kesejahteraan Guru Ngaji di Deli Serdang Sumut</t>
+          <t>Indra Sjafri Yakin Skuad Timnas Indonesia U-23 Sekarang Lebih Bagus dari SEA Games 2023</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nusantara | Selasa, 30 September 2025 10:27 WIB Herti Sastra Perjuangkan BPJS hingga Kesejahteraan Guru Ngaji di Deli Serdang Sumut</t>
+          <t>Sepakbola Dunia | Rabu, 01 Oktober 2025 02:43 WIB Indra Sjafri Yakin Skuad Timnas Indonesia U-23 Sekarang Lebih Bagus dari SEA Games 2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/340/3173413/herti-sastra-perjuangkan-bpjs-hingga-kesejahteraan-guru-ngaji-di-deli-serdang-sumut</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173477/indra-sjafri-yakin-skuad-timnas-indonesia-u-23-sekarang-lebih-bagus-dari-sea-games-2023</t>
         </is>
       </c>
       <c r="E47" t="b">
@@ -1664,12 +1664,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Erick Thohir Jawab Tuduhan Intervensi FIFA hingga Bikin Malaysia Dihukum</t>
+          <t>Francesco Bagnaia Bertekad Kalahkan Marc Marquez di Sisa Balapan MotoGP 2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Selasa, 30 September 2025 10:21 WIB Erick Thohir Jawab Tuduhan Intervensi FIFA hingga Bikin Malaysia Dihukum</t>
+          <t>MotoGP | Rabu, 01 Oktober 2025 02:01 WIB Francesco Bagnaia Bertekad Kalahkan Marc Marquez di Sisa Balapan MotoGP 2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/51/3173412/erick-thohir-jawab-tuduhan-intervensi-fifa-hingga-bikin-malaysia-dihukum</t>
+          <t>https://sports.okezone.com/read/2025/09/30/38/3173476/francesco-bagnaia-bertekad-kalahkan-marc-marquez-di-sisa-balapan-motogp-2025</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -1690,12 +1690,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pramono Janji Dampingi Pengurusan Surat HGB-SHM Korban Kebakaran Taman Sari</t>
+          <t>Polri Terbitkan Perkap Atur Tindakan Personel saat Hadapi Ancaman Penyerangan</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Megapolitan | Selasa, 30 September 2025 10:20 WIB Pramono Janji Dampingi Pengurusan Surat HGB-SHM Korban Kebakaran Taman Sari</t>
+          <t>Nasional | Rabu, 01 Oktober 2025 02:00 WIB Polri Terbitkan Perkap Atur Tindakan Personel saat Hadapi Ancaman Penyerangan</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/338/3173411/pramono-janji-dampingi-pengurusan-surat-hgb-shm-korban-kebakaran-taman-sari</t>
+          <t>https://news.okezone.com/read/2025/09/30/337/3173594/polri-terbitkan-perkap-atur-tindakan-personel-saat-hadapi-ancaman-penyerangan</t>
         </is>
       </c>
       <c r="E49" t="b">
@@ -1716,12 +1716,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>KPPU Denda TikTok Rp15 Miliar Imbas Telat Lapor Akuisisi Tokopedia</t>
+          <t>Eks Persib Bandung Mateo Kocijan Batal Gabung Persis Solo, Pilih Mudik ke Krosia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hot Issue | Selasa, 30 September 2025 10:11 WIB KPPU Denda TikTok Rp15 Miliar Imbas Telat Lapor Akuisisi Tokopedia</t>
+          <t>Sepakbola Dunia | Rabu, 01 Oktober 2025 01:18 WIB Eks Persib Bandung Mateo Kocijan Batal Gabung Persis Solo, Pilih Mudik ke Krosia</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/30/320/3173410/kppu-denda-tiktok-rp15-miliar-imbas-telat-lapor-akuisisi-tokopedia</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173474/eks-persib-bandung-mateo-kocijan-batal-gabung-persis-solo-pilih-mudik-ke-krosia</t>
         </is>
       </c>
       <c r="E50" t="b">
@@ -1742,12 +1742,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Timnas Malaysia Kalah WO 0-3 dari Vietnam dan Nepal di Kualifikasi Piala Asia 2027 Setelah Mainkan Pemain Ilegal?</t>
+          <t>29 Terdakwa Kasus Narkotika di Jakarta Dituntut Hukuman Mati</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Selasa, 30 September 2025 10:09 WIB Timnas Malaysia Kalah WO 0-3 dari Vietnam dan Nepal di Kualifikasi Piala Asia 2027 Setelah Mainkan Pemain Ilegal?</t>
+          <t>Megapolitan | Rabu, 01 Oktober 2025 01:05 WIB 29 Terdakwa Kasus Narkotika di Jakarta Dituntut Hukuman Mati</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/51/3173409/timnas-malaysia-kalah-wo-0-3-dari-vietnam-dan-nepal-di-kualifikasi-piala-asia-2027-setelah-mainkan-pemain-ilegal</t>
+          <t>https://news.okezone.com/read/2025/09/30/338/3173590/29-terdakwa-kasus-narkotika-di-jakarta-dituntut-hukuman-mati</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -1768,12 +1768,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Akses Produksi Pertanian Nagekeo Sempat Terputus, Kosmas Lawa Bagho Sigap Perbaiki Bersama Warga NTT</t>
+          <t>Perasaan Campur Aduk Francesco Bagnaia Usai Menang di MotoGP Jepang 2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nusantara | Selasa, 30 September 2025 10:06 WIB Akses Produksi Pertanian Nagekeo Sempat Terputus, Kosmas Lawa Bagho Sigap Perbaiki Bersama Warga NTT</t>
+          <t>MotoGP | Rabu, 01 Oktober 2025 01:01 WIB Perasaan Campur Aduk Francesco Bagnaia Usai Menang di MotoGP Jepang 2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/340/3173408/akses-produksi-pertanian-nagekeo-sempat-terputus-kosmas-lawa-bagho-sigap-perbaiki-bersama-warga-ntt</t>
+          <t>https://sports.okezone.com/read/2025/09/30/38/3173471/perasaan-campur-aduk-francesco-bagnaia-usai-menang-di-motogp-jepang-2025</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -1794,12 +1794,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nunung Akui Serakah soal Makanan Sebelum Idap Kanker</t>
+          <t>Gempa M6,5 Guncang Sumenep, Geteran Dirasakan hingga Bali</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hot Gossip | Selasa, 30 September 2025 10:03 WIB Nunung Akui Serakah soal Makanan Sebelum Idap Kanker</t>
+          <t>Nasional | Rabu, 01 Oktober 2025 00:40 WIB Gempa M6,5 Guncang Sumenep, Geteran Dirasakan hingga Bali</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173359/nunung-akui-serakah-soal-makanan-sebelum-idap-kanker</t>
+          <t>https://news.okezone.com/read/2025/10/01/337/3173615/gempa-m6-5-guncang-sumenep-geteran-dirasakan-hingga-bali</t>
         </is>
       </c>
       <c r="E53" t="b">
@@ -1820,12 +1820,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Hadir di Tengah Pertemuan Baim Wong dan Paula Verhoeven, Kimberly Ryder Bongkar Fakta Ini</t>
+          <t>Gempa M6,5 Guncang Sumenep, Warga Sampang Panik Berhamburan Keluar Rumah</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Hot Gossip | Selasa, 30 September 2025 10:02 WIB Hadir di Tengah Pertemuan Baim Wong dan Paula Verhoeven, Kimberly Ryder Bongkar Fakta Ini</t>
+          <t>Nusantara | Rabu, 01 Oktober 2025 00:36 WIB Gempa M6,5 Guncang Sumenep, Warga Sampang Panik Berhamburan Keluar Rumah</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173356/hadir-di-tengah-pertemuan-baim-wong-dan-paula-verhoeven-kimberly-ryder-bongkar-fakta-ini</t>
+          <t>https://news.okezone.com/read/2025/10/01/340/3173614/gempa-m6-5-guncang-sumenep-warga-sampang-panik-berhamburan-keluar-rumah</t>
         </is>
       </c>
       <c r="E54" t="b">
@@ -1846,12 +1846,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>8 Santri Tertimbun Puing Mushola Ponpes di Sidoarjo Berhasil Dievakuasi</t>
+          <t>Latih Timnas Indonesia U-23, Indra Sjafri Janji Lanjutkan Warisan Gerald Vanenburg di SEA Games 2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Nusantara | Selasa, 30 September 2025 10:00 WIB 8 Santri Tertimbun Puing Mushola Ponpes di Sidoarjo Berhasil Dievakuasi</t>
+          <t>Sepakbola Dunia | Rabu, 01 Oktober 2025 00:31 WIB Latih Timnas Indonesia U-23, Indra Sjafri Janji Lanjutkan Warisan Gerald Vanenburg di SEA Games 2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/340/3173406/8-santri-tertimbun-puing-mushola-ponpes-di-sidoarjo-berhasil-dievakuasi</t>
+          <t>https://bola.okezone.com/read/2025/09/30/51/3173470/latih-timnas-indonesia-u-23-indra-sjafri-janji-lanjutkan-warisan-gerald-vanenburg-di-sea-games-2025</t>
         </is>
       </c>
       <c r="E55" t="b">
@@ -1872,12 +1872,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sabrina Hapus Nama Deddy Corbuzier di Medsos, Ada Apa?</t>
+          <t>Salahgunakan ITAS Investor, WN Tiongkok Ditangkap di PIK</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Life | Selasa, 30 September 2025 09:53 WIB Sabrina Hapus Nama Deddy Corbuzier di Medsos, Ada Apa?</t>
+          <t>Megapolitan | Rabu, 01 Oktober 2025 00:30 WIB Salahgunakan ITAS Investor, WN Tiongkok Ditangkap di PIK</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://women.okezone.com/read/2025/09/30/612/3173407/sabrina-hapus-nama-deddy-corbuzier-di-medsos-ada-apa</t>
+          <t>https://news.okezone.com/read/2025/09/30/338/3173584/salahgunakan-itas-investor-wn-tiongkok-ditangkap-di-pik</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -1898,12 +1898,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Purbaya Siap Buka-bukaan Subsidi BBM hingga Listrik di DPR</t>
+          <t>Gempa M6,5 Guncang Sumenep, BMKG: Tidak Berpotensi Tsunami</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hot Issue | Selasa, 30 September 2025 09:52 WIB Purbaya Siap Buka-bukaan Subsidi BBM hingga Listrik di DPR</t>
+          <t>Nasional | Rabu, 01 Oktober 2025 00:27 WIB Gempa M6,5 Guncang Sumenep, BMKG: Tidak Berpotensi Tsunami</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/30/320/3173405/purbaya-siap-buka-bukaan-subsidi-bbm-hingga-listrik-di-dpr</t>
+          <t>https://news.okezone.com/read/2025/10/01/337/3173613/gempa-m6-5-guncang-sumenep-bmkg-tidak-berpotensi-tsunami</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -1924,12 +1924,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5 Atlet Bulu Tangkis Dunia yang Suka Kuliner Khas Indonesia, Nomor 1 Doyan Bakso!</t>
+          <t>Breaking News! Gempa M6,5 Guncang Sumenep Jatim</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Netting | Selasa, 30 September 2025 09:44 WIB 5 Atlet Bulu Tangkis Dunia yang Suka Kuliner Khas Indonesia, Nomor 1 Doyan Bakso!</t>
+          <t>Nasional | Rabu, 01 Oktober 2025 00:23 WIB Breaking News! Gempa M6,5 Guncang Sumenep Jatim</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/30/40/3173404/5-atlet-bulu-tangkis-dunia-yang-suka-kuliner-khas-indonesia-nomor-1-doyan-bakso</t>
+          <t>https://news.okezone.com/read/2025/10/01/337/3173612/breaking-news-gempa-m6-5-guncang-sumenep-jatim</t>
         </is>
       </c>
       <c r="E58" t="b">
@@ -1950,12 +1950,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IHSG Dibuka Menguat ke 8.150, Dekati Rekor Tertinggi</t>
+          <t>2.318 Tersangka Narkotika Ditangkap, Jaringan Internasional hingga Home Industri</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Market Update | Selasa, 30 September 2025 09:40 WIB IHSG Dibuka Menguat ke 8.150, Dekati Rekor Tertinggi</t>
+          <t>Megapolitan | Rabu, 01 Oktober 2025 00:05 WIB 2.318 Tersangka Narkotika Ditangkap, Jaringan Internasional hingga Home Industri</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/30/278/3173402/ihsg-dibuka-menguat-ke-nbsp-8-150-dekati-rekor-tertinggi-nbsp</t>
+          <t>https://news.okezone.com/read/2025/09/30/338/3173578/2-318-tersangka-narkotika-ditangkap-jaringan-internasional-hingga-home-industri</t>
         </is>
       </c>
       <c r="E59" t="b">
@@ -1976,12 +1976,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Waspada! Obesitas Tingkatkan Risiko Penyakit Jantung</t>
+          <t>Marc Marquez Ungkap Lawan Terberatnya untuk Rebut Gelar Juara MotoGP 2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Health | Selasa, 30 September 2025 09:37 WIB Waspada! Obesitas Tingkatkan Risiko Penyakit Jantung</t>
+          <t>MotoGP | Rabu, 01 Oktober 2025 00:01 WIB Marc Marquez Ungkap Lawan Terberatnya untuk Rebut Gelar Juara MotoGP 2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://women.okezone.com/read/2025/09/30/482/3173401/waspada-obesitas-tingkatkan-risiko-penyakit-jantung</t>
+          <t>https://sports.okezone.com/read/2025/09/30/38/3173456/marc-marquez-ungkap-lawan-terberatnya-untuk-rebut-gelar-juara-motogp-2025</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -2002,12 +2002,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Pramono Tinjau Lokasi Kebakaran di Taman Sari, Warga Butuh Popok dan Urus Surat Berharga</t>
+          <t>News</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Megapolitan | Selasa, 30 September 2025 09:32 WIB Pramono Tinjau Lokasi Kebakaran di Taman Sari, Warga Butuh Popok dan Urus Surat Berharga</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/338/3173400/pramono-tinjau-lokasi-kebakaran-di-taman-sari-warga-butuh-popok-dan-urus-surat-berharga</t>
+          <t>https://news.okezone.com/</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -2028,12 +2028,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4 Negara yang Pernah Terseret Skandal Naturalisasi, Nomor 1 Tetangga Indonesia!</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Selasa, 30 September 2025 09:22 WIB 4 Negara yang Pernah Terseret Skandal Naturalisasi, Nomor 1 Tetangga Indonesia!</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/51/3173398/4-negara-yang-pernah-terseret-skandal-naturalisasi-nomor-1-tetangga-indonesia</t>
+          <t>https://economy.okezone.com/</t>
         </is>
       </c>
       <c r="E62" t="b">
@@ -2054,12 +2054,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Pelaku Pembakaran Kantor Polisi di Kediri Ditangkap!</t>
+          <t>Lifestyle</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nusantara | Selasa, 30 September 2025 09:16 WIB Pelaku Pembakaran Kantor Polisi di Kediri Ditangkap!</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/340/3173397/pelaku-pembakaran-kantor-polisi-di-kediri-ditangkap</t>
+          <t>https://lifestyle.okezone.com/</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -2080,12 +2080,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Kenapa Ikan Hiu Mengandung Merkuri yang Tinggi?</t>
+          <t>Celebrity</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Food | Selasa, 30 September 2025 09:10 WIB Kenapa Ikan Hiu Mengandung Merkuri yang Tinggi?</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://women.okezone.com/read/2025/09/29/298/3173305/kenapa-ikan-hiu-mengandung-merkuri-yang-tinggi</t>
+          <t>https://celebrity.okezone.com/</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -2106,12 +2106,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Billy Syahputra dan Vika Kolesnaya Dikaruniai Anak Pertama Setelah Menikah</t>
+          <t>Bola</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hot Gossip | Selasa, 30 September 2025 09:01 WIB Billy Syahputra dan Vika Kolesnaya Dikaruniai Anak Pertama Setelah Menikah</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/29/33/3173354/billy-syahputra-dan-vika-kolesnaya-dikaruniai-anak-pertama-setelah-menikah-nbsp</t>
+          <t>https://bola.okezone.com/</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -2132,12 +2132,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5 Fakta Mushola Roboh di Ponpes Sidoarjo, 1 Orang Tewas dan 79 Terluka</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Nasional | Selasa, 30 September 2025 08:59 WIB 5 Fakta Mushola Roboh di Ponpes Sidoarjo, 1 Orang Tewas dan 79 Terluka</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/337/3173395/5-fakta-mushola-roboh-di-ponpes-sidoarjo-1-orang-tewas-dan-79-terluka</t>
+          <t>https://sports.okezone.com/</t>
         </is>
       </c>
       <c r="E66" t="b">
@@ -2158,12 +2158,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Harga Emas Antam Hari Ini Cetak Rekor Lagi, Tembus Rp2,2 Juta per Gram!</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hot Issue | Selasa, 30 September 2025 08:57 WIB Harga Emas Antam Hari Ini Cetak Rekor Lagi, Tembus Rp2,2 Juta per Gram!</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/30/320/3173394/harga-emas-antam-hari-ini-cetak-rekor-lagi-tembus-rp2-2-juta-per-gram</t>
+          <t>https://travel.okezone.com/</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -2184,12 +2184,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Baru Jadi Juara Dunia MotoGP 2025, Marc Marquez Langsung Ditantang Taklukkan Sirkuit Mandalika!</t>
+          <t>Highend</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MotoGP | Selasa, 30 September 2025 08:50 WIB Baru Jadi Juara Dunia MotoGP 2025, Marc Marquez Langsung Ditantang Taklukkan Sirkuit Mandalika!</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/30/38/3173393/baru-jadi-juara-dunia-motogp-2025-marc-marquez-langsung-ditantang-taklukkan-sirkuit-mandalika</t>
+          <t>https://highend-magazine.okezone.com/</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -2210,12 +2210,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sinopsis Series Vision+ Cinta di Balik Awan Episode 2, Hanya di RCTI</t>
+          <t>Muslim</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TV Scoop | Selasa, 30 September 2025 08:30 WIB Sinopsis Series Vision+ Cinta di Balik Awan Episode 2, Hanya di RCTI</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://celebrity.okezone.com/read/2025/09/30/598/3173399/sinopsis-series-vision-cinta-di-balik-awan-episode-2-hanya-di-rcti</t>
+          <t>https://muslim.okezone.com/</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -2236,12 +2236,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Raperda Kawasan Tanpa Rokok Dikebut DPRD, Ini Kata Orang Dekat Pramono</t>
+          <t>Haji</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Megapolitan | Selasa, 30 September 2025 08:10 WIB Raperda Kawasan Tanpa Rokok Dikebut DPRD, Ini Kata Orang Dekat Pramono</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://news.okezone.com/read/2025/09/30/338/3173392/raperda-kawasan-tanpa-rokok-dikebut-dprd-ini-kata-orang-dekat-pramono</t>
+          <t>https://haji.okezone.com/</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -2262,12 +2262,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Potret Ruben Onsu Cium Hajar Aswad</t>
+          <t>Edukasi</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Life | Selasa, 30 September 2025 08:10 WIB Potret Ruben Onsu Cium Hajar Aswad</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://women.okezone.com/read/2025/09/29/612/3173301/potret-ruben-onsu-cium-hajar-aswad</t>
+          <t>https://edukasi.okezone.com/</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -2288,12 +2288,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PSSI: Gerald Vanenburg Tetap Pelatih Timnas Indonesia U-23, Indra Sjafri Hanya untuk SEA Games 2025</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Selasa, 30 September 2025 08:06 WIB PSSI: Gerald Vanenburg Tetap Pelatih Timnas Indonesia U-23, Indra Sjafri Hanya untuk SEA Games 2025</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/51/3173391/pssi-gerald-vanenburg-tetap-pelatih-timnas-indonesia-u-23-indra-sjafri-hanya-untuk-sea-games-2025</t>
+          <t>https://health.okezone.com/</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -2314,12 +2314,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Zulhas Sebut Tak Perlu Semua Masalah Dibawa ke Prabowo</t>
+          <t>Techno</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hot Issue | Selasa, 30 September 2025 08:02 WIB Zulhas Sebut Tak Perlu Semua Masalah Dibawa ke Prabowo</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://economy.okezone.com/read/2025/09/30/320/3173390/zulhas-sebut-tak-perlu-semua-masalah-dibawa-ke-prabowo</t>
+          <t>https://techno.okezone.com/</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -2340,12 +2340,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3 Pembalap MotoGP yang Pernah Menang di Sirkuit Mandalika, Nomor 1 Namanya Terukir dalam Sejarah!</t>
+          <t>Otomotif</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MotoGP | Selasa, 30 September 2025 07:55 WIB 3 Pembalap MotoGP yang Pernah Menang di Sirkuit Mandalika, Nomor 1 Namanya Terukir dalam Sejarah!</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://sports.okezone.com/read/2025/09/30/38/3173389/3-pembalap-motogp-yang-pernah-menang-di-sirkuit-mandalika-nomor-1-namanya-terukir-dalam-sejarah</t>
+          <t>https://otomotif.okezone.com/</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -2366,12 +2366,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Patrick Kluivert Panggil Cyrus Margono untuk Laga Timnas Indonesia vs Arab Saudi dan Irak karena Emil Audero Cedera?</t>
+          <t>Infografis</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sepakbola Dunia | Selasa, 30 September 2025 07:38 WIB Patrick Kluivert Panggil Cyrus Margono untuk Laga Timnas Indonesia vs Arab Saudi dan Irak karena Emil Audero Cedera?</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2381,13 +2381,1053 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://bola.okezone.com/read/2025/09/30/51/3173388/patrick-kluivert-panggil-cyrus-margono-untuk-laga-timnas-indonesia-vs-arab-saudi-dan-irak-karena-emil-audero-cedera</t>
+          <t>https://infografis.okezone.com/</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://foto.okezone.com/</t>
+        </is>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://video.okezone.com/</t>
+        </is>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Indeks</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/</t>
+        </is>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>OKEZONE TV</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>http://tv.okezone.com/</t>
+        </is>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Booking Hotel</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>http://www.misteraladin.com/</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Fashion Online</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://brandoutlet.co.id/</t>
+        </is>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Asuransi Kendaraan</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>http://www.mnc-insurance.com</t>
+        </is>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MNC Shop</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.mncshop.com/</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ARSIP</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/arsip</t>
+        </is>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TERPOPULER</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/populer</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PERISKOP</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/periskop</t>
+        </is>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>KALEIDOSKOP</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/kaleidoskop</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BERITA</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/index</t>
+        </is>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>BY KANAL</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/kanal</t>
+        </is>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>HEADLINE</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/headline</t>
+        </is>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Okezone News 22 Berita</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/1</t>
+        </is>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Okezone Finance 8 Berita</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/11</t>
+        </is>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Okezone Women 3 Berita</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/12</t>
+        </is>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Okezone Celebrity 5 Berita</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/13</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Okezone Sports 7 Berita</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/2</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Okezone Bola 13 Berita</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/14</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Okezone Ototekno 1 Berita</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/630</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Okezone Edukasi 1 Berita</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/623</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Okezone Foto 0 Berita</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/foto/</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Okezone Video 0 Berita</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/video/</t>
+        </is>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Okezone Infografis 0 Berita</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/infografis/</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Muslim</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/613</t>
+        </is>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/298</t>
+        </is>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/482</t>
+        </is>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TV Scope</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/533</t>
+        </is>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Quiz</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/628</t>
+        </is>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/foto</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/video</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Tren</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://index.okezone.com/home/channel/620</t>
+        </is>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>About Us</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://management.okezone.com</t>
+        </is>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Redaksi</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://management.okezone.com/redaksi</t>
+        </is>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Kotak Pos</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://management.okezone.com/pos</t>
+        </is>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Karier</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://career.okezone.com</t>
+        </is>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Info Iklan</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://client.okezone.com/advertising</t>
+        </is>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Disclaimer</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://management.okezone.com/disclaimer</t>
+        </is>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
